--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="134" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="113" customWidth="1" min="6" max="6"/>
+    <col width="151" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="112" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="220" customWidth="1" min="8" max="8"/>
+    <col width="232" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,12 +486,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4hbv3od</t>
+          <t>1jdi6qi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Speaker</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -501,69 +501,73 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jovitech Speaker Bluetooth 5.0 Jam Alarm LED Display Ultra Bass S10</t>
+          <t>Celana Pendek Celana Santai Celana Kolor Jeans Pinggang Karet</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>160200</v>
+        <v>178000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/50121709003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/4195917998/large/Celana_Pendek_Celana_Santai_Celana_Kolor_Jeans_Pinggang_Kare.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/elektronik/elektronik-audio/speaker/4hbv3od-jual-jovitech-speaker-bluetooth-5-0-jam-alarm-led-display-ultra-bass-s10</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/1jdi6qi-jual-celana-pendek-celana-santai-celana-kolor-jeans-pinggang-karet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4h6egt7</t>
+          <t>4ffomkp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jam</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Goto Orion Clock Table Speaker Bluetooth Jam Meja Digital Portable LED</t>
+          <t>Celana Dalam Pria Crocodile 251 3pcs-Box - Kolor Laki Laki</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>214200</v>
+        <v>77250</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/00795775792/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/53641673392/large/data.png</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/rumah-tangga/jam/4h6egt7-jual-goto-orion-clock-table-speaker-bluetooth-jam-meja-digital-portable-led</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ffomkp-jual-celana-dalam-pria-crocodile-251-3pcs-box-kolor-laki-laki</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4gug2jj</t>
+          <t>1jdi6qi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,35 +577,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LIGE original jam tangan pria tali kulit anti air olahraga kronograf jam tangan</t>
+          <t>Celana Pendek Celana Santai Celana Kolor Jeans Pinggang Karet</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>458000</v>
+        <v>178000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92570192992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/4195917998/large/Celana_Pendek_Celana_Santai_Celana_Kolor_Jeans_Pinggang_Kare.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug2jj-jual-lige-original-jam-tangan-pria-tali-kulit-anti-air-olahraga-kronograf-jam-tangan</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/1jdi6qi-jual-celana-pendek-celana-santai-celana-kolor-jeans-pinggang-karet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3d4r64a</t>
+          <t>4herped</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,35 +615,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jam Tangan CURREN Original Jam Tangan pria Men s Quartz Watch Waterproof Chronograph Watch 8354</t>
+          <t>Celana Cargo Pendek Pria Celana Kolor Pria Surfing Distro Size 28-32 Celana Outdoor Survival</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>466400</v>
+        <v>64000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17924221622/large/Ready_CURREN_Original_Jam_Tangan_pria_Men_s_Quartz_Watch_Wat.png</t>
+          <t>https://s3.bukalapak.com/img/80070932992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/3d4r64a-jual-jam-tangan-curren-original-jam-tangan-pria-men-s-quartz-watch-waterproof-chronograph-watch-8354</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4herped-jual-celana-cargo-pendek-pria-celana-kolor-pria-surfing-distro-size-28-32-celana-outdoor-survival</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4gug4f4</t>
+          <t>4gizwi1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,35 +653,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Original Multi Fungsi Anti Air Kalender Kronograf Sport Jam Tangan</t>
+          <t>Celana Pendek Pria Distro Premium Chino Chinos Surfing Santai Renang Kolor Pantai Cowok Laki Original Terbaru Keren nyaman Halus terlaris</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>498000</v>
+        <v>33300</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45153125203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02902693492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug4f4-jual-jam-tangan-pria-original-multi-fungsi-anti-air-kalender-kronograf-sport-jam-tangan</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4gizwi1-jual-celana-pendek-pria-distro-premium-chino-chinos-surfing-santai-renang-kolor-pantai-cowok-laki-original-terbaru-keren-nyaman-halus-terlaris</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4h9a7ma</t>
+          <t>4gizwi1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,15 +691,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LUMINOVA Jam Dinding Bulat Quartz Creative Design Luminous Glow in The Dark 30CM - List Hitam MDB4 - Jam Dinding Menyala Dalam Gelap</t>
+          <t>Celana Pendek Pria Distro Premium Chino Chinos Surfing Santai Renang Kolor Pantai Cowok Laki Original Terbaru Keren nyaman Halus terlaris</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>45900</v>
+        <v>33300</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/16142659003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02902693492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -703,19 +707,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4h9a7ma-jual-luminova-jam-dinding-bulat-quartz-creative-design-luminous-glow-in-the-dark-30cm-list-hitam-mdb4-jam-dinding-menyala-dalam-gelap</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4gizwi1-jual-celana-pendek-pria-distro-premium-chino-chinos-surfing-santai-renang-kolor-pantai-cowok-laki-original-terbaru-keren-nyaman-halus-terlaris</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4fqvq8j</t>
+          <t>3vnkkok</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -725,15 +729,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jam Dinding Tempel Besar DIY Senyap Analog 3D Giant Clock Modern</t>
+          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14900</v>
+        <v>86250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/56445178792/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/83236762003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -741,19 +745,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4fqvq8j-jual-jam-dinding-tempel-besar-diy-senyap-analog-3d-giant-clock-modern</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3vnkkok-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>23hntyf</t>
+          <t>4hlgh17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -763,35 +767,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2521-13 - Marine Blue</t>
+          <t>Celana Kolor Pendek Santai Futsal Sport Pria Cowok Dewasa Remaja Big Size Super Jumbo XXL XXXL 3L 4L Murah Melamin</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>59126</v>
+        <v>13100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/51964414131/large/Jam_Dinding_Diamond_2521_13___Marine_Blue.jpg</t>
+          <t>https://s2.bukalapak.com/img/24496777003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/23hntyf-jual-jam-dinding-diamond-2521-13-marine-blue</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hlgh17-jual-celana-kolor-pendek-santai-futsal-sport-pria-cowok-dewasa-remaja-big-size-super-jumbo-xxl-xxxl-3l-4l-murah-melamin</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23hk6vj</t>
+          <t>34mzqr2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -801,35 +805,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-14 - Putih</t>
+          <t>Celana chinos panjang kolor rip pria</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>74166</v>
+        <v>75000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27353636821/large/Jam_Dinding_Diamond_2711_14___Putih.jpg</t>
+          <t>https://s3.bukalapak.com/img/37418325103/large/data.png</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/23hk6vj-jual-jam-dinding-diamond-2711-14-putih</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/34mzqr2-jual-celana-chinos-panjang-kolor-rip-pria</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4ay0pda</t>
+          <t>clrsro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -839,35 +843,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jam Dinding STYLO 3228-4 - Black</t>
+          <t>Celana Pendek Pria Dewasa - Tanggung - Kolor Pendek - Celana Santai Kolor Termurah Abu</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>92966</v>
+        <v>12800</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71473804972/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/6029670802/large/Celana_Pendek_Pria_Dewasa___Tanggung___Kolor_Pendek___Celana.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4ay0pda-jual-jam-dinding-stylo-3228-4-black</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/clrsro-jual-celana-pendek-pria-dewasa-tanggung-kolor-pendek-celana-santai-kolor-termurah-abu</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4hrc95j</t>
+          <t>3vnkkok</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -877,35 +881,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TaffHOME Jam Dinding Besar Giant Wall Clock Quartz 100cm - D15</t>
+          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>78688</v>
+        <v>86250</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/43411613203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/83236762003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4hrc95j-jual-taffhome-jam-dinding-besar-giant-wall-clock-quartz-100cm-d15</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3vnkkok-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>23hlpxr</t>
+          <t>3t3q99m</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -915,35 +919,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 232-8 - Silver</t>
+          <t>CELANA PENDEK DALAM CD Kolor BOXER PRiA SPORT OLAHRAGA Tidur Underwear obral murah indonesia laki</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>69466</v>
+        <v>13500</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24165836821/large/Jam_Dinding_Diamond_232_8___Silver.png</t>
+          <t>https://s3.bukalapak.com/img/37323747103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/23hlpxr-jual-jam-dinding-diamond-232-8-silver</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3t3q99m-jual-celana-pendek-dalam-cd-kolor-boxer-pria-sport-olahraga-tidur-underwear-obral-murah-indonesia-laki</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3gaqoq4</t>
+          <t>3xhduy4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -953,35 +957,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 236-17 - Brown</t>
+          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok size 27 sampai 38</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>75106</v>
+        <v>86250</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/94302655332/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/70806373003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3gaqoq4-jual-jam-dinding-diamond-236-17-brown</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3xhduy4-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-size-27-sampai-38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1mwmr4w</t>
+          <t>4hmzbl4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -991,35 +995,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jam Weker Jam Meja Beker Jam Meja Alarm</t>
+          <t>OPPORTUNITY Celana Pendek Kolor Tali Pinggang Pria Kasual Distro Premium</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37500</v>
+        <v>80000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/9472531669/large/Jam_Weker_Jam_Meja_Beker_Jam_Meja_Alarm.png</t>
+          <t>https://s0.bukalapak.com/img/53917046203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/1mwmr4w-jual-jam-weker-jam-meja-beker-jam-meja-alarm</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hmzbl4-jual-opportunity-celana-pendek-kolor-tali-pinggang-pria-kasual-distro-premium</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3ni3nty</t>
+          <t>37bqlkf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1029,35 +1033,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2017-3 - Soft Pink</t>
+          <t>Celana pendek chino kolor premium</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53486</v>
+        <v>33500</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26977019442/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65378997312/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3ni3nty-jual-jam-dinding-diamond-2017-3-soft-pink</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/37bqlkf-jual-celana-pendek-chino-kolor-premium</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1tq914q</t>
+          <t>4hg19qp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1067,35 +1071,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SKMEI 1243 Digital Sport Watch Jam Tangan Pria Original TERMASUK KOTAK watch SP</t>
+          <t>PAKET USAHA 1kg CELANA PENDEK - Celana Pendek Pria Training | Celana Kolor | Celana Santai Murah</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185000</v>
+        <v>138000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61698889901/large/SKMEI_1243_Digital_Sport_Watch_Jam_Tangan_Pria_Original_TERM.png</t>
+          <t>https://s2.bukalapak.com/img/23539994992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/1tq914q-jual-skmei-1243-digital-sport-watch-jam-tangan-pria-original-termasuk-kotak-watch-sp</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hg19qp-jual-paket-usaha-1kg-celana-pendek-celana-pendek-pria-training-celana-kolor-celana-santai-murah</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1tq804s</t>
+          <t>4hquhes</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1105,35 +1109,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SKMEI 1155 ORIGINAL Jam Tangan Pria Sport TERMASUK KOTAK watch SP</t>
+          <t>CELANA SANTAI PRIA BOXER JUMBO BIG SIZE M-5XL KOLOR CELANA PENDEK PRIA SANTAI SEHARI-HARI</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>195800</v>
+        <v>63750</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17493789901/large/SKMEI_1155_ORIGINAL_Jam_Tangan_Pria_Sport_TERMASUK_KOTAK_wat.png</t>
+          <t>https://s2.bukalapak.com/img/72547061203/large/data.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/1tq804s-jual-skmei-1155-original-jam-tangan-pria-sport-termasuk-kotak-watch-sp</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hquhes-jual-celana-santai-pria-boxer-jumbo-big-size-m-5xl-kolor-celana-pendek-pria-santai-sehari-hari</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3d4wect</t>
+          <t>4cxja1v</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1143,35 +1147,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CURREN 8001 Jam Tangan Quartz Fashion Pria</t>
+          <t>Celana Pendek Kolor Warna Kombinasi - Celana Santai Allsize Zumbo size Dewasa</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>358000</v>
+        <v>12000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72422825203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/12768053482/large/data.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/3d4wect-jual-curren-8001-jam-tangan-quartz-fashion-pria</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4cxja1v-jual-celana-pendek-kolor-warna-kombinasi-celana-santai-allsize-zumbo-size-dewasa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>kmk41p</t>
+          <t>4hquhlp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1181,35 +1185,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jam Tangan Pria Quiksilver Daydate QR06 Leather VC</t>
+          <t>BOXER PRIA JUMBO M-5XL BIG SIZE KOLOR SANTAI PRIA XXXXXL</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>155500</v>
+        <v>63750</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3986011292/large/Jam_Tangan_Pria_Quiksilver_Daydate_QR06_Leather_VC.jpg</t>
+          <t>https://s4.bukalapak.com/img/49897061203/large/data.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/kmk41p-jual-jam-tangan-pria-quiksilver-daydate-qr06-leather-vc</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hquhlp-jual-boxer-pria-jumbo-m-5xl-big-size-kolor-santai-pria-xxxxxl</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4hsem2g</t>
+          <t>cdxgbw</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jam Tangan Digital Pria</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1219,35 +1223,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jam Tangan Smartwatch TWS Bluetooth Headphones F26 3 in 1 with Earphone Nirkabel In Ear</t>
+          <t>celana pendek kolor celana pria kolor ukuran standar</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1570000</v>
+        <v>26000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24987176203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/72678012103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/jam-tangan-digital-pria/4hsem2g-jual-jam-tangan-smartwatch-tws-bluetooth-headphones-f26-3-in-1-with-earphone-nirkabel-in-ear</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/cdxgbw-jual-celana-pendek-kolor-celana-pria-kolor-ukuran-standar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sahrg</t>
+          <t>4hr09qg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1257,15 +1261,15 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EELIC lampu meja belajar / lampu baca  JAM JM-819</t>
+          <t>TERMURAH Celana Pendek Pria Wanita Dewasa Chino Rip Karet Pinggang Kolor Chinos Motif Random</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>56000</v>
+        <v>20000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/735709671/large/819-1.JPG</t>
+          <t>https://s2.bukalapak.com/img/28957112203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1273,19 +1277,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/sahrg-jual-eelic-lampu-meja-belajar-lampu-baca-jam-jm-819</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hr09qg-jual-termurah-celana-pendek-pria-wanita-dewasa-chino-rip-karet-pinggang-kolor-chinos-motif-random</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3garmqf</t>
+          <t>4hfzdtg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1295,35 +1299,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 236-17 - Maroon</t>
+          <t>Celana Kolor Pendek Pria Dewasa Jumbo Tebal Halus Eg Terbaru Terlaris</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>75106</v>
+        <v>23500</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/86851165332/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/08692094992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3garmqf-jual-jam-dinding-diamond-236-17-maroon</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hfzdtg-jual-celana-kolor-pendek-pria-dewasa-jumbo-tebal-halus-eg-terbaru-terlaris</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4hrc967</t>
+          <t>4guj9h7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1333,35 +1337,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TaffHOME Jam Dinding Besar DIY Giant Wall Clock 100cm - D14</t>
+          <t>Celana Chino Pendek Pria Kolor Olahraga Pantai Surfing Santai Jumbo</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>77488</v>
+        <v>65000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22711613203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/93652014892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4hrc967-jual-taffhome-jam-dinding-besar-diy-giant-wall-clock-100cm-d14</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4guj9h7-jual-celana-chino-pendek-pria-kolor-olahraga-pantai-surfing-santai-jumbo</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4ay2iby</t>
+          <t>4friog7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1371,35 +1375,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 204C-13 - Gold</t>
+          <t>celana pendek pria kolor tali</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>71346</v>
+        <v>9500</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/31911214972/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02209687192/large/data.jpeg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4ay2iby-jual-jam-dinding-diamond-204c-13-gold</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4friog7-jual-celana-pendek-pria-kolor-tali</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4dk53vp</t>
+          <t>37bqlkf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1409,35 +1413,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-8 - Silver</t>
+          <t>Celana pendek chino kolor premium</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>74166</v>
+        <v>33500</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/97617478582/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65378997312/large/data.jpeg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4dk53vp-jual-jam-dinding-diamond-2711-8-silver</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/37bqlkf-jual-celana-pendek-chino-kolor-premium</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4hjo9fd</t>
+          <t>439cwtm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1447,35 +1451,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond M720T-20 - Brown</t>
+          <t>PAKET 4PCS CELANA PENDEK BOXER DISTRO - CELANA SANTAI - CELANA KOLOR - UNISEX - WARNA RANDOM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>70406</v>
+        <v>125000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33422623003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/33937262762/large/data.png</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4hjo9fd-jual-jam-dinding-diamond-m720t-20-brown</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439cwtm-jual-paket-4pcs-celana-pendek-boxer-distro-celana-santai-celana-kolor-unisex-warna-random</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4ay10nd</t>
+          <t>4bvkkxj</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1485,35 +1489,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jam Dinding CLASSY 3250-1 - Brown</t>
+          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium reguller</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>98606</v>
+        <v>92000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48508804972/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/40365257182/large/data.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4ay10nd-jual-jam-dinding-classy-3250-1-brown</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/4bvkkxj-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium-reguller</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3row03m</t>
+          <t>3vnilsc</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1523,35 +1527,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-9 - Brown</t>
+          <t>Celana Pendek Pria Surfing Distro Premium Renang Pantai Santai Kolor</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>74166</v>
+        <v>65000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84082921152/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/34308936662/large/data.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3row03m-jual-jam-dinding-diamond-2711-9-brown</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3vnilsc-jual-celana-pendek-pria-surfing-distro-premium-renang-pantai-santai-kolor</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3nhnbce</t>
+          <t>439do71</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1561,15 +1565,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2017-3 - Soft Blue</t>
+          <t>CELANA PENDEK DISTRO - BOXER DISTRO - CELANA KOLOR DISTRO MURAH - UNISEX - WARNA RANDOM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53486</v>
+        <v>35000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72207398442/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/34377362762/large/data.png</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1577,19 +1581,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3nhnbce-jual-jam-dinding-diamond-2017-3-soft-blue</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439do71-jual-celana-pendek-distro-boxer-distro-celana-kolor-distro-murah-unisex-warna-random</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3fax1nj</t>
+          <t>4hfl5y1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Olahraga</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1599,15 +1603,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-14 - Black</t>
+          <t>Celana Pendek Kolor Futsal Olahraga Pria dan Wanita</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>74166</v>
+        <v>26100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/10723562132/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/01897556992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1615,19 +1619,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3fax1nj-jual-jam-dinding-diamond-2711-14-black</t>
+          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hfl5y1-jual-celana-pendek-kolor-futsal-olahraga-pria-dan-wanita</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4gug3cj</t>
+          <t>38q867j</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1637,35 +1641,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LIGE 9839 fashion jam tangan pria original multi fungsi kronograf anti air olahraga jam tangan</t>
+          <t>Celana KOLOR Pria Wanita Size JUMBO- Celana Pendek - Celana olah raga - Celana sehari hari- Bagus dan nyaman dipakai</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>438000</v>
+        <v>20000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61906797592/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91523221792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug3cj-jual-lige-9839-fashion-jam-tangan-pria-original-multi-fungsi-kronograf-anti-air-olahraga-jam-tangan</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/38q867j-jual-celana-kolor-pria-wanita-size-jumbo-celana-pendek-celana-olah-raga-celana-sehari-hari-bagus-dan-nyaman-dipakai</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>kmlwca</t>
+          <t>439cwtm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1675,15 +1679,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jam SKMEI Pioneer Sport Watch Water Resistant 50m - DG1068 VC</t>
+          <t>PAKET 4PCS CELANA PENDEK BOXER DISTRO - CELANA SANTAI - CELANA KOLOR - UNISEX - WARNA RANDOM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>187800</v>
+        <v>125000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3867721292/large/Jam_SKMEI_Pioneer_Sport_Watch_Water_Resistant_50m___DG1068_V.jpg</t>
+          <t>https://s3.bukalapak.com/img/33937262762/large/data.png</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1691,19 +1695,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/kmlwca-jual-jam-skmei-pioneer-sport-watch-water-resistant-50m-dg1068-vc</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439cwtm-jual-paket-4pcs-celana-pendek-boxer-distro-celana-santai-celana-kolor-unisex-warna-random</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1tqa9ro</t>
+          <t>4cxjbca</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1713,35 +1717,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SKMEI 1299 Jam Tangan analog digital watch SP</t>
+          <t>Celana Pendek Kolor Harian Bahan Haiget Milano</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>195400</v>
+        <v>18000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/16237099901/large/SKMEI_1299_Jam_Tangan_analog_digital_watch_SP.png</t>
+          <t>https://s4.bukalapak.com/img/91149053482/large/data.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/1tqa9ro-jual-skmei-1299-jam-tangan-analog-digital-watch-sp</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4cxjbca-jual-celana-pendek-kolor-harian-bahan-haiget-milano</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3d4uazr</t>
+          <t>3t3q99m</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1751,35 +1755,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jam Tangan CURREN Original Jam Tangan Pria Fashion men s quartz watch 8366</t>
+          <t>CELANA PENDEK DALAM CD Kolor BOXER PRiA SPORT OLAHRAGA Tidur Underwear obral murah indonesia laki</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>350000</v>
+        <v>13500</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61114721622/large/Ready_CURREN_Original_Jam_Tangan_Pria_Fashion_men_s_quartz_w.png</t>
+          <t>https://s3.bukalapak.com/img/37323747103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/3d4uazr-jual-jam-tangan-curren-original-jam-tangan-pria-fashion-men-s-quartz-watch-8366</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3t3q99m-jual-celana-pendek-dalam-cd-kolor-boxer-pria-sport-olahraga-tidur-underwear-obral-murah-indonesia-laki</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3d4syyq</t>
+          <t>4ambe4d</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Jam Tangan</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1789,35 +1793,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jam Tangan  CURREN Jam Tangan Quartz Pria Chronograph Anti Air untuk 8355</t>
+          <t>CELANA DALAM BOXER MUNAFIE Pria Men Underwear CD Import Brief Katun Sempak Kolor Laki-Laki Premium</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>472800</v>
+        <v>4888</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65592521622/large/Ready_stock_CURREN_Jam_Tangan_Quartz_Pria_Chronograph_Anti_A.png</t>
+          <t>https://s2.bukalapak.com/img/29404421692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/3d4syyq-jual-jam-tangan-curren-jam-tangan-quartz-pria-chronograph-anti-air-untuk-8355</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ambe4d-jual-celana-dalam-boxer-munafie-pria-men-underwear-cd-import-brief-katun-sempak-kolor-laki-laki-premium</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>e10jza</t>
+          <t>3xhduy4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Panjang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1827,35 +1831,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Diamond Jam Dinding 2520-5 - Silver</t>
+          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok size 27 sampai 38</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>59126</v>
+        <v>86250</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/5897246552/large/Diamond_Jam_Dinding_2520_5___Silver_.jpg</t>
+          <t>https://s2.bukalapak.com/img/70806373003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/e10jza-jual-diamond-jam-dinding-2520-5-silver</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3xhduy4-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-size-27-sampai-38</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4ay2e31</t>
+          <t>4aj3mnp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1865,35 +1869,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 204C-13 - Marine Blue</t>
+          <t>BOXER MUNAFIE Pria Celana Dalam Men Underwear Sempak Import Brief Katun CD Laki-Laki Premium Kolor</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>71346</v>
+        <v>5850</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76558114972/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/73227355003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4ay2e31-jual-jam-dinding-diamond-204c-13-marine-blue</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4aj3mnp-jual-boxer-munafie-pria-celana-dalam-men-underwear-sempak-import-brief-katun-cd-laki-laki-premium-kolor</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2tq7r6x</t>
+          <t>h69aq9</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1903,35 +1907,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 321-8 - Grey</t>
+          <t>Paket 3pcs Celana XXXL Celana Pendek Pria Santai Olahraga Celana Kolor SUPER Jumbo XXXL</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>69466</v>
+        <v>60000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12376009281/large/321_8_Grey_Grey.jpg</t>
+          <t>https://s0.bukalapak.com/img/5486346152/large/2018_04_11T01_23_03_07_00.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/2tq7r6x-jual-jam-dinding-diamond-321-8-grey</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/h69aq9-jual-paket-3pcs-celana-xxxl-celana-pendek-pria-santai-olahraga-celana-kolor-super-jumbo-xxxl</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3gd2hx1</t>
+          <t>2fzgp6m</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1941,35 +1945,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 236-16 - Gold</t>
+          <t>Celana Pendek Pria Santai Olahraga Harian Santai Celana Kolor OKBos</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73226</v>
+        <v>10500</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/95434687332/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07544464932/large/2020-07-21T15%3A26%3A06%2B07%3A00.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3gd2hx1-jual-jam-dinding-diamond-236-16-gold</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/2fzgp6m-jual-celana-pendek-pria-santai-olahraga-harian-santai-celana-kolor-okbos</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2fmpd63</t>
+          <t>4hqv264</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Pendek</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1979,15 +1983,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2712-7 - Orange Matt</t>
+          <t>CELANA OLAHRAGA PRIA JUMBO BIG SIZE XXXXXL BOXER PENDEK KOLOR DEWASA</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>64766</v>
+        <v>59500</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02746319251/large/Jam_Dinding_Diamond_2712_7___Orange_Matt.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60338561203/large/data.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1995,19 +1999,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/2fmpd63-jual-jam-dinding-diamond-2712-7-orange-matt</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hqv264-jual-celana-olahraga-pria-jumbo-big-size-xxxxxl-boxer-pendek-kolor-dewasa</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3rovqb9</t>
+          <t>4ffomkp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2017,35 +2021,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-9 - Grey</t>
+          <t>Celana Dalam Pria Crocodile 251 3pcs-Box - Kolor Laki Laki</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>74166</v>
+        <v>77250</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12389821152/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/53641673392/large/data.png</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3rovqb9-jual-jam-dinding-diamond-2711-9-grey</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ffomkp-jual-celana-dalam-pria-crocodile-251-3pcs-box-kolor-laki-laki</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4fw2tk4</t>
+          <t>4hh5hzg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Olahraga</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2055,35 +2059,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 202T - Merah</t>
+          <t>Kolor full printing, celana voli voly volly full printing, celana snr terbaru, kolor pria dewasa dan anak anak fullprinting</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76986</v>
+        <v>50000</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/32403741292/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/90634127992/large/data.png</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4fw2tk4-jual-jam-dinding-diamond-202t-merah</t>
+          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hh5hzg-jual-kolor-full-printing-celana-voli-voly-volly-full-printing-celana-snr-terbaru-kolor-pria-dewasa-dan-anak-anak-fullprinting</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4fs0hx4</t>
+          <t>4hgsi11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Olahraga</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2093,15 +2097,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 321-4 - Black</t>
+          <t>Kolor full printing kolor voli voly vollyball terbaru</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>69466</v>
+        <v>50000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/37482628192/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/85910156992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2109,19 +2113,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4fs0hx4-jual-jam-dinding-diamond-321-4-black</t>
+          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hgsi11-jual-kolor-full-printing-kolor-voli-voly-vollyball-terbaru</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3row6bs</t>
+          <t>4fnr8p4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Celana Olahraga</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2131,35 +2135,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jam Dinding Diamond 2711-9 - Black</t>
+          <t>PREMIUM - Celana Pendek Pria Wanita Olahraga Sport Santai Running Fitness Gym Bola Futsal Training Adidas Nike Trening Lari Senam Fitnes Jogger Kolor</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>74166</v>
+        <v>94900</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/74764921152/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26886431992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/3row6bs-jual-jam-dinding-diamond-2711-9-black</t>
+          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4fnr8p4-jual-premium-celana-pendek-pria-wanita-olahraga-sport-santai-running-fitness-gym-bola-futsal-training-adidas-nike-trening-lari-senam-fitnes-jogger-kolor</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4ay15y4</t>
+          <t>4acw2sx</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dekorasi</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2169,213 +2173,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jam Dinding CLASSY 3250-1 - Maroon</t>
+          <t>Celana Dalam Anak GTman Kids GTKL 3pcs per box - Kolor Anak Laki-Laki</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>98606</v>
+        <v>59150</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49602904972/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/40066310692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/aksesoris-rumah-7354/dekorasi-7360/dekorasi-7513/4ay15y4-jual-jam-dinding-classy-3250-1-maroon</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>4hps9ta</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Jam Tangan Analog Pria</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Jam Tangan Pria Automatic Analog Tali Kulit CURRENOS CURREN 8299</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>687120</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/75327858103/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/jam-tangan-analog-pria/4hps9ta-jual-jam-tangan-pria-automatic-analog-tali-kulit-currenos-curren-8299</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4gug8id</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Jam Tangan</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>LIGE 10045 Original Jam Tangan Pria Terbaru Besi tahan karat anti air tanggal jam tangan kotak</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>438000</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/41128797592/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug8id-jual-lige-10045-original-jam-tangan-pria-terbaru-besi-tahan-karat-anti-air-tanggal-jam-tangan-kotak</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>4gug7ly</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Jam Tangan</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>LIGE Fashion Sports Jam Tangan Pria Kulit Tali Tahan Air Multi fungsi Kuarsa Jam Tangan Kotak</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>438000</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/59947797592/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>5</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug7ly-jual-lige-fashion-sports-jam-tangan-pria-kulit-tali-tahan-air-multi-fungsi-kuarsa-jam-tangan-kotak</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4gug824</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Jam Tangan</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>LIGE Original Jam Tangan Pria Fashion Tali Kulit Anti Air Kronograf Sports Jam Tangan 3 Days Arrive</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>458000</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/61297797592/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug824-jual-lige-original-jam-tangan-pria-fashion-tali-kulit-anti-air-kronograf-sports-jam-tangan-3-days-arrive</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>4gug7ta</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Jam Tangan</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>LIGE Kesederhanaan bergaya jam tangan pria 30M anti air kalender kulit kuarsa jam tangan</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>358000</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/81277797592/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/jam-tangan-171/4gug7ta-jual-lige-kesederhanaan-bergaya-jam-tangan-pria-30m-anti-air-kalender-kulit-kuarsa-jam-tangan</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/pakaian-dalam-1438/4acw2sx-jual-celana-dalam-anak-gtman-kids-gtkl-3pcs-per-box-kolor-anak-laki-laki</t>
         </is>
       </c>
     </row>

--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="151" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="112" customWidth="1" min="6" max="6"/>
+    <col width="141" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="113" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="232" customWidth="1" min="8" max="8"/>
+    <col width="211" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,12 +486,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1jdi6qi</t>
+          <t>3h1aa9m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Perlengkapan Bayi Lainnya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -501,73 +501,69 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Celana Pendek Celana Santai Celana Kolor Jeans Pinggang Karet</t>
+          <t>IQ Baby 900 Breast Pump Manual ASI Butterfly Pompa Manual Susu Bayi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>178000</v>
+        <v>229500</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/4195917998/large/Celana_Pendek_Celana_Santai_Celana_Kolor_Jeans_Pinggang_Kare.jpg</t>
+          <t>https://s0.bukalapak.com/img/01144548432/large/IQ_Baby_900_Breast_Pump_Manual_ASI_Butterfly_Pompa_Manual_Su.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/1jdi6qi-jual-celana-pendek-celana-santai-celana-kolor-jeans-pinggang-karet</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/perlengkapan-bayi-lainnya/3h1aa9m-jual-iq-baby-900-breast-pump-manual-asi-butterfly-pompa-manual-susu-bayi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4ffomkp</t>
+          <t>4h2mhw7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Feeding &amp; Nursing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Celana Dalam Pria Crocodile 251 3pcs-Box - Kolor Laki Laki</t>
+          <t>baby botol susu bayi 150ml feeding bottle milk gagang plus sedotan</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>77250</v>
+        <v>81000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/53641673392/large/data.png</t>
+          <t>https://s4.bukalapak.com/img/90743339692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ffomkp-jual-celana-dalam-pria-crocodile-251-3pcs-box-kolor-laki-laki</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/feeding-nursing/4h2mhw7-jual-baby-botol-susu-bayi-150ml-feeding-bottle-milk-gagang-plus-sedotan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1jdi6qi</t>
+          <t>4hfp7d4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,35 +573,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Celana Pendek Celana Santai Celana Kolor Jeans Pinggang Karet</t>
+          <t>Etawalin - Susu Kambing Etawa Cegah Pengapuran Tulang dan Radang Sendi</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>178000</v>
+        <v>87300</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/4195917998/large/Celana_Pendek_Celana_Santai_Celana_Kolor_Jeans_Pinggang_Kare.jpg</t>
+          <t>https://s2.bukalapak.com/img/76414908103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/1jdi6qi-jual-celana-pendek-celana-santai-celana-kolor-jeans-pinggang-karet</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hfp7d4-jual-etawalin-susu-kambing-etawa-cegah-pengapuran-tulang-dan-radang-sendi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4herped</t>
+          <t>4hey2j1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,35 +611,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Celana Cargo Pendek Pria Celana Kolor Pria Surfing Distro Size 28-32 Celana Outdoor Survival</t>
+          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI SENDI DAN ASAM URAT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>64000</v>
+        <v>87300</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80070932992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22932224203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4herped-jual-celana-cargo-pendek-pria-celana-kolor-pria-surfing-distro-size-28-32-celana-outdoor-survival</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hey2j1-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-sendi-dan-asam-urat</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4gizwi1</t>
+          <t>4hdq454</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -653,35 +649,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Distro Premium Chino Chinos Surfing Santai Renang Kolor Pantai Cowok Laki Original Terbaru Keren nyaman Halus terlaris</t>
+          <t>VIRAL ETAWAKU PLATINUM - SUSU KAMBING ETAWA BANTU ATASI MASALAH PERNAFASAN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33300</v>
+        <v>82450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02902693492/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48493059103/large/data.png</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4gizwi1-jual-celana-pendek-pria-distro-premium-chino-chinos-surfing-santai-renang-kolor-pantai-cowok-laki-original-terbaru-keren-nyaman-halus-terlaris</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hdq454-jual-viral-etawaku-platinum-susu-kambing-etawa-bantu-atasi-masalah-pernafasan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4gizwi1</t>
+          <t>4hsmprv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,15 +687,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Distro Premium Chino Chinos Surfing Santai Renang Kolor Pantai Cowok Laki Original Terbaru Keren nyaman Halus terlaris</t>
+          <t>SGM Eksplor 1+ dengan IronC Susu Pertumbuhan Rasa Vanilla 900GR</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>33300</v>
+        <v>79000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02902693492/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17965457203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,19 +703,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4gizwi1-jual-celana-pendek-pria-distro-premium-chino-chinos-surfing-santai-renang-kolor-pantai-cowok-laki-original-terbaru-keren-nyaman-halus-terlaris</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/makanan-711/susu/4hsmprv-jual-sgm-eksplor-1-dengan-ironc-susu-pertumbuhan-rasa-vanilla-900gr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3vnkkok</t>
+          <t>4hsmprj</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Susu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -729,15 +725,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium</t>
+          <t>Bebelac 4 Vanilla Susu Bubuk 3000gr</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>86250</v>
+        <v>399000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/83236762003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/06565457203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,19 +741,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3vnkkok-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/makanan-711/susu/4hsmprj-jual-bebelac-4-vanilla-susu-bubuk-3000gr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4hlgh17</t>
+          <t>4hqoxxv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -767,35 +763,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Santai Futsal Sport Pria Cowok Dewasa Remaja Big Size Super Jumbo XXL XXXL 3L 4L Murah Melamin</t>
+          <t>Ovisure Gold Milk Original USA Susu Kesehatan Tulang Persendian Syaraf Kejepit Tulang Keropos Mencegah Osteoporosis</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13100</v>
+        <v>220000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24496777003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/24056111203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hlgh17-jual-celana-kolor-pendek-santai-futsal-sport-pria-cowok-dewasa-remaja-big-size-super-jumbo-xxl-xxxl-3l-4l-murah-melamin</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hqoxxv-jual-ovisure-gold-milk-original-usa-susu-kesehatan-tulang-persendian-syaraf-kejepit-tulang-keropos-mencegah-osteoporosis</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>34mzqr2</t>
+          <t>4hh1xj4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -805,35 +801,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Celana chinos panjang kolor rip pria</t>
+          <t>ENSURE GOLD HMB Vanila Coklat 850gr | Susu Nutrisi Dewasa Rendah Laktosa</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>75000</v>
+        <v>269000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/37418325103/large/data.png</t>
+          <t>https://s2.bukalapak.com/img/24043754203/large/data.jpg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/34mzqr2-jual-celana-chinos-panjang-kolor-rip-pria</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hh1xj4-jual-ensure-gold-hmb-vanila-coklat-850gr-susu-nutrisi-dewasa-rendah-laktosa</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>clrsro</t>
+          <t>4hfp7d4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -843,35 +839,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Dewasa - Tanggung - Kolor Pendek - Celana Santai Kolor Termurah Abu</t>
+          <t>Etawalin - Susu Kambing Etawa Cegah Pengapuran Tulang dan Radang Sendi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12800</v>
+        <v>87300</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/6029670802/large/Celana_Pendek_Pria_Dewasa___Tanggung___Kolor_Pendek___Celana.jpg</t>
+          <t>https://s2.bukalapak.com/img/76414908103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/clrsro-jual-celana-pendek-pria-dewasa-tanggung-kolor-pendek-celana-santai-kolor-termurah-abu</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hfp7d4-jual-etawalin-susu-kambing-etawa-cegah-pengapuran-tulang-dan-radang-sendi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3vnkkok</t>
+          <t>4hpzf9a</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -881,35 +877,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium</t>
+          <t>Buy 1 Get 1 Free - HiLo Teen HI PROTEIN Melon 400g - Susu Kalsium Remaja Tinggi Protein</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>86250</v>
+        <v>173800</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/83236762003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/85097019103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3vnkkok-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hpzf9a-jual-buy-1-get-1-free-hilo-teen-hi-protein-melon-400g-susu-kalsium-remaja-tinggi-protein</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3t3q99m</t>
+          <t>4h6d1ry</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -919,35 +915,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CELANA PENDEK DALAM CD Kolor BOXER PRiA SPORT OLAHRAGA Tidur Underwear obral murah indonesia laki</t>
+          <t>DANCOW fortigro cokelat 1kg 1 kg 1000gr 1000 gr susu bubuk coklat</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13500</v>
+        <v>95300</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/37323747103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/49862922892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3t3q99m-jual-celana-pendek-dalam-cd-kolor-boxer-pria-sport-olahraga-tidur-underwear-obral-murah-indonesia-laki</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4h6d1ry-jual-dancow-fortigro-cokelat-1kg-1-kg-1000gr-1000-gr-susu-bubuk-coklat</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3xhduy4</t>
+          <t>4hs0c3v</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Susu Lansia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -957,35 +953,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok size 27 sampai 38</t>
+          <t>Hevisure Gold Susu Kesehatan Untuk Penderita Diabetes Kencing Manis Kolestrol Gula Darah Tinggi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86250</v>
+        <v>144000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/70806373003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/09540635203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3xhduy4-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-size-27-sampai-38</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-lansia/4hs0c3v-jual-hevisure-gold-susu-kesehatan-untuk-penderita-diabetes-kencing-manis-kolestrol-gula-darah-tinggi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4hmzbl4</t>
+          <t>4hrp5jd</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -995,35 +991,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OPPORTUNITY Celana Pendek Kolor Tali Pinggang Pria Kasual Distro Premium</t>
+          <t>HEVISURE GOLD MILK SUSU DIABETES KENCING MANIS GULA DARAH AMPUH ASLI ORIGINAL</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80000</v>
+        <v>225000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/53917046203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58844534203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hmzbl4-jual-opportunity-celana-pendek-kolor-tali-pinggang-pria-kasual-distro-premium</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrp5jd-jual-hevisure-gold-milk-susu-diabetes-kencing-manis-gula-darah-ampuh-asli-original</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>37bqlkf</t>
+          <t>4hg9icm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1033,35 +1029,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Celana pendek chino kolor premium</t>
+          <t>Etawalin Susu Kambing Etawa Solusi Tepat Menjaga Kepadatan dan Kesehatan Tulang</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33500</v>
+        <v>90000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65378997312/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/54632589103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/37bqlkf-jual-celana-pendek-chino-kolor-premium</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hg9icm-jual-etawalin-susu-kambing-etawa-solusi-tepat-menjaga-kepadatan-dan-kesehatan-tulang</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4hg19qp</t>
+          <t>3gcg3ks</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Dairy Products</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1071,15 +1067,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PAKET USAHA 1kg CELANA PENDEK - Celana Pendek Pria Training | Celana Kolor | Celana Santai Murah</t>
+          <t>Bundle 5 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>138000</v>
+        <v>344000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23539994992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/93686547103/large/2020_06_30T13_32_42_07_00.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1087,19 +1083,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hg19qp-jual-paket-usaha-1kg-celana-pendek-celana-pendek-pria-training-celana-kolor-celana-santai-murah</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/3gcg3ks-jual-bundle-5-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4hquhes</t>
+          <t>3gcil0d</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Dairy Products</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1109,15 +1105,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CELANA SANTAI PRIA BOXER JUMBO BIG SIZE M-5XL KOLOR CELANA PENDEK PRIA SANTAI SEHARI-HARI</t>
+          <t>Bundle 10 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>63750</v>
+        <v>682000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72547061203/large/data.jpg</t>
+          <t>https://s4.bukalapak.com/img/49586547103/large/2020_06_30T13_44_27_07_00.jpeg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1125,19 +1121,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hquhes-jual-celana-santai-pria-boxer-jumbo-big-size-m-5xl-kolor-celana-pendek-pria-santai-sehari-hari</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/3gcil0d-jual-bundle-10-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4cxja1v</t>
+          <t>4fedzam</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1147,35 +1143,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Warna Kombinasi - Celana Santai Allsize Zumbo size Dewasa</t>
+          <t>DANCOW Nestle Fortigro instant 1 kg susu bubuk instan</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>12000</v>
+        <v>100000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12768053482/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/45171951892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4cxja1v-jual-celana-pendek-kolor-warna-kombinasi-celana-santai-allsize-zumbo-size-dewasa</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4fedzam-jual-dancow-nestle-fortigro-instant-1-kg-susu-bubuk-instan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4hquhlp</t>
+          <t>4hpzf1v</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1185,35 +1181,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BOXER PRIA JUMBO M-5XL BIG SIZE KOLOR SANTAI PRIA XXXXXL</t>
+          <t>HiLo Teen HI PROTEIN Melon 400g - Susu Kalsium Remaja Tinggi Protein</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>63750</v>
+        <v>88600</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49897061203/large/data.jpg</t>
+          <t>https://s1.bukalapak.com/img/62567019103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hquhlp-jual-boxer-pria-jumbo-m-5xl-big-size-kolor-santai-pria-xxxxxl</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hpzf1v-jual-hilo-teen-hi-protein-melon-400g-susu-kalsium-remaja-tinggi-protein</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cdxgbw</t>
+          <t>4hey2j1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1223,35 +1219,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>celana pendek kolor celana pria kolor ukuran standar</t>
+          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI SENDI DAN ASAM URAT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26000</v>
+        <v>87300</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72678012103/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22932224203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/cdxgbw-jual-celana-pendek-kolor-celana-pria-kolor-ukuran-standar</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hey2j1-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-sendi-dan-asam-urat</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4hr09qg</t>
+          <t>3xb8nqp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1261,35 +1257,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TERMURAH Celana Pendek Pria Wanita Dewasa Chino Rip Karet Pinggang Kolor Chinos Motif Random</t>
+          <t>HiLo Teen Chocolate 1000 gr - Susu Tinggi Kalsium</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20000</v>
+        <v>167800</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28957112203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/38855491492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hr09qg-jual-termurah-celana-pendek-pria-wanita-dewasa-chino-rip-karet-pinggang-kolor-chinos-motif-random</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3xb8nqp-jual-hilo-teen-chocolate-1000-gr-susu-tinggi-kalsium</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4hfzdtg</t>
+          <t>4hrd4zp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1299,35 +1295,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Celana Kolor Pendek Pria Dewasa Jumbo Tebal Halus Eg Terbaru Terlaris</t>
+          <t>HiLo Teen Vanilla Caramel 1000g - No 1 Susu Remaja Tumbuh Tinggi Kalsium Protein Lebih Rendah Gula</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>23500</v>
+        <v>167800</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/08692094992/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/52072523203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hfzdtg-jual-celana-kolor-pendek-pria-dewasa-jumbo-tebal-halus-eg-terbaru-terlaris</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrd4zp-jual-hilo-teen-vanilla-caramel-1000g-no-1-susu-remaja-tumbuh-tinggi-kalsium-protein-lebih-rendah-gula</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4guj9h7</t>
+          <t>4hf8wfd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1337,35 +1333,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Celana Chino Pendek Pria Kolor Olahraga Pantai Surfing Santai Jumbo</t>
+          <t>PAKET BUGAR 3 BOX ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI TULANG DAN SENDI ASAM URAT KOLESTROL</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>65000</v>
+        <v>253170</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/93652014892/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81583908103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4guj9h7-jual-celana-chino-pendek-pria-kolor-olahraga-pantai-surfing-santai-jumbo</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hf8wfd-jual-paket-bugar-3-box-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-tulang-dan-sendi-asam-urat-kolestrol</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4friog7</t>
+          <t>3ojjssc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1375,35 +1371,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>celana pendek pria kolor tali</t>
+          <t>Frisian flag purefarm full cream susu bubuk keluarga 800 gr gram</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9500</v>
+        <v>83000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02209687192/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02414468992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4friog7-jual-celana-pendek-pria-kolor-tali</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3ojjssc-jual-frisian-flag-purefarm-full-cream-susu-bubuk-keluarga-800-gr-gram</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>37bqlkf</t>
+          <t>4hqs52s</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1413,35 +1409,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Celana pendek chino kolor premium</t>
+          <t>Urra susu kambing Saneen susu Penambah Berat Badan tinggi badan</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33500</v>
+        <v>75000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65378997312/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/96269831203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/37bqlkf-jual-celana-pendek-chino-kolor-premium</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hqs52s-jual-urra-susu-kambing-saneen-susu-penambah-berat-badan-tinggi-badan</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>439cwtm</t>
+          <t>4hi915y</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Kedelai &amp; Kacang-kacangan</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1451,15 +1447,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PAKET 4PCS CELANA PENDEK BOXER DISTRO - CELANA SANTAI - CELANA KOLOR - UNISEX - WARNA RANDOM</t>
+          <t>SUSU GANDUM OATSIDE BARISTA BLEND 1L OAT MILK VEGAN DAIRY LACTOSE FREE</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>125000</v>
+        <v>34175</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33937262762/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/08515379992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1467,19 +1463,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439cwtm-jual-paket-4pcs-celana-pendek-boxer-distro-celana-santai-celana-kolor-unisex-warna-random</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-kedelai-kacang-kacangan/4hi915y-jual-susu-gandum-oatside-barista-blend-1l-oat-milk-vegan-dairy-lactose-free</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4bvkkxj</t>
+          <t>3tiih4w</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1489,35 +1485,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok premium reguller</t>
+          <t>Frisian flag kompleta susu bubuk instan cokelat 800 gr gram coklat</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>92000</v>
+        <v>70000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/40365257182/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/20375714203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/4bvkkxj-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-premium-reguller</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3tiih4w-jual-frisian-flag-kompleta-susu-bubuk-instan-cokelat-800-gr-gram-coklat</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3vnilsc</t>
+          <t>3gcn601</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Dairy Products</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1527,35 +1523,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Surfing Distro Premium Renang Pantai Santai Kolor</t>
+          <t>Bundle 24 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>65000</v>
+        <v>1620000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/34308936662/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71486547103/large/2020_06_30T14_07_32_07_00.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3vnilsc-jual-celana-pendek-pria-surfing-distro-premium-renang-pantai-santai-kolor</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/3gcn601-jual-bundle-24-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>439do71</t>
+          <t>4hg9i6m</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1565,35 +1561,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CELANA PENDEK DISTRO - BOXER DISTRO - CELANA KOLOR DISTRO MURAH - UNISEX - WARNA RANDOM</t>
+          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI REMATIK DAN ASAM URAT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>35000</v>
+        <v>87300</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/34377362762/large/data.png</t>
+          <t>https://s1.bukalapak.com/img/12602589103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439do71-jual-celana-pendek-distro-boxer-distro-celana-kolor-distro-murah-unisex-warna-random</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hg9i6m-jual-etawalin-susu-kambing-etawa-solusi-atasi-rematik-dan-asam-urat</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4hfl5y1</t>
+          <t>4hief54</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Celana Olahraga</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1603,15 +1599,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Futsal Olahraga Pria dan Wanita</t>
+          <t>PAKET 3 BOX ETAWAKU PLATINUM SUSU KAMBING ETAWA - Membantu Mengatasi Masalah Pernafasan dan Membantu Melancarkan Kembali Nafas Menjadi Lega</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26100</v>
+        <v>238620</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/01897556992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80164059103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1619,19 +1615,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hfl5y1-jual-celana-pendek-kolor-futsal-olahraga-pria-dan-wanita</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hief54-jual-paket-3-box-etawaku-platinum-susu-kambing-etawa-membantu-mengatasi-masalah-pernafasan-dan-membantu-melancarkan-kembali-nafas-menjadi-lega</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38q867j</t>
+          <t>4hsjqap</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1641,35 +1637,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Celana KOLOR Pria Wanita Size JUMBO- Celana Pendek - Celana olah raga - Celana sehari hari- Bagus dan nyaman dipakai</t>
+          <t>Duzi Pure Susu Kuda Liar Murni Asli Lombok 3 BOX</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20000</v>
+        <v>261000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91523221792/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/63252827203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/38q867j-jual-celana-kolor-pria-wanita-size-jumbo-celana-pendek-celana-olah-raga-celana-sehari-hari-bagus-dan-nyaman-dipakai</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hsjqap-jual-duzi-pure-susu-kuda-liar-murni-asli-lombok-3-box</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>439cwtm</t>
+          <t>4hrvatp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1679,35 +1675,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PAKET 4PCS CELANA PENDEK BOXER DISTRO - CELANA SANTAI - CELANA KOLOR - UNISEX - WARNA RANDOM</t>
+          <t>SR12 Go Milku Susu Kambing Etawa Kemasan Bag Isi 40 Sachet</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>125000</v>
+        <v>215000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33937262762/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/05372984203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/439cwtm-jual-paket-4pcs-celana-pendek-boxer-distro-celana-santai-celana-kolor-unisex-warna-random</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrvatp-jual-sr12-go-milku-susu-kambing-etawa-kemasan-bag-isi-40-sachet</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4cxjbca</t>
+          <t>4hf18tm</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1717,35 +1713,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Celana Pendek Kolor Harian Bahan Haiget Milano</t>
+          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI TULANG DAN SENDI</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18000</v>
+        <v>87300</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91149053482/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/52882908103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4cxjbca-jual-celana-pendek-kolor-harian-bahan-haiget-milano</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hf18tm-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-tulang-dan-sendi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3t3q99m</t>
+          <t>4hrlpis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1755,35 +1751,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CELANA PENDEK DALAM CD Kolor BOXER PRiA SPORT OLAHRAGA Tidur Underwear obral murah indonesia laki</t>
+          <t>agen susu gamamilk asli original kualitas bagus bpom</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13500</v>
+        <v>74000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/37323747103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/40098404203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/3t3q99m-jual-celana-pendek-dalam-cd-kolor-boxer-pria-sport-olahraga-tidur-underwear-obral-murah-indonesia-laki</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrlpis-jual-agen-susu-gamamilk-asli-original-kualitas-bagus-bpom</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4ambe4d</t>
+          <t>4hha1zv</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1793,35 +1789,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CELANA DALAM BOXER MUNAFIE Pria Men Underwear CD Import Brief Katun Sempak Kolor Laki-Laki Premium</t>
+          <t>Susu Etawalin Susu Kambing Etawa Mengobati Asam Urat Dan Nyeri Otot Syarat Kejepit Rematik</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4888</v>
+        <v>75000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29404421692/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/20206906003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ambe4d-jual-celana-dalam-boxer-munafie-pria-men-underwear-cd-import-brief-katun-sempak-kolor-laki-laki-premium</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hha1zv-jual-susu-etawalin-susu-kambing-etawa-mengobati-asam-urat-dan-nyeri-otot-syarat-kejepit-rematik</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3xhduy4</t>
+          <t>eh31e5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Celana Panjang</t>
+          <t>Dairy Products</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1831,35 +1827,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>celana chino panjang pria chinos karet pinggang rip kolor cowok size 27 sampai 38</t>
+          <t>susu ultra mimi all variant</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>86250</v>
+        <v>116000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/70806373003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/11628272422/large/data.jpeg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-panjang/3xhduy4-jual-celana-chino-panjang-pria-chinos-karet-pinggang-rip-kolor-cowok-size-27-sampai-38</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/eh31e5-jual-susu-ultra-mimi-all-variant</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4aj3mnp</t>
+          <t>3gbjg9n</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Dairy Products</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1869,35 +1865,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BOXER MUNAFIE Pria Celana Dalam Men Underwear Sempak Import Brief Katun CD Laki-Laki Premium Kolor</t>
+          <t>HiLo School Chocolate Gusset 350gr - Susu Tinggi Kalsium Rendah Lemak</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5850</v>
+        <v>50400</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/73227355003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51082961852/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4aj3mnp-jual-boxer-munafie-pria-celana-dalam-men-underwear-sempak-import-brief-katun-cd-laki-laki-premium-kolor</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/3gbjg9n-jual-hilo-school-chocolate-gusset-350gr-susu-tinggi-kalsium-rendah-lemak</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>h69aq9</t>
+          <t>4gt5ped</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1907,35 +1903,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Paket 3pcs Celana XXXL Celana Pendek Pria Santai Olahraga Celana Kolor SUPER Jumbo XXXL</t>
+          <t>Susu Anlene Sachet kemasan renceng 10 x 20 gram</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>60000</v>
+        <v>27900</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/5486346152/large/2018_04_11T01_23_03_07_00.jpg</t>
+          <t>https://s4.bukalapak.com/img/97942536592/large/a47c983fde7c3f0691478a8529fedb48.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/h69aq9-jual-paket-3pcs-celana-xxxl-celana-pendek-pria-santai-olahraga-celana-kolor-super-jumbo-xxxl</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4gt5ped-jual-susu-anlene-sachet-kemasan-renceng-10-x-20-gram</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2fzgp6m</t>
+          <t>4gy8d2s</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1945,35 +1941,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Celana Pendek Pria Santai Olahraga Harian Santai Celana Kolor OKBos</t>
+          <t>SGM 5 Plus rasa MADU 900gr 900 gr gram bukan susu bubuk 600 700 gr</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10500</v>
+        <v>80000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07544464932/large/2020-07-21T15%3A26%3A06%2B07%3A00.jpeg</t>
+          <t>https://s1.bukalapak.com/img/14164287892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/2fzgp6m-jual-celana-pendek-pria-santai-olahraga-harian-santai-celana-kolor-okbos</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4gy8d2s-jual-sgm-5-plus-rasa-madu-900gr-900-gr-gram-bukan-susu-bubuk-600-700-gr</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4hqv264</t>
+          <t>4h6zohj</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Celana Pendek</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1983,15 +1979,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CELANA OLAHRAGA PRIA JUMBO BIG SIZE XXXXXL BOXER PENDEK KOLOR DEWASA</t>
+          <t>HiLo School Vanilla 1000 g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59500</v>
+        <v>162300</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/60338561203/large/data.jpg</t>
+          <t>https://s4.bukalapak.com/img/45237806992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1999,19 +1995,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/celana-299/celana-pendek-2599/4hqv264-jual-celana-olahraga-pria-jumbo-big-size-xxxxxl-boxer-pendek-kolor-dewasa</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4h6zohj-jual-hilo-school-vanilla-1000-g-susu-tinggi-kalsium-lebih-rendah-lemak</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4ffomkp</t>
+          <t>4gp8wfg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Bubuk Minuman Lainnya</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2021,35 +2017,35 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Celana Dalam Pria Crocodile 251 3pcs-Box - Kolor Laki Laki</t>
+          <t>Susu Kambing Etawaku Platinum Etawa 200gr Original Bpom</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77250</v>
+        <v>75000</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/53641673392/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/86845548103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4ffomkp-jual-celana-dalam-pria-crocodile-251-3pcs-box-kolor-laki-laki</t>
+          <t>https://www.bukalapak.com/p/food/minuman/bubuk-minuman-lainnya/4gp8wfg-jual-susu-kambing-etawaku-platinum-etawa-200gr-original-bpom</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4hh5hzg</t>
+          <t>4gf69ov</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Celana Olahraga</t>
+          <t>Susu UHT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2059,35 +2055,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kolor full printing, celana voli voly volly full printing, celana snr terbaru, kolor pria dewasa dan anak anak fullprinting</t>
+          <t>ULTRA MILK Susu UHT Rasa Cokelat  - 125 mL - 1 Karton isi 40 Pcs</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50000</v>
+        <v>117500</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/90634127992/large/data.png</t>
+          <t>https://s1.bukalapak.com/img/15917020492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hh5hzg-jual-kolor-full-printing-celana-voli-voly-volly-full-printing-celana-snr-terbaru-kolor-pria-dewasa-dan-anak-anak-fullprinting</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-uht/4gf69ov-jual-ultra-milk-susu-uht-rasa-cokelat-125-ml-1-karton-isi-40-pcs</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4hgsi11</t>
+          <t>4hiefm1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Celana Olahraga</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2097,35 +2093,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kolor full printing kolor voli voly vollyball terbaru</t>
+          <t>PAKET 5 BOX ETAWAKU PLATINUM SUSU KAMBING ETAWAKU MURNI + KRIMER NABATI MEMBANTU MENGATASI PENYAKIT BRONKITIS</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50000</v>
+        <v>410000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85910156992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48498699103/large/data.png</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4hgsi11-jual-kolor-full-printing-kolor-voli-voly-vollyball-terbaru</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hiefm1-jual-paket-5-box-etawaku-platinum-susu-kambing-etawaku-murni-krimer-nabati-membantu-mengatasi-penyakit-bronkitis</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4fnr8p4</t>
+          <t>4hsr51m</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Celana Olahraga</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2135,35 +2131,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PREMIUM - Celana Pendek Pria Wanita Olahraga Sport Santai Running Fitness Gym Bola Futsal Training Adidas Nike Trening Lari Senam Fitnes Jogger Kolor</t>
+          <t>LERA PLUS INSOMNIA,LERA MILK,SUSU LERA UNTUK INSOMNIA</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>94900</v>
+        <v>280000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26886431992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/82937597203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/olahraga/exercise-fitness/celana-olahraga/4fnr8p4-jual-premium-celana-pendek-pria-wanita-olahraga-sport-santai-running-fitness-gym-bola-futsal-training-adidas-nike-trening-lari-senam-fitnes-jogger-kolor</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hsr51m-jual-lera-plus-insomnia-lera-milk-susu-lera-untuk-insomnia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4acw2sx</t>
+          <t>4hso70m</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Susu Bubuk</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2173,23 +2169,99 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Celana Dalam Anak GTman Kids GTKL 3pcs per box - Kolor Anak Laki-Laki</t>
+          <t>Ovisure Gold Milk Original Usa Susu Kesehatan Tulang Persendian Syaraf Kejepit Tulang Keropos</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>59150</v>
+        <v>180000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/40066310692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/86710967203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/pakaian-dalam-1438/4acw2sx-jual-celana-dalam-anak-gtman-kids-gtkl-3pcs-per-box-kolor-anak-laki-laki</t>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hso70m-jual-ovisure-gold-milk-original-usa-susu-kesehatan-tulang-persendian-syaraf-kejepit-tulang-keropos</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3hy0frw</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Susu Bubuk</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Susu dyco colostrum 30 saset</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>220900</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/35173064852/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3hy0frw-jual-susu-dyco-colostrum-30-saset</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4hr9tby</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Susu Bubuk</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ETAWALIN SUSU ETAWA ATASI TULANG NYERI SENDI ASAM URAT REMATIK AMPUH ORIGINAL</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/14592392203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hr9tby-jual-etawalin-susu-etawa-atasi-tulang-nyeri-sendi-asam-urat-rematik-ampuh-original</t>
         </is>
       </c>
     </row>

--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="141" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="113" customWidth="1" min="6" max="6"/>
+    <col width="107" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="112" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="211" customWidth="1" min="8" max="8"/>
+    <col width="186" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,64 +486,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3h1aa9m</t>
+          <t>k87jfi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Perlengkapan Bayi Lainnya</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IQ Baby 900 Breast Pump Manual ASI Butterfly Pompa Manual Susu Bayi</t>
+          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229500</v>
+        <v>28800</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/01144548432/large/IQ_Baby_900_Breast_Pump_Manual_ASI_Butterfly_Pompa_Manual_Su.jpg</t>
+          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/perlengkapan-bayi-lainnya/3h1aa9m-jual-iq-baby-900-breast-pump-manual-asi-butterfly-pompa-manual-susu-bayi</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4h2mhw7</t>
+          <t>3oeloj8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feeding &amp; Nursing</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Sleepwear</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>baby botol susu bayi 150ml feeding bottle milk gagang plus sedotan</t>
+          <t>Bra Menyusui Sorex 8119 HBSP</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>81000</v>
+        <v>54600</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/90743339692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07143213642/large/data.jpeg</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -551,151 +555,147 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/feeding-nursing/4h2mhw7-jual-baby-botol-susu-bayi-150ml-feeding-bottle-milk-gagang-plus-sedotan</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oeloj8-jual-bra-menyusui-sorex-8119-hbsp</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4hfp7d4</t>
+          <t>k87jfi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Etawalin - Susu Kambing Etawa Cegah Pengapuran Tulang dan Radang Sendi</t>
+          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>87300</v>
+        <v>28800</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76414908103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hfp7d4-jual-etawalin-susu-kambing-etawa-cegah-pengapuran-tulang-dan-radang-sendi</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4hey2j1</t>
+          <t>4gw3pkd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI SENDI DAN ASAM URAT</t>
+          <t>Sorex 1257 6pcs per pack Celana Dalam Wanita - CD Mini Polos Super Halus</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>87300</v>
+        <v>91400</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22932224203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/27933410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hey2j1-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-sendi-dan-asam-urat</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw3pkd-jual-sorex-1257-6pcs-per-pack-celana-dalam-wanita-cd-mini-polos-super-halus</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4hdq454</t>
+          <t>1i0ayj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VIRAL ETAWAKU PLATINUM - SUSU KAMBING ETAWA BANTU ATASI MASALAH PERNAFASAN</t>
+          <t>SOREX WOMEN UNDERWEAR art 1238 ( isi 12 piece )</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>82450</v>
+        <v>325000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48493059103/large/data.png</t>
+          <t>https://s4.bukalapak.com/img/99807109003/large/SOREX_WOMEN_UNDERWEAR_art_1238___isi_12_piece__.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hdq454-jual-viral-etawaku-platinum-susu-kambing-etawa-bantu-atasi-masalah-pernafasan</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1i0ayj-jual-sorex-women-underwear-art-1238-isi-12-piece</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4hsmprv</t>
+          <t>3hzmrxn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Susu</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SGM Eksplor 1+ dengan IronC Susu Pertumbuhan Rasa Vanilla 900GR</t>
+          <t>K134  BRA SOREX  BUSA TANPA KAWAT  BH-BRA SOREX 17238</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>79000</v>
+        <v>28560</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17965457203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/45133458103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -703,113 +703,113 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/makanan-711/susu/4hsmprv-jual-sgm-eksplor-1-dengan-ironc-susu-pertumbuhan-rasa-vanilla-900gr</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzmrxn-jual-k134-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17238</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4hsmprj</t>
+          <t>xexhmc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Susu</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bebelac 4 Vanilla Susu Bubuk 3000gr</t>
+          <t>J501 - Celana Dalam Wanita Sorex Premium - Cd Sorex</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>399000</v>
+        <v>14960</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/06565457203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/66740273203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/makanan-711/susu/4hsmprj-jual-bebelac-4-vanilla-susu-bubuk-3000gr</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/xexhmc-jual-j501-celana-dalam-wanita-sorex-premium-cd-sorex</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4hqoxxv</t>
+          <t>3blxcp7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ovisure Gold Milk Original USA Susu Kesehatan Tulang Persendian Syaraf Kejepit Tulang Keropos Mencegah Osteoporosis</t>
+          <t>K169 - CD WANITA SOREX 1257 - CELANA DALAM WANITA SOREX - CELANA DALAM SOREX</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220000</v>
+        <v>14280</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24056111203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/15225097003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hqoxxv-jual-ovisure-gold-milk-original-usa-susu-kesehatan-tulang-persendian-syaraf-kejepit-tulang-keropos-mencegah-osteoporosis</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3blxcp7-jual-k169-cd-wanita-sorex-1257-celana-dalam-wanita-sorex-celana-dalam-sorex</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4hh1xj4</t>
+          <t>2vlxzrp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENSURE GOLD HMB Vanila Coklat 850gr | Susu Nutrisi Dewasa Rendah Laktosa</t>
+          <t>J164 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17227 - BRA WANITA SOREX</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>269000</v>
+        <v>29240</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24043754203/large/data.jpg</t>
+          <t>https://s4.bukalapak.com/img/91966975003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -817,37 +817,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hh1xj4-jual-ensure-gold-hmb-vanila-coklat-850gr-susu-nutrisi-dewasa-rendah-laktosa</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vlxzrp-jual-j164-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17227-bra-wanita-sorex</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4hfp7d4</t>
+          <t>4gr0i3d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Etawalin - Susu Kambing Etawa Cegah Pengapuran Tulang dan Radang Sendi</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>87300</v>
+        <v>15500</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76414908103/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/52284873592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -855,37 +855,37 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hfp7d4-jual-etawalin-susu-kambing-etawa-cegah-pengapuran-tulang-dan-radang-sendi</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr0i3d-jual-cd-celana-dalam-wanita-perempuan-sorex-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4hpzf9a</t>
+          <t>1ol3tg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>null</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Buy 1 Get 1 Free - HiLo Teen HI PROTEIN Melon 400g - Susu Kalsium Remaja Tinggi Protein</t>
+          <t>Sorex Women Underwear art 1232 ( isi 12 piece )</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>173800</v>
+        <v>390000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85097019103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3533356763/large/Sorex_Women_Underwear_art_1232___isi_12_piece__.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -893,37 +893,37 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hpzf9a-jual-buy-1-get-1-free-hilo-teen-hi-protein-melon-400g-susu-kalsium-remaja-tinggi-protein</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1ol3tg-jual-sorex-women-underwear-art-1232-isi-12-piece</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4h6d1ry</t>
+          <t>34yg76d</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DANCOW fortigro cokelat 1kg 1 kg 1000gr 1000 gr susu bubuk coklat</t>
+          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>95300</v>
+        <v>48900</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49862922892/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -931,37 +931,37 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4h6d1ry-jual-dancow-fortigro-cokelat-1kg-1-kg-1000gr-1000-gr-susu-bubuk-coklat</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4hs0c3v</t>
+          <t>34zdrmt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Susu Lansia</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hevisure Gold Susu Kesehatan Untuk Penderita Diabetes Kencing Manis Kolestrol Gula Darah Tinggi</t>
+          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>144000</v>
+        <v>58000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/09540635203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -969,37 +969,37 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-lansia/4hs0c3v-jual-hevisure-gold-susu-kesehatan-untuk-penderita-diabetes-kencing-manis-kolestrol-gula-darah-tinggi</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4hrp5jd</t>
+          <t>4alydqg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HEVISURE GOLD MILK SUSU DIABETES KENCING MANIS GULA DARAH AMPUH ASLI ORIGINAL</t>
+          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>225000</v>
+        <v>98450</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58844534203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1007,75 +1007,75 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrp5jd-jual-hevisure-gold-milk-susu-diabetes-kencing-manis-gula-darah-ampuh-asli-original</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4hg9icm</t>
+          <t>4alvxg1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Etawalin Susu Kambing Etawa Solusi Tepat Menjaga Kepadatan dan Kesehatan Tulang</t>
+          <t>Celana Dalam Wanita Sorex 1228 - 6pcs per pack - CD Cutting Midi Polos Katun Halus</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>90000</v>
+        <v>130100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/54632589103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/14370410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hg9icm-jual-etawalin-susu-kambing-etawa-solusi-tepat-menjaga-kepadatan-dan-kesehatan-tulang</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alvxg1-jual-celana-dalam-wanita-sorex-1228-6pcs-per-pack-cd-cutting-midi-polos-katun-halus</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3gcg3ks</t>
+          <t>37arfgu</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bundle 5 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
+          <t>K124  BRA SOREX FULL CUP KAWAT  BH SOREX11105  BRA WANITA SOREX</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>344000</v>
+        <v>42500</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/93686547103/large/2020_06_30T13_32_42_07_00.jpeg</t>
+          <t>https://s4.bukalapak.com/img/90630719992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1083,151 +1083,151 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/3gcg3ks-jual-bundle-5-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37arfgu-jual-k124-bra-sorex-full-cup-kawat-bh-sorex11105-bra-wanita-sorex</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3gcil0d</t>
+          <t>2ce83b1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bundle 10 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
+          <t>K588 -  CD SOREX - CELANA DALAM WANITA SOREX IMPORT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>682000</v>
+        <v>17000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49586547103/large/2020_06_30T13_44_27_07_00.jpeg</t>
+          <t>https://s4.bukalapak.com/img/95309827003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/3gcil0d-jual-bundle-10-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ce83b1-jual-k588-cd-sorex-celana-dalam-wanita-sorex-import</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4fedzam</t>
+          <t>4gr0o6d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DANCOW Nestle Fortigro instant 1 kg susu bubuk instan</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1257 Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100000</v>
+        <v>14800</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45171951892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/50691543103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4fedzam-jual-dancow-nestle-fortigro-instant-1-kg-susu-bubuk-instan</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr0o6d-jual-cd-celana-dalam-wanita-perempuan-sorex-1257-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4hpzf1v</t>
+          <t>3n0mucs</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HiLo Teen HI PROTEIN Melon 400g - Susu Kalsium Remaja Tinggi Protein</t>
+          <t>K501 - CELANA DALAM WANITA SOREX 1239 SIZE M L XL XXL</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>88600</v>
+        <v>14960</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62567019103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/62323927003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hpzf1v-jual-hilo-teen-hi-protein-melon-400g-susu-kalsium-remaja-tinggi-protein</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3n0mucs-jual-k501-celana-dalam-wanita-sorex-1239-size-m-l-xl-xxl</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4hey2j1</t>
+          <t>1yex1fx</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI SENDI DAN ASAM URAT</t>
+          <t>Celana Dalam CD Wanita Super Soft Sorex 1257</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>87300</v>
+        <v>12500</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22932224203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/61132121702/large/2020-04-17T11%3A48%3A15%2B07%3A00.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1235,75 +1235,71 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hey2j1-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-sendi-dan-asam-urat</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1yex1fx-jual-celana-dalam-cd-wanita-super-soft-sorex-1257</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3xb8nqp</t>
+          <t>3fxi8de</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HiLo Teen Chocolate 1000 gr - Susu Tinggi Kalsium</t>
+          <t>K162  BRA SOREX  BUSA TANPA KAWAT BH BRA SOREX 65003</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>167800</v>
+        <v>40800</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/38855491492/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/50426312203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3xb8nqp-jual-hilo-teen-chocolate-1000-gr-susu-tinggi-kalsium</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3fxi8de-jual-k162-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-65003</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4hrd4zp</t>
+          <t>37qwlk9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HiLo Teen Vanilla Caramel 1000g - No 1 Susu Remaja Tumbuh Tinggi Kalsium Protein Lebih Rendah Gula</t>
+          <t>K154  CD WANITA SOREX BRUKAT TRANSPARAN CELANA DALAM SOREX 30099</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>167800</v>
+        <v>19040</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/52072523203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22954237003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1311,37 +1307,33 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrd4zp-jual-hilo-teen-vanilla-caramel-1000g-no-1-susu-remaja-tumbuh-tinggi-kalsium-protein-lebih-rendah-gula</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qwlk9-jual-k154-cd-wanita-sorex-brukat-transparan-celana-dalam-sorex-30099</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4hf8wfd</t>
+          <t>4hkxydd</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PAKET BUGAR 3 BOX ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI TULANG DAN SENDI ASAM URAT KOLESTROL</t>
+          <t>K543 - CELANA DALAM WANITA SOREX SIZE M - QL MULTYCOLLOR</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>253170</v>
+        <v>14280</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/81583908103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46433446003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1349,113 +1341,113 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hf8wfd-jual-paket-bugar-3-box-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-tulang-dan-sendi-asam-urat-kolestrol</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hkxydd-jual-k543-celana-dalam-wanita-sorex-size-m-ql-multycollor</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3ojjssc</t>
+          <t>2x90ey7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Frisian flag purefarm full cream susu bubuk keluarga 800 gr gram</t>
+          <t>J134 - BRA SOREX - BUSA- TANPA KAWAT - BH-BRA SOREX 17238 - BRA WANITA SOREX</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>83000</v>
+        <v>28560</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02414468992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/47471535103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3ojjssc-jual-frisian-flag-purefarm-full-cream-susu-bubuk-keluarga-800-gr-gram</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2x90ey7-jual-j134-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17238-bra-wanita-sorex</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4hqs52s</t>
+          <t>872v62</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>null</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Urra susu kambing Saneen susu Penambah Berat Badan tinggi badan</t>
+          <t>bra bh wanita sorex 3262</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>75000</v>
+        <v>39000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/96269831203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17047493322/large/data.jpeg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hqs52s-jual-urra-susu-kambing-saneen-susu-penambah-berat-badan-tinggi-badan</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/872v62-jual-bra-bh-wanita-sorex-3262</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4hi915y</t>
+          <t>4alwd54</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Susu Kedelai &amp; Kacang-kacangan</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SUSU GANDUM OATSIDE BARISTA BLEND 1L OAT MILK VEGAN DAIRY LACTOSE FREE</t>
+          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>34175</v>
+        <v>150500</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/08515379992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1463,37 +1455,37 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-kedelai-kacang-kacangan/4hi915y-jual-susu-gandum-oatside-barista-blend-1l-oat-milk-vegan-dairy-lactose-free</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3tiih4w</t>
+          <t>4aly0v4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Frisian flag kompleta susu bubuk instan cokelat 800 gr gram coklat</t>
+          <t>Celana Dalam Wanita Sorex 1238 - 6pcs per pack - CD Cutting Maxi Polos Super Halus</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>70000</v>
+        <v>112500</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/20375714203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48621410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1501,95 +1493,95 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3tiih4w-jual-frisian-flag-kompleta-susu-bubuk-instan-cokelat-800-gr-gram-coklat</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4aly0v4-jual-celana-dalam-wanita-sorex-1238-6pcs-per-pack-cd-cutting-maxi-polos-super-halus</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3gcn601</t>
+          <t>4alz4cm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bundle 24 Box Entrakid - Susu Nutrisi Lengkap untuk Anak</t>
+          <t>Sorex 1251 Celana Dalam Wanita - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1620000</v>
+        <v>119800</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71486547103/large/2020_06_30T14_07_32_07_00.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26751410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/3gcn601-jual-bundle-24-box-entrakid-susu-nutrisi-lengkap-untuk-anak</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alz4cm-jual-sorex-1251-celana-dalam-wanita-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4hg9i6m</t>
+          <t>4alzeid</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI REMATIK DAN ASAM URAT</t>
+          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>87300</v>
+        <v>112500</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12602589103/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hg9i6m-jual-etawalin-susu-kambing-etawa-solusi-atasi-rematik-dan-asam-urat</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4hief54</t>
+          <t>2w53pp7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1599,129 +1591,125 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PAKET 3 BOX ETAWAKU PLATINUM SUSU KAMBING ETAWA - Membantu Mengatasi Masalah Pernafasan dan Membantu Melancarkan Kembali Nafas Menjadi Lega</t>
+          <t>Celana Dalam Boxer Pria Sorex M 2011 Ori</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>238620</v>
+        <v>125000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80164059103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/35365021003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hief54-jual-paket-3-box-etawaku-platinum-susu-kambing-etawa-membantu-mengatasi-masalah-pernafasan-dan-membantu-melancarkan-kembali-nafas-menjadi-lega</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/2w53pp7-jual-celana-dalam-boxer-pria-sorex-m-2011-ori</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4hsjqap</t>
+          <t>yamsw3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Duzi Pure Susu Kuda Liar Murni Asli Lombok 3 BOX</t>
+          <t>J549 - Celana Dalam Wanita - Celana Dalam Sorex - Cd Sorex</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>261000</v>
+        <v>17680</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/63252827203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/42865874203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hsjqap-jual-duzi-pure-susu-kuda-liar-murni-asli-lombok-3-box</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/yamsw3-jual-j549-celana-dalam-wanita-celana-dalam-sorex-cd-sorex</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4hrvatp</t>
+          <t>4hlihl7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SR12 Go Milku Susu Kambing Etawa Kemasan Bag Isi 40 Sachet</t>
+          <t>Bh Bra Busa Sorex 17238 wanita Perumpuan Remaja Dewasa Ukuran Size 34 36 38 40 Tanpa kawat dan Busa Murah</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>215000</v>
+        <v>27000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/05372984203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/72422197003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrvatp-jual-sr12-go-milku-susu-kambing-etawa-kemasan-bag-isi-40-sachet</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hlihl7-jual-bh-bra-busa-sorex-17238-wanita-perumpuan-remaja-dewasa-ukuran-size-34-36-38-40-tanpa-kawat-dan-busa-murah</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4hf18tm</t>
+          <t>4hcle47</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ETAWALIN - SUSU KAMBING ETAWA SOLUSI ATASI NYERI TULANG DAN SENDI</t>
+          <t>K519 - BRA/BH WANITA SOREX BUSA TIPIS TANPA KAWAT FULL CUP SIZE 36 - 42</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>87300</v>
+        <v>44880</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/52882908103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69069134203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1729,113 +1717,113 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hf18tm-jual-etawalin-susu-kambing-etawa-solusi-atasi-nyeri-tulang-dan-sendi</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcle47-jual-k519-bra-bh-wanita-sorex-busa-tipis-tanpa-kawat-full-cup-size-36-42</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4hrlpis</t>
+          <t>3lmoeyn</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>agen susu gamamilk asli original kualitas bagus bpom</t>
+          <t>Bra BH Wanita Perempuan Super Soft Sorex 17238 Tanpa Kawat Motif Polos Hiasan Kembang Aneka</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>74000</v>
+        <v>25700</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/40098404203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/36845473242/large/2020-08-03T14%3A30%3A36%2B07%3A00.png</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hrlpis-jual-agen-susu-gamamilk-asli-original-kualitas-bagus-bpom</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3lmoeyn-jual-bra-bh-wanita-perempuan-super-soft-sorex-17238-tanpa-kawat-motif-polos-hiasan-kembang-aneka</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4hha1zv</t>
+          <t>4gr79id</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Susu Etawalin Susu Kambing Etawa Mengobati Asam Urat Dan Nyeri Otot Syarat Kejepit Rematik</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1238 Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>75000</v>
+        <v>18800</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/20206906003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/13071504592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hha1zv-jual-susu-etawalin-susu-kambing-etawa-mengobati-asam-urat-dan-nyeri-otot-syarat-kejepit-rematik</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr79id-jual-cd-celana-dalam-wanita-perempuan-sorex-1238-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>eh31e5</t>
+          <t>375vi95</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>susu ultra mimi all variant</t>
+          <t>J186 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17228</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>116000</v>
+        <v>33320</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11628272422/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46640538103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1843,37 +1831,37 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/eh31e5-jual-susu-ultra-mimi-all-variant</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/375vi95-jual-j186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3gbjg9n</t>
+          <t>4gifijp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dairy Products</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HiLo School Chocolate Gusset 350gr - Susu Tinggi Kalsium Rendah Lemak</t>
+          <t>K381 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP B SIZE 36B - 42B  TIGA PENGAIT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50400</v>
+        <v>36720</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/51082961852/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/35129105203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1881,133 +1869,133 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/3gbjg9n-jual-hilo-school-chocolate-gusset-350gr-susu-tinggi-kalsium-rendah-lemak</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gifijp-jual-k381-bra-wanita-sorex-busa-tanpa-kawat-cup-b-size-36b-42b-tiga-pengait</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4gt5ped</t>
+          <t>4hg9l27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Susu Anlene Sachet kemasan renceng 10 x 20 gram</t>
+          <t>K530 - SHAPEWEAR CELANA DALAM BUSA PANTAT PALSU SOREX SIZE S - XL</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27900</v>
+        <v>80240</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/97942536592/large/a47c983fde7c3f0691478a8529fedb48.jpg</t>
+          <t>https://s2.bukalapak.com/img/71992768003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4gt5ped-jual-susu-anlene-sachet-kemasan-renceng-10-x-20-gram</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hg9l27-jual-k530-shapewear-celana-dalam-busa-pantat-palsu-sorex-size-s-xl</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4gy8d2s</t>
+          <t>4gre53j</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SGM 5 Plus rasa MADU 900gr 900 gr gram bukan susu bubuk 600 700 gr</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1171 Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>80000</v>
+        <v>15900</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14164287892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07845582103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4gy8d2s-jual-sgm-5-plus-rasa-madu-900gr-900-gr-gram-bukan-susu-bubuk-600-700-gr</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gre53j-jual-cd-celana-dalam-wanita-perempuan-sorex-1171-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4h6zohj</t>
+          <t>2e5bchl</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HiLo School Vanilla 1000 g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+          <t>K597 - CELANA PANTAT BUSA - CD BOXER SOREX - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>162300</v>
+        <v>73440</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45237806992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/41317749892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4h6zohj-jual-hilo-school-vanilla-1000-g-susu-tinggi-kalsium-lebih-rendah-lemak</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2e5bchl-jual-k597-celana-pantat-busa-cd-boxer-sorex-pembesar-bokong-pengencang-bokong</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4gp8wfg</t>
+          <t>155nb3n</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bubuk Minuman Lainnya</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2017,15 +2005,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Susu Kambing Etawaku Platinum Etawa 200gr Original Bpom</t>
+          <t>SOREX Sport CD Pria M3008 Isi 3 piece</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>75000</v>
+        <v>92500</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/86845548103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3776410895/large/Sorex_Men_Sport_Briefs_Underwear_M3008_isi_3_pcs_.jpg</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2033,19 +2021,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/minuman/bubuk-minuman-lainnya/4gp8wfg-jual-susu-kambing-etawaku-platinum-etawa-200gr-original-bpom</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/155nb3n-jual-sorex-sport-cd-pria-m3008-isi-3-piece</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4gf69ov</t>
+          <t>3oerdnj</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Susu UHT</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2055,35 +2043,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ULTRA MILK Susu UHT Rasa Cokelat  - 125 mL - 1 Karton isi 40 Pcs</t>
+          <t>Celana Dalam Hamil Sorex 1127 HBSP</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>117500</v>
+        <v>50000</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/15917020492/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/32783223642/large/data.jpeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-uht/4gf69ov-jual-ultra-milk-susu-uht-rasa-cokelat-125-ml-1-karton-isi-40-pcs</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/3oerdnj-jual-celana-dalam-hamil-sorex-1127-hbsp</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4hiefm1</t>
+          <t>4hmyrmy</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2093,35 +2081,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PAKET 5 BOX ETAWAKU PLATINUM SUSU KAMBING ETAWAKU MURNI + KRIMER NABATI MEMBANTU MENGATASI PENYAKIT BRONKITIS</t>
+          <t>BH/Bra Menyusui Eksklusif untuk Pompa ASI Sorex 4432 / Hands Free Pumping Bra</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>410000</v>
+        <v>159000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48498699103/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/55484631103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hiefm1-jual-paket-5-box-etawaku-platinum-susu-kambing-etawaku-murni-krimer-nabati-membantu-mengatasi-penyakit-bronkitis</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4hmyrmy-jual-bh-bra-menyusui-eksklusif-untuk-pompa-asi-sorex-4432-hands-free-pumping-bra</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4hsr51m</t>
+          <t>34zatu7</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2131,35 +2119,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LERA PLUS INSOMNIA,LERA MILK,SUSU LERA UNTUK INSOMNIA</t>
+          <t>TERMURAH BRA SOREX 8200 - SOREX NURSHING BRA - BRA MENYUSUI SOREX - CREAM UK KECIL</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>280000</v>
+        <v>58300</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/82937597203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/67496620902/large/data.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hsr51m-jual-lera-plus-insomnia-lera-milk-susu-lera-untuk-insomnia</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/34zatu7-jual-termurah-bra-sorex-8200-sorex-nurshing-bra-bra-menyusui-sorex-cream-uk-kecil</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4hso70m</t>
+          <t>4gw3nmm</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Susu Bubuk</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2169,99 +2157,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ovisure Gold Milk Original Usa Susu Kesehatan Tulang Persendian Syaraf Kejepit Tulang Keropos</t>
+          <t>Sorex 1132 3pcs per pack Celana Dalam Wanita - CD Maxi Ibu Hamil Maternity</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>180000</v>
+        <v>103500</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/86710967203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/45150410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hso70m-jual-ovisure-gold-milk-original-usa-susu-kesehatan-tulang-persendian-syaraf-kejepit-tulang-keropos</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>3hy0frw</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Susu dyco colostrum 30 saset</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>220900</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/35173064852/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/3hy0frw-jual-susu-dyco-colostrum-30-saset</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>4hr9tby</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Susu Bubuk</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ETAWALIN SUSU ETAWA ATASI TULANG NYERI SENDI ASAM URAT REMATIK AMPUH ORIGINAL</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/14592392203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/food/dairy-products/susu-bubuk/4hr9tby-jual-etawalin-susu-etawa-atasi-tulang-nyeri-sendi-asam-urat-rematik-ampuh-original</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4gw3nmm-jual-sorex-1132-3pcs-per-pack-celana-dalam-wanita-cd-maxi-ibu-hamil-maternity</t>
         </is>
       </c>
     </row>

--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -434,11 +434,11 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="107" customWidth="1" min="4" max="4"/>
+    <col width="117" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="112" customWidth="1" min="6" max="6"/>
+    <col width="113" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="186" customWidth="1" min="8" max="8"/>
+    <col width="194" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,76 +486,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>k87jfi</t>
+          <t>3oelt61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Sleepwear</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
+          <t>Korset Stagen 2x Perekat Sorex 8052 HBSP</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28800</v>
+        <v>123600</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
+          <t>https://s2.bukalapak.com/img/27894213642/large/data.jpeg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oelt61-jual-korset-stagen-2x-perekat-sorex-8052-hbsp</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3oeloj8</t>
+          <t>k87jfi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sleepwear</t>
+          <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bra Menyusui Sorex 8119 HBSP</t>
+          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>54600</v>
+        <v>28800</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07143213642/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oeloj8-jual-bra-menyusui-sorex-8119-hbsp</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1i0ayj</t>
+          <t>1ol3tg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -646,26 +646,30 @@
           <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOREX WOMEN UNDERWEAR art 1238 ( isi 12 piece )</t>
+          <t>Sorex Women Underwear art 1232 ( isi 12 piece )</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>325000</v>
+        <v>390000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/99807109003/large/SOREX_WOMEN_UNDERWEAR_art_1238___isi_12_piece__.jpg</t>
+          <t>https://s3.bukalapak.com/img/3533356763/large/Sorex_Women_Underwear_art_1232___isi_12_piece__.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1i0ayj-jual-sorex-women-underwear-art-1238-isi-12-piece</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1ol3tg-jual-sorex-women-underwear-art-1232-isi-12-piece</t>
         </is>
       </c>
     </row>
@@ -862,7 +866,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1ol3tg</t>
+          <t>34yg76d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -872,20 +876,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sorex Women Underwear art 1232 ( isi 12 piece )</t>
+          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>390000</v>
+        <v>48900</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3533356763/large/Sorex_Women_Underwear_art_1232___isi_12_piece__.jpg</t>
+          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -893,14 +897,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1ol3tg-jual-sorex-women-underwear-art-1232-isi-12-piece</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>34yg76d</t>
+          <t>34zdrmt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -915,15 +919,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
+          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>48900</v>
+        <v>58000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -931,14 +935,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>34zdrmt</t>
+          <t>4alydqg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -948,20 +952,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
+          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>58000</v>
+        <v>98450</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -969,14 +973,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4alydqg</t>
+          <t>4alvxg1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -991,15 +995,15 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
+          <t>Celana Dalam Wanita Sorex 1228 - 6pcs per pack - CD Cutting Midi Polos Katun Halus</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>98450</v>
+        <v>130100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/14370410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1007,14 +1011,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alvxg1-jual-celana-dalam-wanita-sorex-1228-6pcs-per-pack-cd-cutting-midi-polos-katun-halus</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4alvxg1</t>
+          <t>4alwd54</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1029,15 +1033,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1228 - 6pcs per pack - CD Cutting Midi Polos Katun Halus</t>
+          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>130100</v>
+        <v>150500</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14370410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1045,7 +1049,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alvxg1-jual-celana-dalam-wanita-sorex-1228-6pcs-per-pack-cd-cutting-midi-polos-katun-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1yex1fx</t>
+          <t>37qwlk9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1212,37 +1216,33 @@
           <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Merek Lainnya</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celana Dalam CD Wanita Super Soft Sorex 1257</t>
+          <t>K154  CD WANITA SOREX BRUKAT TRANSPARAN CELANA DALAM SOREX 30099</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12500</v>
+        <v>19040</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61132121702/large/2020-04-17T11%3A48%3A15%2B07%3A00.jpeg</t>
+          <t>https://s2.bukalapak.com/img/22954237003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1yex1fx-jual-celana-dalam-cd-wanita-super-soft-sorex-1257</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qwlk9-jual-k154-cd-wanita-sorex-brukat-transparan-celana-dalam-sorex-30099</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3fxi8de</t>
+          <t>1yex1fx</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1252,35 +1252,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K162  BRA SOREX  BUSA TANPA KAWAT BH BRA SOREX 65003</t>
+          <t>Celana Dalam CD Wanita Super Soft Sorex 1257</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40800</v>
+        <v>12500</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/50426312203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/61132121702/large/2020-04-17T11%3A48%3A15%2B07%3A00.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3fxi8de-jual-k162-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-65003</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1yex1fx-jual-celana-dalam-cd-wanita-super-soft-sorex-1257</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>37qwlk9</t>
+          <t>4hkxydd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1291,15 +1291,15 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>K154  CD WANITA SOREX BRUKAT TRANSPARAN CELANA DALAM SOREX 30099</t>
+          <t>K543 - CELANA DALAM WANITA SOREX SIZE M - QL MULTYCOLLOR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19040</v>
+        <v>14280</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22954237003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46433446003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qwlk9-jual-k154-cd-wanita-sorex-brukat-transparan-celana-dalam-sorex-30099</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hkxydd-jual-k543-celana-dalam-wanita-sorex-size-m-ql-multycollor</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4hkxydd</t>
+          <t>872v62</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1322,26 +1322,30 @@
           <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K543 - CELANA DALAM WANITA SOREX SIZE M - QL MULTYCOLLOR</t>
+          <t>bra bh wanita sorex 3262</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14280</v>
+        <v>39000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46433446003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17047493322/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hkxydd-jual-k543-celana-dalam-wanita-sorex-size-m-ql-multycollor</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/872v62-jual-bra-bh-wanita-sorex-3262</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1390,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>872v62</t>
+          <t>4hlihl7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1394,37 +1398,33 @@
           <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>bra bh wanita sorex 3262</t>
+          <t>Bh Bra Busa Sorex 17238 wanita Perumpuan Remaja Dewasa Ukuran Size 34 36 38 40 Tanpa kawat dan Busa Murah</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39000</v>
+        <v>27000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17047493322/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/72422197003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/872v62-jual-bra-bh-wanita-sorex-3262</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hlihl7-jual-bh-bra-busa-sorex-17238-wanita-perumpuan-remaja-dewasa-ukuran-size-34-36-38-40-tanpa-kawat-dan-busa-murah</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4alwd54</t>
+          <t>4aly0v4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1439,15 +1439,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
+          <t>Celana Dalam Wanita Sorex 1238 - 6pcs per pack - CD Cutting Maxi Polos Super Halus</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>150500</v>
+        <v>112500</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48621410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1455,14 +1455,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4aly0v4-jual-celana-dalam-wanita-sorex-1238-6pcs-per-pack-cd-cutting-maxi-polos-super-halus</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4aly0v4</t>
+          <t>4alz4cm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1477,15 +1477,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1238 - 6pcs per pack - CD Cutting Maxi Polos Super Halus</t>
+          <t>Sorex 1251 Celana Dalam Wanita - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>112500</v>
+        <v>119800</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48621410692/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26751410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1493,14 +1493,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4aly0v4-jual-celana-dalam-wanita-sorex-1238-6pcs-per-pack-cd-cutting-maxi-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alz4cm-jual-sorex-1251-celana-dalam-wanita-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4alz4cm</t>
+          <t>4alzeid</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1515,15 +1515,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sorex 1251 Celana Dalam Wanita - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>119800</v>
+        <v>112500</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26751410692/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1531,37 +1531,37 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alz4cm-jual-sorex-1251-celana-dalam-wanita-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4alzeid</t>
+          <t>155nb3n</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Pakaian Dalam</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+          <t>SOREX Sport CD Pria M3008 Isi 3 piece</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>112500</v>
+        <v>92500</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3776410895/large/Sorex_Men_Sport_Briefs_Underwear_M3008_isi_3_pcs_.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1569,19 +1569,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/155nb3n-jual-sorex-sport-cd-pria-m3008-isi-3-piece</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2w53pp7</t>
+          <t>34zatu7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1591,23 +1591,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Celana Dalam Boxer Pria Sorex M 2011 Ori</t>
+          <t>TERMURAH BRA SOREX 8200 - SOREX NURSHING BRA - BRA MENYUSUI SOREX - CREAM UK KECIL</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>125000</v>
+        <v>58300</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/35365021003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/67496620902/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/2w53pp7-jual-celana-dalam-boxer-pria-sorex-m-2011-ori</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/34zatu7-jual-termurah-bra-sorex-8200-sorex-nurshing-bra-bra-menyusui-sorex-cream-uk-kecil</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4hlihl7</t>
+          <t>4hcle47</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1660,33 +1660,37 @@
           <t>Pakaian Dalam, Lingerie</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bh Bra Busa Sorex 17238 wanita Perumpuan Remaja Dewasa Ukuran Size 34 36 38 40 Tanpa kawat dan Busa Murah</t>
+          <t>K519 - BRA/BH WANITA SOREX BUSA TIPIS TANPA KAWAT FULL CUP SIZE 36 - 42</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27000</v>
+        <v>44880</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72422197003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69069134203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hlihl7-jual-bh-bra-busa-sorex-17238-wanita-perumpuan-remaja-dewasa-ukuran-size-34-36-38-40-tanpa-kawat-dan-busa-murah</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcle47-jual-k519-bra-bh-wanita-sorex-busa-tipis-tanpa-kawat-full-cup-size-36-42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4hcle47</t>
+          <t>3lmoeyn</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1696,35 +1700,35 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>K519 - BRA/BH WANITA SOREX BUSA TIPIS TANPA KAWAT FULL CUP SIZE 36 - 42</t>
+          <t>Bra BH Wanita Perempuan Super Soft Sorex 17238 Tanpa Kawat Motif Polos Hiasan Kembang Aneka</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44880</v>
+        <v>25700</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/69069134203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80945473242/large/2020-08-03T14%3A30%3A36%2B07%3A00.png</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcle47-jual-k519-bra-bh-wanita-sorex-busa-tipis-tanpa-kawat-full-cup-size-36-42</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3lmoeyn-jual-bra-bh-wanita-perempuan-super-soft-sorex-17238-tanpa-kawat-motif-polos-hiasan-kembang-aneka</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3lmoeyn</t>
+          <t>4gr79id</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1734,35 +1738,35 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bra BH Wanita Perempuan Super Soft Sorex 17238 Tanpa Kawat Motif Polos Hiasan Kembang Aneka</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1238 Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25700</v>
+        <v>18800</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/36845473242/large/2020-08-03T14%3A30%3A36%2B07%3A00.png</t>
+          <t>https://s1.bukalapak.com/img/13071504592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3lmoeyn-jual-bra-bh-wanita-perempuan-super-soft-sorex-17238-tanpa-kawat-motif-polos-hiasan-kembang-aneka</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr79id-jual-cd-celana-dalam-wanita-perempuan-sorex-1238-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4gr79id</t>
+          <t>375vi95</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1777,30 +1781,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1238 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>J186 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17228</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>18800</v>
+        <v>33320</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/13071504592/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46640538103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr79id-jual-cd-celana-dalam-wanita-perempuan-sorex-1238-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/375vi95-jual-j186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>375vi95</t>
+          <t>4gifijp</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1815,15 +1819,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>J186 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17228</t>
+          <t>K381 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP B SIZE 36B - 42B  TIGA PENGAIT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>33320</v>
+        <v>36720</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46640538103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/35129105203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1831,14 +1835,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/375vi95-jual-j186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gifijp-jual-k381-bra-wanita-sorex-busa-tanpa-kawat-cup-b-size-36b-42b-tiga-pengait</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4gifijp</t>
+          <t>4hg9l27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1853,15 +1857,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K381 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP B SIZE 36B - 42B  TIGA PENGAIT</t>
+          <t>K530 - SHAPEWEAR CELANA DALAM BUSA PANTAT PALSU SOREX SIZE S - XL</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36720</v>
+        <v>80240</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/35129105203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71992768003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1869,14 +1873,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gifijp-jual-k381-bra-wanita-sorex-busa-tanpa-kawat-cup-b-size-36b-42b-tiga-pengait</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hg9l27-jual-k530-shapewear-celana-dalam-busa-pantat-palsu-sorex-size-s-xl</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4hg9l27</t>
+          <t>4gre53j</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1891,30 +1895,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K530 - SHAPEWEAR CELANA DALAM BUSA PANTAT PALSU SOREX SIZE S - XL</t>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1171 Dewasa Remaja size M L EL XL QL XXL 3L</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>80240</v>
+        <v>15900</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71992768003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07845582103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hg9l27-jual-k530-shapewear-celana-dalam-busa-pantat-palsu-sorex-size-s-xl</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gre53j-jual-cd-celana-dalam-wanita-perempuan-sorex-1171-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4gre53j</t>
+          <t>2e5bchl</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1929,15 +1933,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1171 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>K597 - CELANA PANTAT BUSA - CD BOXER SOREX - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15900</v>
+        <v>73440</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07845582103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/41317749892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1945,14 +1949,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gre53j-jual-cd-celana-dalam-wanita-perempuan-sorex-1171-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2e5bchl-jual-k597-celana-pantat-busa-cd-boxer-sorex-pembesar-bokong-pengencang-bokong</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2e5bchl</t>
+          <t>2vovhvs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1967,15 +1971,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>K597 - CELANA PANTAT BUSA - CD BOXER SOREX - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
+          <t>J588 - CD SOREX - CELANA DALAM WANITA SOREX IMPORT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>73440</v>
+        <v>19380</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/41317749892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/57962660203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1983,19 +1987,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2e5bchl-jual-k597-celana-pantat-busa-cd-boxer-sorex-pembesar-bokong-pengencang-bokong</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vovhvs-jual-j588-cd-sorex-celana-dalam-wanita-sorex-import</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>155nb3n</t>
+          <t>4gw3nmm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Baju Hamil</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2005,15 +2009,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOREX Sport CD Pria M3008 Isi 3 piece</t>
+          <t>Sorex 1132 3pcs per pack Celana Dalam Wanita - CD Maxi Ibu Hamil Maternity</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>92500</v>
+        <v>103500</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3776410895/large/Sorex_Men_Sport_Briefs_Underwear_M3008_isi_3_pcs_.jpg</t>
+          <t>https://s4.bukalapak.com/img/45150410692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2021,19 +2025,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/155nb3n-jual-sorex-sport-cd-pria-m3008-isi-3-piece</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4gw3nmm-jual-sorex-1132-3pcs-per-pack-celana-dalam-wanita-cd-maxi-ibu-hamil-maternity</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3oerdnj</t>
+          <t>3oelt61</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Sleepwear</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2043,91 +2047,91 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Celana Dalam Hamil Sorex 1127 HBSP</t>
+          <t>Korset Stagen 2x Perekat Sorex 8052 HBSP</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50000</v>
+        <v>123600</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/32783223642/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/27894213642/large/data.jpeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/3oerdnj-jual-celana-dalam-hamil-sorex-1127-hbsp</t>
+          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oelt61-jual-korset-stagen-2x-perekat-sorex-8052-hbsp</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4hmyrmy</t>
+          <t>4aghmpw</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Alat Pelangsing</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HOT SHAPER</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BH/Bra Menyusui Eksklusif untuk Pompa ASI Sorex 4432 / Hands Free Pumping Bra</t>
+          <t>KORSET PELANGSING SOREX WANITA VESH SHAPE UP KORSET MELAHIRKAN PAKAIAN DALAM PENGECIL PERUT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>159000</v>
+        <v>150000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/55484631103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/12517327492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4hmyrmy-jual-bh-bra-menyusui-eksklusif-untuk-pompa-asi-sorex-4432-hands-free-pumping-bra</t>
+          <t>https://www.bukalapak.com/p/perawatan-kecantikan/pelangsing/alat-pelangsing/4aghmpw-jual-korset-pelangsing-sorex-wanita-vesh-shape-up-korset-melahirkan-pakaian-dalam-pengecil-perut</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>34zatu7</t>
+          <t>4aghmpw</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Alat Pelangsing</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HOT SHAPER</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TERMURAH BRA SOREX 8200 - SOREX NURSHING BRA - BRA MENYUSUI SOREX - CREAM UK KECIL</t>
+          <t>KORSET PELANGSING SOREX WANITA VESH SHAPE UP KORSET MELAHIRKAN PAKAIAN DALAM PENGECIL PERUT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58300</v>
+        <v>150000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67496620902/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/12517327492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2135,45 +2139,4025 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/34zatu7-jual-termurah-bra-sorex-8200-sorex-nurshing-bra-bra-menyusui-sorex-cream-uk-kecil</t>
+          <t>https://www.bukalapak.com/p/perawatan-kecantikan/pelangsing/alat-pelangsing/4aghmpw-jual-korset-pelangsing-sorex-wanita-vesh-shape-up-korset-melahirkan-pakaian-dalam-pengecil-perut</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>4alwd54</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>150500</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3hzy34h</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>K161 BRA SOREX BUSA ADA KAWAT  BH-BRA SOREX 65002</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>40800</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/67142312203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzy34h-jual-k161-bra-sorex-busa-ada-kawat-bh-bra-sorex-65002</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4hqfc7d</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>J155 - Camisol Tanktop Tali Lebar Sorex Microfiber Size M/L - XL/XXL (Bb 50 - 80 Kg)</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>35360</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/26497850203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hqfc7d-jual-j155-camisol-tanktop-tali-lebar-sorex-microfiber-size-m-l-xl-xxl-bb-50-80-kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1usmwyo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CD Wanita Sorex 1239 Super Soft</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>13900</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/11231918692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1usmwyo-jual-cd-wanita-sorex-1239-super-soft</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>37ywkgl</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>K141  Celana Dalam Wanita Sorex  Cd Wanita Sorex 1251</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>18360</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/14264197003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37ywkgl-jual-k141-celana-dalam-wanita-sorex-cd-wanita-sorex-1251</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3zymjr4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>K726 - BRA REMAJA BUSA TIPIS TANPA KAWAT CUP  32A - 36A DUA PENGAIT  BRA  SOREX Y3310</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>31620</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/84470057203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3zymjr4-jual-k726-bra-remaja-busa-tipis-tanpa-kawat-cup-32a-36a-dua-pengait-bra-sorex-y3310</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>441rxy2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>K354 - BRAOREX PAKAI BUSA TANPA KAWAT  CUP BESAR 36C - 42C  TIGA PENGAIT  BRA  SOREX ART 17239</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>31280</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/80626458103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/441rxy2-jual-k354-braorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait-bra-sorex-art-17239</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3citej5</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>K193 - CD WANITA ORI SOREX 1254 - CELANA DALAM WANITA SOREX - CELANA DALAM SOREX</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>16320</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/07058716003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3citej5-jual-k193-cd-wanita-ori-sorex-1254-celana-dalam-wanita-sorex-celana-dalam-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4h1hj8d</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>J351 - BOXER WANITA SOREX HOT PANTS SOREX</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>16660</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/30696155203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h1hj8d-jual-j351-boxer-wanita-sorex-hot-pants-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8n0h7m</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K526 - Celana Dalam Wanita Murah - Celana Dalam Sorex - Hrg Per 1 Pcs</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>17680</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/19034941003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/8n0h7m-jual-k526-celana-dalam-wanita-murah-celana-dalam-sorex-hrg-per-1-pcs</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4h3cgn7</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>K131 - BRA/BH WANITA SOREX TANPA KAWAT BUSA TIPIS TIGA PENGAT SIZE 34 - 40</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>45560</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/22734730003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h3cgn7-jual-k131-bra-bh-wanita-sorex-tanpa-kawat-busa-tipis-tiga-pengat-size-34-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>37quo9o</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>K153  MINISET ANAK ABG  BRA ANAK ABG  TANKTOP REMAJA SOREX 2049</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>23120</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/33416168203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37quo9o-jual-k153-miniset-anak-abg-bra-anak-abg-tanktop-remaja-sorex-2049</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3h0tkia</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>K170  CELANA DALAM WANITA SOREX 02503</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>14280</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/28196294203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3h0tkia-jual-k170-celana-dalam-wanita-sorex-02503</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1dsxc3b</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>J566 - Bra Wanita - BH Wanita Sorex Premium - Extra Comfort - Trendy dan Cantik</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/28221368992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dsxc3b-jual-j566-bra-wanita-bh-wanita-sorex-premium-extra-comfort-trendy-dan-cantik</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>4heaka4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>K523 - CELANA DALAM GSTRING WANITA SOREX RAJUT FREESIZE</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>16320</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/16365985003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4heaka4-jual-k523-celana-dalam-gstring-wanita-sorex-rajut-freesize</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>4fvi7h1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>J549T ISI 3 PCS Celana Dalam Wanita  Sorex 1238</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/29332147003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4fvi7h1-jual-j549t-isi-3-pcs-celana-dalam-wanita-sorex-1238</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>f8dee0</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>K549 - Celana Dalam Wanita  - Sorex 1238 - Multi Color - Hrg per 1 Pcs</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>17680</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/62876252992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/f8dee0-jual-k549-celana-dalam-wanita-sorex-1238-multi-color-hrg-per-1-pcs</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3usd2n7</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SOREX BRA Soft &amp; Comfort 17228 Busa Tanpa KAWAT Setara Cup B-C</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>30900</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/66031133552/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3usd2n7-jual-sorex-bra-soft-comfort-17228-busa-tanpa-kawat-setara-cup-b-c</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3ihlwy2</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>K314 CELANA DALAM WANITA JUMBO ORI SOREX 1219 CD WANITA SOREX XXXL</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>20400</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/81763741003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3ihlwy2-jual-k314-celana-dalam-wanita-jumbo-ori-sorex-1219-cd-wanita-sorex-xxxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1dk3ypp</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>K568 - Bra Wanita - Bh Wanita Sorex Premium - Extra Comfort - Tanpa Kawat</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/59121916003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dk3ypp-jual-k568-bra-wanita-bh-wanita-sorex-premium-extra-comfort-tanpa-kawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>41v1081</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>J354 BRAOREX PAKAI BUSA TANPA KAWAT CUP BESAR 36C - 42C TIGA PENGAIT BRA  SOREX ART 17239</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>31280</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/27426379003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/41v1081-jual-j354-braorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait-bra-sorex-art-17239</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4gjgi8y</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>K382 - CELANA DALAM WANITA SOREX ART 1200 SIZE M-L - XL-XXL HARGA PER 1 PCS</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>22440</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76087927003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gjgi8y-jual-k382-celana-dalam-wanita-sorex-art-1200-size-m-l-xl-xxl-harga-per-1-pcs</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4hqwaup</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>K272D - (isi 2 pcs) Sorex Celana Dalam Pria Boxer Trunk Signature Size M/L - XL/XXL</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>51680</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/98243771203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hqwaup-jual-k272d-isi-2-pcs-sorex-celana-dalam-pria-boxer-trunk-signature-size-m-l-xl-xxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4c14oi1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GEND47 KORSET SOREX SLIMMING CORSET STAGEN 8056</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>58900</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/62091336892/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4c14oi1-jual-gend47-korset-sorex-slimming-corset-stagen-8056</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>b7hvxn</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Basic Midi Sorex 1230 Ukuran M - L</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>14900</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/08551100151/large/2019_10_23T08_37_16_07_00.jpg</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/b7hvxn-jual-celana-dalam-wanita-basic-midi-sorex-1230-ukuran-m-l</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4f0dksj</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>K526T - ISI 3PCS CELANA SOREX  CELANA DALAM WANITA  CD WANITA IMPORT  CD WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>53040</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76860037003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4f0dksj-jual-k526t-isi-3pcs-celana-sorex-celana-dalam-wanita-cd-wanita-import-cd-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>4gw3nmm</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Baju Hamil</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Sorex 1132 3pcs per pack Celana Dalam Wanita - CD Maxi Ibu Hamil Maternity</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="E72" t="n">
         <v>103500</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://s4.bukalapak.com/img/45150410692/large/data.jpeg</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>5</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4gw3nmm-jual-sorex-1132-3pcs-per-pack-celana-dalam-wanita-cd-maxi-ibu-hamil-maternity</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4gw3pkd</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sorex 1257 6pcs per pack Celana Dalam Wanita - CD Mini Polos Super Halus</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>91400</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/27933410692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw3pkd-jual-sorex-1257-6pcs-per-pack-celana-dalam-wanita-cd-mini-polos-super-halus</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4hn9hjy</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mobile Power</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>bra bh sorex busa tebal maximizer push up berkawat</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/75090012103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hn9hjy-jual-bra-bh-sorex-busa-tebal-maximizer-push-up-berkawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2u5c0a1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>J141 - Celana Dalam Wanita Sorex - Cd Wanita Sorex 1251 - Cd Wanita Import</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>18360</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/30195429103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2u5c0a1-jual-j141-celana-dalam-wanita-sorex-cd-wanita-sorex-1251-cd-wanita-import</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4gccvcy</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>K589T - CELANA DALAM WANITA SOREX ART 0839 HARGA PER 3 PCS SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>48960</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/91963390003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gccvcy-jual-k589t-celana-dalam-wanita-sorex-art-0839-harga-per-3-pcs-size-m-xxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2y6rvze</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>J168 - CD WANITA SOREX SAMLESS EA511- CELANA DALAM WANITA SEAMLESS SOREX - CELANA DALAM SOREX</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>23800</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/03031378003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2y6rvze-jual-j168-cd-wanita-sorex-samless-ea511-celana-dalam-wanita-seamless-sorex-celana-dalam-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>37atm1b</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>K128  BRA SOREX  TANPA KAWAT  BH-BRA SOREX 02008</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/11600431003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37atm1b-jual-k128-bra-sorex-tanpa-kawat-bh-bra-sorex-02008</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2tuvd4q</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>J111 - CELANA DALAM  SEAMLESS SOREX  -  CD SOREX SEAMLESS</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>22440</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/49390732003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2tuvd4q-jual-j111-celana-dalam-seamless-sorex-cd-sorex-seamless</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>41q8q9m</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>K351  BOXER WANITA SOREX UNDERWEAR SOREX BOXER WANITA ART 1262</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>16660</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/69586927003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/41q8q9m-jual-k351-boxer-wanita-sorex-underwear-sorex-boxer-wanita-art-1262</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4hjax0p</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>J117  CD WANITA SOREX RENDA BRUKAT TRANSPARAN FREE SIZE ( SETARA SIZE L-XL )</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>24480</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/93909622003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hjax0p-jual-j117-cd-wanita-sorex-renda-brukat-transparan-free-size-setara-size-l-xl</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ffk3r4</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MerekLainnya</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Super Soft Sorex Kode 1239</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/4037735483/large/Celana_Dalam_Wanita_Super_Soft_Sorex_Kode_1239.jpeg</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/ffk3r4-jual-celana-dalam-wanita-super-soft-sorex-kode-1239</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4hejn4a</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>J523 CELANA DALAM GSTRING SOREX RAJUT FREESIZE SATUAN</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>15912</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/65944138003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hejn4a-jual-j523-celana-dalam-gstring-sorex-rajut-freesize-satuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2ce3lz9</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>K573 - CD SOREX - CELANA DALAM WANITA SOREX M - QL</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>21080</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/34836868003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ce3lz9-jual-k573-cd-sorex-celana-dalam-wanita-sorex-m-ql</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4hcfgk1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>K566 - BRA/BH WANITA SOREX ADA BUSA ADA KAWAT CUP B SIZE 36 - 42</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/01877168992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcfgk1-jual-k566-bra-bh-wanita-sorex-ada-busa-ada-kawat-cup-b-size-36-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1gak5vt</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>K542 - Bra Sorex - Bh Sorex - Tanpa Kawat</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/09456107992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1gak5vt-jual-k542-bra-sorex-bh-sorex-tanpa-kawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3qega7b</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SM164 BRA SOREX BUSA TANPA KAWAT BHBRA SOREX 17227 BRA WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>29240</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/85822518103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3qega7b-jual-sm164-bra-sorex-busa-tanpa-kawat-bhbra-sorex-17227-bra-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>37cqash</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Sorex 1255 - 6pcs SuperSoft - Kolor perempuan</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>109000</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/36395894392/large/data.png</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37cqash-jual-celana-dalam-wanita-sorex-1255-6pcs-supersoft-kolor-perempuan</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>37qoe09</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>K149  CELANA DALAM WANITA SOREX 02501  CD WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>14280</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/82230037003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qoe09-jual-k149-celana-dalam-wanita-sorex-02501-cd-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1dpcixj</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>J568 - Bra Wanita - Bh Wanita Sorex Premium - Extra Comfort - Tanpa Kawat</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/46447438003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dpcixj-jual-j568-bra-wanita-bh-wanita-sorex-premium-extra-comfort-tanpa-kawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2ut37e4</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>J583 - CD SOREX BIG SIZE - CELANA DALAM WANITA JUMBO EXTRA SIZE</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>20400</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/05115560203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ut37e4-jual-j583-cd-sorex-big-size-celana-dalam-wanita-jumbo-extra-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2v3fr15</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SOREX 1052 Stagen Korset Pelangsing Perut - Original Grosir Termurah</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>54000</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/60275839581/large/SOREX_1052_Stagen_Korset_Pelangsing_Perut___Original_Grosir_.jpg</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2v3fr15-jual-sorex-1052-stagen-korset-pelangsing-perut-original-grosir-termurah</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4ewh26m</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>J372 Celana Dalam Wanita Sorex  Cd Wanita Murah Celana Dalam Sorex  Sorex 1250</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>18360</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/90893315203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4ewh26m-jual-j372-celana-dalam-wanita-sorex-cd-wanita-murah-celana-dalam-sorex-sorex-1250</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>604j4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Bra KAwat Sorex Cup FULL</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/45515332/large/2015-03-24_07.32.13.jpg</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/604j4-jual-bra-kawat-sorex-cup-full</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4f376t4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GEND55 CELANA DALAM SOREX BASIC SUPER SOFT CD 1239</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>14900</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/81606459982/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4f376t4-jual-gend55-celana-dalam-sorex-basic-super-soft-cd-1239</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>3zd6wvj</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Bra BH Sorex Wanita Perempuan Tanpa Kawat Motif Polos Hiasan Kembang Super Soft Sorex 17239 - Aneka Koleksi Pakaian</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>31000</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/24199766162/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3zd6wvj-jual-bra-bh-sorex-wanita-perempuan-tanpa-kawat-motif-polos-hiasan-kembang-super-soft-sorex-17239-aneka-koleksi-pakaian</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4es5he7</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sorex Bra Menyusui Motif Bunga Cantik Nursing Bra BH 8108 BH 8110 Tanpa Kawat Kait 3 Busa Sedang</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>30973</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/98072481982/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4es5he7-jual-sorex-bra-menyusui-motif-bunga-cantik-nursing-bra-bh-8108-bh-8110-tanpa-kawat-kait-3-busa-sedang</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4hrbo2a</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita SOREX 1233 isi 1Pc</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/77575013203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hrbo2a-jual-celana-dalam-wanita-sorex-1233-isi-1pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>34zdrmt</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4alydqg</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>98450</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4grft8m</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sorex Bra Sport Polos SP 020 BH Olahraga Senam Stretch</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/44714436892/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grft8m-jual-sorex-bra-sport-polos-sp-020-bh-olahraga-senam-stretch</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>3idy3z5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>K305  BRA CUP D  BRA BUSA ADA KAWAT  CUP BESAR 38D - 44D  TIGA PENGAIT  BH ORI SOREX 11199D</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>44880</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/72146431003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3idy3z5-jual-k305-bra-cup-d-bra-busa-ada-kawat-cup-besar-38d-44d-tiga-pengait-bh-ori-sorex-11199d</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4hrbyx4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SOREX Celana Wanita dalam JUMBO 1248 Isi-1</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/84355313203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hrbyx4-jual-sorex-celana-wanita-dalam-jumbo-1248-isi-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2bwgpsv</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>K589 - CD SOREX - CELANA DALAM WANITA M.L.EL.QL</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>16320</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/32326340203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2bwgpsv-jual-k589-cd-sorex-celana-dalam-wanita-m-l-el-ql</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2vgi65v</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>J157 - PANTAT BUSA SOREX BA 017 - CELANA BUSA - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>65280</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/41261875003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vgi65v-jual-j157-pantat-busa-sorex-ba-017-celana-busa-pembesar-bokong-pengencang-bokong</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ckv227</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>K548 - Celana Dalam Wanita  - Sorex 1228 - Multi Color</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>18020</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/39444868003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/ckv227-jual-k548-celana-dalam-wanita-sorex-1228-multi-color</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2bwgpx1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>K583 - CD SOREX BIG SIZE - CELANA DALAM WANITA JUMBO EXTRA SIZE</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>20400</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/57778458103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2bwgpx1-jual-k583-cd-sorex-big-size-celana-dalam-wanita-jumbo-extra-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>3ionvpn</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SOREX T- Shirt Bra Fashion 34135</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>36500</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/89438081832/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3ionvpn-jual-sorex-t-shirt-bra-fashion-34135</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>21gmwms</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>SOREX cd basic Katun 1232 basic panty</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>20900</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/66370152491/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/21gmwms-jual-sorex-cd-basic-katun-1232-basic-panty</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2a8l0ok</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>K579 - BRA SOREX - BH SOREX - BRA WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/89181380203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2a8l0ok-jual-k579-bra-sorex-bh-sorex-bra-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>3blbj5h</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>K190 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 11107 - BRA WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>48960</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/92838788992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3blbj5h-jual-k190-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-11107-bra-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>k88ki9</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Merek Sorex Asli Kode 1232 Harga Dijamin Termurah VC</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>35500</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/6153253682/large/Celana_Dalam_Wanita_Merek_Sorex_Asli_Kode_1232_Harga_Dijamin.jpg</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>5</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k88ki9-jual-celana-dalam-wanita-merek-sorex-asli-kode-1232-harga-dijamin-termurah-vc</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>3hzksn2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>K133  BRA SOREX  TANPA KAWAT  BH-BRA SOREX 65001</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>40800</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/20145698992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzksn2-jual-k133-bra-sorex-tanpa-kawat-bh-bra-sorex-65001</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4grfsmj</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CD Sorex Basic Midi Katun Mix Strecth 1232 Celana Dalam Wanita Soft Comfort</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>18500</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/55300134592/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grfsmj-jual-cd-sorex-basic-midi-katun-mix-strecth-1232-celana-dalam-wanita-soft-comfort</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4gif7z7</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>K380 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP A SIZE 34A - 40A  DUA PENGAIT</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>30260</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/74608151203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>5</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gif7z7-jual-k380-bra-wanita-sorex-busa-tanpa-kawat-cup-a-size-34a-40a-dua-pengait</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>3i07r3n</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>K164 BRA SOREX BUSA TANPA KAWAT BH-BRA SOREX 17227</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>29240</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/66404510203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i07r3n-jual-k164-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17227</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>3gl05wa</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>J314  CELANA DALAM WANITA JUMBO ORI SOREX 1219</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>20400</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/94829324203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>5</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3gl05wa-jual-j314-celana-dalam-wanita-jumbo-ori-sorex-1219</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4gvp2sj</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CD Celana Dalam Wanita Perempuan SOREX 1258 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>15800</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/20864169592/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gvp2sj-jual-cd-celana-dalam-wanita-perempuan-sorex-1258-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3i5nh3b</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SOREX ACTIVE Sport Bra STRETCH SP 020 Busa Tipis Tanpa kawat Original</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>39900</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/77753689632/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i5nh3b-jual-sorex-active-sport-bra-stretch-sp-020-busa-tipis-tanpa-kawat-original</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4h2h1fs</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>J566 BRA WANITA SOREX  ADA BUSA ADA KAWAT CUP B SIZE 36 - 42</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/61572368992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h2h1fs-jual-j566-bra-wanita-sorex-ada-busa-ada-kawat-cup-b-size-36-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7i1nzn</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Celana Dalam wanita Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>13600</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/61788354732/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/7i1nzn-jual-celana-dalam-wanita-sorex-1239</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2h82v9r</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SOREX Cd Basic Mini Sepinggul 1257 Super Soft</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>12900</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76120355992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2h82v9r-jual-sorex-cd-basic-mini-sepinggul-1257-super-soft</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>49qwbhr</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Bra BH Wanita Sorex Soft &amp; Comfort Tanpa Kawat Motif Polos Hiasan Kembang Sorex 17227 - Aneka Koleksi Pakaian</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>30500</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/72455880772/large/data.png</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/49qwbhr-jual-bra-bh-wanita-sorex-soft-comfort-tanpa-kawat-motif-polos-hiasan-kembang-sorex-17227-aneka-koleksi-pakaian</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>kbo30j</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Sorex 1227</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>17700</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/43862454732/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/kbo30j-jual-celana-dalam-wanita-sorex-1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>5lu0m</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Celana Korset SOREX Segiempat</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/38161612/large/2015-03-09_18.37.41.jpg</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/5lu0m-jual-celana-korset-sorex-segiempat</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>34yg76d</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>48900</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4alzeid</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>112500</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>490mdwb</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>K362 - CELANA DALAM WANITA SOREX 15226  CD WANITA SOREX  CELANA DALAM SOREX</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>12240</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/74701849003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>5</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/490mdwb-jual-k362-celana-dalam-wanita-sorex-15226-cd-wanita-sorex-celana-dalam-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>1j4bipi</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Celana dalam wanita Super Soft Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>14700</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/11664818692/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1j4bipi-jual-celana-dalam-wanita-super-soft-sorex-1239</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4hcgxnp</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>K354 - BRA/BH WANITA SOREX PAKAI BUSA TANPA KAWAT CUP BESAR 36C - 42C TIGA PENGAIT</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>31280</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/52435458103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcgxnp-jual-k354-bra-bh-wanita-sorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2xey8k3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>J213 - CD BOXER PRIA SOREX - CELANA DALAM PRIA BOXER - BOXER PRIA IMPORT - BOXER 3802</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>25840</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76460291203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/2xey8k3-jual-j213-cd-boxer-pria-sorex-celana-dalam-pria-boxer-boxer-pria-import-boxer-3802</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4gw0j2s</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sorex Bra BH Casual Wanita Beha Big Size Cewek Tanpa Kawat Busa Sedang Cup Besar Sorex 17233 - Barang Kece</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>37700</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/24425300692/large/data.png</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw0j2s-jual-sorex-bra-bh-casual-wanita-beha-big-size-cewek-tanpa-kawat-busa-sedang-cup-besar-sorex-17233-barang-kece</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4hkxu3v</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>K269D - (1box isi 2) CELANA DALAM BOXER PRIA SOREX TRENDY SIZE M L XL</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/14155472203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>5</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hkxu3v-jual-k269d-1box-isi-2-celana-dalam-boxer-pria-sorex-trendy-size-m-l-xl</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>3h0c5hn</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>K220  CD PRIA SOREX 3008  CELANA DALAM PRIA SOREX</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>21760</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/64264927003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/3h0c5hn-jual-k220-cd-pria-sorex-3008-celana-dalam-pria-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4hksfi4</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>J268D ( Isi 2 pcs ) Sorex Celana Dalam Pria Dewasa Boxer Size M L XL</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/30375314203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hksfi4-jual-j268d-isi-2-pcs-sorex-celana-dalam-pria-dewasa-boxer-size-m-l-xl</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4flg91g</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BRA SOREX TANPA KAWAT SUPER SOFT BUSA SETARA CUP B 17238 BH HARIAN</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>24900</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/69977203192/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4flg91g-jual-bra-sorex-tanpa-kawat-super-soft-busa-setara-cup-b-17238-bh-harian</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>3oxmekr</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>SM133 BRA SOREX  TANPA KAWAT  BH BRA SOREX 65001 BRA WANITA SOREX</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>40800</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/43576767103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>5</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3oxmekr-jual-sm133-bra-sorex-tanpa-kawat-bh-bra-sorex-65001-bra-wanita-sorex</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2xs9z9x</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>K126 - BRA MENYUSUI SOREX  - BH-BRA MENYUSUI SOREX 8108 - BRA WANITA SOREX MENYUSUI</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>38760</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/71290390003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>5</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2xs9z9x-jual-k126-bra-menyusui-sorex-bh-bra-menyusui-sorex-8108-bra-wanita-sorex-menyusui</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>3qvqbqo</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>SM161 BRA SOREX BUSA ADA KAW1AT BH BRA SOREX 65002  BRA WANITA SOREX CUP SEDANG</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>40800</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/86438418103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>5</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3qvqbqo-jual-sm161-bra-sorex-busa-ada-kaw1at-bh-bra-sorex-65002-bra-wanita-sorex-cup-sedang</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>3uq48m3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>J342 BRA BRUKAT BH BUSA PAKAI KAWAT  CUP KECIL 32 - 36 DUA PENGAIT  BRA  SOREX  ART 99066</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>43180</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/23179250203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>5</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3uq48m3-jual-j342-bra-brukat-bh-busa-pakai-kawat-cup-kecil-32-36-dua-pengait-bra-sorex-art-99066</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2trby2p</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>K112 - CD WANITA SOREX JUMBO  -  CELANA DALAM WANITA JUMBO - CD EXTRA XXXXL</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>25840</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/03616816003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2trby2p-jual-k112-cd-wanita-sorex-jumbo-celana-dalam-wanita-jumbo-cd-extra-xxxxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>13wtr2p</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Celana Dalam Boxer Wanita Seamles Tanpa Jahitan Sorex BA 101</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>17500</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/3564795275/large/CelanaDalamSOREXseamlessBA101Short_1_scaledjpg_scaled.jpg</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/13wtr2p-jual-celana-dalam-boxer-wanita-seamles-tanpa-jahitan-sorex-ba-101</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>3i7vqce</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>K186 BRA SOREX BUSA TANPA KAWAT  BH-BRA SOREX 17228</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>32980</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/42139180003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i7vqce-jual-k186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>4ec38us</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>celana dalam wanita sorex kode 3056</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>22500</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/63882340882/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>5</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4ec38us-jual-celana-dalam-wanita-sorex-kode-3056</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>21uaik7</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>SOREX bra extra Comfort 9852 Cup besar busa tipis tanpa kawat</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>37900</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/28429894562/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/21uaik7-jual-sorex-bra-extra-comfort-9852-cup-besar-busa-tipis-tanpa-kawat</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>4cogwcv</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Celana dalam wanita super soft sorex - Extra lembut - Grosir 1238</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/13814037382/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>5</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4cogwcv-jual-celana-dalam-wanita-super-soft-sorex-extra-lembut-grosir-1238</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2v4bobl</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>sorella-official-official</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SOREX 1134 Maternity Underwear CD hamil celana dalam ibu hamil ORI</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>16500</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/84729105103/large/2020_07_22T10_20_49_07_00.jpeg</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>5</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2v4bobl-jual-sorex-1134-maternity-underwear-cd-hamil-celana-dalam-ibu-hamil-ori</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>364e8l2</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>SOREX STAGEN Korset Pasca Melahirkan 8052 Stagen Pelangsing perut</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>65900</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/14532213112/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>5</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/364e8l2-jual-sorex-stagen-korset-pasca-melahirkan-8052-stagen-pelangsing-perut</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>4hh4z9v</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>K541 - CELANA PENDEK BUSA  SOREX PINGGUL - BOKONG SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>91120</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/48962005003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>5</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hh4z9v-jual-k541-celana-pendek-busa-sorex-pinggul-bokong-size-m-xxl</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>33dy05b</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Merek Lainnya</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Celana Dalam Sorex Seamless Tanpa Jahitam Sorex EA 509</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>19800</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/64050619402/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/33dy05b-jual-celana-dalam-sorex-seamless-tanpa-jahitam-sorex-ea-509</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7rtcoc</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>celana dalam wanita murah sorex 1251</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>16800</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/2048455291/large/celana_dalam_wanita_murah_sorex_1251.jpg</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/7rtcoc-jual-celana-dalam-wanita-murah-sorex-1251</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>4grr7xm</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pakaian Dalam, Lingerie</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>J568 BRA BH  SOREX BUSA TANPA KAWAT CUP B KAIT DUA SIZE 34 - 40</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/80827438003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>5</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grr7xm-jual-j568-bra-bh-sorex-busa-tanpa-kawat-cup-b-kait-dua-size-34-40</t>
         </is>
       </c>
     </row>

--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="117" customWidth="1" min="4" max="4"/>
+    <col width="152" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="113" customWidth="1" min="6" max="6"/>
+    <col width="114" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="194" customWidth="1" min="8" max="8"/>
+    <col width="252" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,30 +486,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3oelt61</t>
+          <t>4gxo49j</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sleepwear</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Korset Stagen 2x Perekat Sorex 8052 HBSP</t>
+          <t>ASIA Baju Setelan Wanita Atasan Muslim Set Setelan Busana Muslimah Wanita Rayon Super Premium Jumbo Lebaran Ukuran XXL Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>123600</v>
+        <v>127415</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27894213642/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/73874626003/large/data.png</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -517,227 +513,219 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oelt61-jual-korset-stagen-2x-perekat-sorex-8052-hbsp</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxo49j-jual-asia-baju-setelan-wanita-atasan-muslim-set-setelan-busana-muslimah-wanita-rayon-super-premium-jumbo-lebaran-ukuran-xxl-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>k87jfi</t>
+          <t>4gxotr4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
+          <t>ASIA Kaos Lengan 3/4 Atasan Pria Kurta Pakistan bahan Baju Muslim Kekinian Kaos Distro Kaos Raglan Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28800</v>
+        <v>103920</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
+          <t>https://s3.bukalapak.com/img/85196491003/large/data.png</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxotr4-jual-asia-kaos-lengan-3-4-atasan-pria-kurta-pakistan-bahan-baju-muslim-kekinian-kaos-distro-kaos-raglan-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>k87jfi</t>
+          <t>4h6axfd</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Grosir Ecer Celana Dalam Wanita Sorex Kode 1239 Asli Termurah</t>
+          <t>BAJU KAOS KERAH PRIA LENGAN PANJANG ATASAN SHANGHAI COWOK FELIX PREMIUM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28800</v>
+        <v>106400</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3120343682/large/Grosir_Ecer_Celana_Dalam_Wanita_Sorex_Kode_1239_Asli_Termura.jpg</t>
+          <t>https://s3.bukalapak.com/img/30507132103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k87jfi-jual-grosir-ecer-celana-dalam-wanita-sorex-kode-1239-asli-termurah</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h6axfd-jual-baju-kaos-kerah-pria-lengan-panjang-atasan-shanghai-cowok-felix-premium</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4gw3pkd</t>
+          <t>4gxotr4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sorex 1257 6pcs per pack Celana Dalam Wanita - CD Mini Polos Super Halus</t>
+          <t>ASIA Kaos Lengan 3/4 Atasan Pria Kurta Pakistan bahan Baju Muslim Kekinian Kaos Distro Kaos Raglan Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>91400</v>
+        <v>103920</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27933410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/85196491003/large/data.png</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw3pkd-jual-sorex-1257-6pcs-per-pack-celana-dalam-wanita-cd-mini-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxotr4-jual-asia-kaos-lengan-3-4-atasan-pria-kurta-pakistan-bahan-baju-muslim-kekinian-kaos-distro-kaos-raglan-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1ol3tg</t>
+          <t>4h9uiiv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorex Women Underwear art 1232 ( isi 12 piece )</t>
+          <t>Atasan Kaos Cowok Figo Lengan Panjang Baju Pria Fashion Motif Premium</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>390000</v>
+        <v>97000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3533356763/large/Sorex_Women_Underwear_art_1232___isi_12_piece__.jpg</t>
+          <t>https://s1.bukalapak.com/img/65412642892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1ol3tg-jual-sorex-women-underwear-art-1232-isi-12-piece</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9uiiv-jual-atasan-kaos-cowok-figo-lengan-panjang-baju-pria-fashion-motif-premium</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3hzmrxn</t>
+          <t>4hs2xpv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K134  BRA SOREX  BUSA TANPA KAWAT  BH-BRA SOREX 17238</t>
+          <t>MacBee Baju Anak Perempuan Kaos Anak Collection Drink Explorer 6 Bulan-12 Tahun</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28560</v>
+        <v>50000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45133458103/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/24937817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzmrxn-jual-k134-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17238</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-perempuan/kaos-1378/4hs2xpv-jual-macbee-baju-anak-perempuan-kaos-anak-collection-drink-explorer-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xexhmc</t>
+          <t>4hs2tyd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J501 - Celana Dalam Wanita Sorex Premium - Cd Sorex</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Koko Muslim Collection Kurta Addison 2-12 tahun</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14960</v>
+        <v>65000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/66740273203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02548817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,75 +733,75 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/xexhmc-jual-j501-celana-dalam-wanita-sorex-premium-cd-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2tyd-jual-macbear-baju-anak-remaja-laki-laki-kaos-koko-muslim-collection-kurta-addison-2-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3blxcp7</t>
+          <t>4hs2wr7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K169 - CD WANITA SOREX 1257 - CELANA DALAM WANITA SOREX - CELANA DALAM SOREX</t>
+          <t>Little B By MacBear Baju Anak Bayi Kaos Lengan Pendek Pippy Collection Animal Series Newborn-12 bulan</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14280</v>
+        <v>15000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/15225097003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/64120955203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3blxcp7-jual-k169-cd-wanita-sorex-1257-celana-dalam-wanita-sorex-celana-dalam-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2wr7-jual-little-b-by-macbear-baju-anak-bayi-kaos-lengan-pendek-pippy-collection-animal-series-newborn-12-bulan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2vlxzrp</t>
+          <t>4hs2z8m</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J164 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17227 - BRA WANITA SOREX</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - trees</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29240</v>
+        <v>15000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91966975003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29072585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,75 +809,71 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vlxzrp-jual-j164-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17227-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8m-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-trees</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4gr0i3d</t>
+          <t>4hs2xq1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Spanyol Jerman Swedia Jepang Country Player 6 bulan-12 tahun</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15500</v>
+        <v>65000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/52284873592/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58708817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr0i3d-jual-cd-celana-dalam-wanita-perempuan-sorex-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xq1-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-spanyol-jerman-swedia-jepang-country-player-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>34yg76d</t>
+          <t>1rd2rva</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
+          <t>Kaos Tshirt Baju Combed 30S Distro Volcom Jersey Futsal Murah Grade</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48900</v>
+        <v>38300</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/18711715501/large/2019_05_20T08_08_36_07_00.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,37 +881,37 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1rd2rva-jual-kaos-tshirt-baju-combed-30s-distro-volcom-jersey-futsal-murah-grade</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>34zdrmt</t>
+          <t>4dcqs4v</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
+          <t>KAOS T-SHIRT DISTRO PRIA WANITA BAJU ANIME ONE PEACE LUFFY JIKEN MURAH</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>58000</v>
+        <v>44500</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/28460083582/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -935,299 +919,303 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dcqs4v-jual-kaos-t-shirt-distro-pria-wanita-baju-anime-one-peace-luffy-jiken-murah</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4alydqg</t>
+          <t>3efg8r3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
+          <t>Grosir Kaos Stripe Pria Wanita Baju Salur Kualitas Terbaik</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>98450</v>
+        <v>30000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/12382838822/large/2020-06-19T04%3A02%3A25%2B07%3A00.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3efg8r3-jual-grosir-kaos-stripe-pria-wanita-baju-salur-kualitas-terbaik</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4alvxg1</t>
+          <t>4hgm544</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1228 - 6pcs per pack - CD Cutting Midi Polos Katun Halus</t>
+          <t>Kaos Tshirt Baju Distro PUTiH 20s pendek polos custom oblong murah cod</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>130100</v>
+        <v>22500</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14370410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/84797516992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alvxg1-jual-celana-dalam-wanita-sorex-1228-6pcs-per-pack-cd-cutting-midi-polos-katun-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hgm544-jual-kaos-tshirt-baju-distro-putih-20s-pendek-polos-custom-oblong-murah-cod</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4alwd54</t>
+          <t>4gnujky</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
+          <t>HARGA RESELLER Kaos Polos Cotton Katun Lengan Pendek TSHIRT Distro Baju Pria Wanita Cowok Cewek Perempuan Oblong Adem Katun Lengan Pendek Fit</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>150500</v>
+        <v>14500</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/84767981203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gnujky-jual-harga-reseller-kaos-polos-cotton-katun-lengan-pendek-tshirt-distro-baju-pria-wanita-cowok-cewek-perempuan-oblong-adem-katun-lengan-pendek-fit</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>37arfgu</t>
+          <t>4h9usup</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K124  BRA SOREX FULL CUP KAWAT  BH SOREX11105  BRA WANITA SOREX</t>
+          <t>KAOS BAJU LENGAN PANJANG FASHION REEBOK PRIA WANITA COMBED 30 S</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>42500</v>
+        <v>107000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/90630719992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/41770842892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37arfgu-jual-k124-bra-sorex-full-cup-kawat-bh-sorex11105-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9usup-jual-kaos-baju-lengan-panjang-fashion-reebok-pria-wanita-combed-30-s</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2ce83b1</t>
+          <t>3i1wo6w</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K588 -  CD SOREX - CELANA DALAM WANITA SOREX IMPORT</t>
+          <t>KAOS SIRO-BODY-UAA BAJU RUNNING GYM OLAHRAGA FITNESS TRAINING PRIA VCNR</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/95309827003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80599267632/large/KAOS_SIRO_BODY_UAA_BAJU_RUNNING_GYM_OLAHRAGA_FITNESS_TRAININ.png</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ce83b1-jual-k588-cd-sorex-celana-dalam-wanita-sorex-import</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3i1wo6w-jual-kaos-siro-body-uaa-baju-running-gym-olahraga-fitness-training-pria-vcnr</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4gr0o6d</t>
+          <t>4hcxrqj</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1257 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>Baju Kaos Stelan Pria Setelan Nasamoon Cowok Atasan Celpen Santa</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14800</v>
+        <v>131000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/50691543103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/32363688892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr0o6d-jual-cd-celana-dalam-wanita-perempuan-sorex-1257-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxrqj-jual-baju-kaos-stelan-pria-setelan-nasamoon-cowok-atasan-celpen-santa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3n0mucs</t>
+          <t>4hqcn9m</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>K501 - CELANA DALAM WANITA SOREX 1239 SIZE M L XL XXL</t>
+          <t>KAOS BAJU LENGAN PANJANG HARLEY DAVIDSON CLASSIC PRIA COMBED 30</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14960</v>
+        <v>85000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62323927003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/68925410203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3n0mucs-jual-k501-celana-dalam-wanita-sorex-1239-size-m-l-xl-xxl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqcn9m-jual-kaos-baju-lengan-panjang-harley-davidson-classic-pria-combed-30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>37qwlk9</t>
+          <t>4hcxsoa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K154  CD WANITA SOREX BRUKAT TRANSPARAN CELANA DALAM SOREX 30099</t>
+          <t>Baju Atasan Kaos Pria Tshirt Cowok Lengan Pendek Motif Dark Premium</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19040</v>
+        <v>86000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22954237003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/13290159103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1235,219 +1223,227 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qwlk9-jual-k154-cd-wanita-sorex-brukat-transparan-celana-dalam-sorex-30099</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxsoa-jual-baju-atasan-kaos-pria-tshirt-cowok-lengan-pendek-motif-dark-premium</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1yex1fx</t>
+          <t>4h7r14v</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Celana Dalam CD Wanita Super Soft Sorex 1257</t>
+          <t>Baju kaos murah unik khas bali</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61132121702/large/2020-04-17T11%3A48%3A15%2B07%3A00.jpeg</t>
+          <t>https://s2.bukalapak.com/img/76982428792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1yex1fx-jual-celana-dalam-cd-wanita-super-soft-sorex-1257</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h7r14v-jual-baju-kaos-murah-unik-khas-bali</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4hkxydd</t>
+          <t>2il9xxz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>K543 - CELANA DALAM WANITA SOREX SIZE M - QL MULTYCOLLOR</t>
+          <t>KAOS PRIA XXXL BAJU BIG SIZE JUMBO OBLONG BESAR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14280</v>
+        <v>45000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46433446003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/23873726203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hkxydd-jual-k543-celana-dalam-wanita-sorex-size-m-ql-multycollor</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2il9xxz-jual-kaos-pria-xxxl-baju-big-size-jumbo-oblong-besar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>872v62</t>
+          <t>4gj7q6j</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>bra bh wanita sorex 3262</t>
+          <t>KAOS 3SECOND - KAOS THREESECOND - KAOS PENDEK PRIA 3SECOND - KAOS BAND 3 SECOND - BAJU DISTRO 3SECOND - KAOS COMBED 30S - KAOS DISTRO PRIA</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>39000</v>
+        <v>50000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17047493322/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/15913926592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/872v62-jual-bra-bh-wanita-sorex-3262</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gj7q6j-jual-kaos-3second-kaos-threesecond-kaos-pendek-pria-3second-kaos-band-3-second-baju-distro-3second-kaos-combed-30s-kaos-distro-pria</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2x90ey7</t>
+          <t>4fqpqom</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>J134 - BRA SOREX - BUSA- TANPA KAWAT - BH-BRA SOREX 17238 - BRA WANITA SOREX</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki seperti Ori Original Keren Murah Terlaris Unisex</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28560</v>
+        <v>44000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/47471535103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/82539664492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2x90ey7-jual-j134-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17238-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fqpqom-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-seperti-ori-original-keren-murah-terlaris-unisex</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4hlihl7</t>
+          <t>4b301k7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bh Bra Busa Sorex 17238 wanita Perumpuan Remaja Dewasa Ukuran Size 34 36 38 40 Tanpa kawat dan Busa Murah</t>
+          <t>HD O-neck kaos polos pria kaos polos PE O-neck baju distro pria kaos pria</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27000</v>
+        <v>17500</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72422197003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/35325723082/large/21d3885ff7582943d706270e778491ac.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hlihl7-jual-bh-bra-busa-sorex-17238-wanita-perumpuan-remaja-dewasa-ukuran-size-34-36-38-40-tanpa-kawat-dan-busa-murah</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4b301k7-jual-hd-o-neck-kaos-polos-pria-kaos-polos-pe-o-neck-baju-distro-pria-kaos-pria</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4aly0v4</t>
+          <t>4hj4ay7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1238 - 6pcs per pack - CD Cutting Maxi Polos Super Halus</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru AMPM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>112500</v>
+        <v>44000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48621410692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02540281003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1455,95 +1451,95 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4aly0v4-jual-celana-dalam-wanita-sorex-1238-6pcs-per-pack-cd-cutting-maxi-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hj4ay7-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-ampm</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4alz4cm</t>
+          <t>4g8rpq1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sorex 1251 Celana Dalam Wanita - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru JAPAN</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>119800</v>
+        <v>44000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26751410692/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/99010954492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alz4cm-jual-sorex-1251-celana-dalam-wanita-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8rpq1-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-japan</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4alzeid</t>
+          <t>4frbn3y</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+          <t>Kaos Baju Distro Casual Pria Wanita Polos Hitam Putih Cotton Combed Lengan Pendek untuk Unisex Cowok Cewek Keren Murah Terlaris</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>112500</v>
+        <v>45000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/42096664492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4frbn3y-jual-kaos-baju-distro-casual-pria-wanita-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-unisex-cowok-cewek-keren-murah-terlaris</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>155nb3n</t>
+          <t>4g8qoxj</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1553,15 +1549,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOREX Sport CD Pria M3008 Isi 3 piece</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru ONE PIECE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>92500</v>
+        <v>44000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3776410895/large/Sorex_Men_Sport_Briefs_Underwear_M3008_isi_3_pcs_.jpg</t>
+          <t>https://s2.bukalapak.com/img/78727954492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1569,19 +1565,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/155nb3n-jual-sorex-sport-cd-pria-m3008-isi-3-piece</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8qoxj-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-one-piece</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>34zatu7</t>
+          <t>4hqu0j4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1591,205 +1587,201 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TERMURAH BRA SOREX 8200 - SOREX NURSHING BRA - BRA MENYUSUI SOREX - CREAM UK KECIL</t>
+          <t>Kaos Baju BUSMANIA WINSPECTOR anak dewasa BUS Bis mania Bismania cod</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>58300</v>
+        <v>60500</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67496620902/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74317751203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/34zatu7-jual-termurah-bra-sorex-8200-sorex-nurshing-bra-bra-menyusui-sorex-cream-uk-kecil</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqu0j4-jual-kaos-baju-busmania-winspector-anak-dewasa-bus-bis-mania-bismania-cod</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>yamsw3</t>
+          <t>4hhmvkp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>J549 - Celana Dalam Wanita - Celana Dalam Sorex - Cd Sorex</t>
+          <t>KAOS BAJU AIR JORDAN 23 PRIA WANITA COMBED 30S KAOS BASKETBALL</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17680</v>
+        <v>99000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/42865874203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26719238992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/yamsw3-jual-j549-celana-dalam-wanita-celana-dalam-sorex-cd-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hhmvkp-jual-kaos-baju-air-jordan-23-pria-wanita-combed-30s-kaos-basketball</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4hcle47</t>
+          <t>4hcxrzs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K519 - BRA/BH WANITA SOREX BUSA TIPIS TANPA KAWAT FULL CUP SIZE 36 - 42</t>
+          <t>Baju Oblong Trendy Cowok Atasan Kaos Pria Lengan Pendek Kasual</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44880</v>
+        <v>90000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/69069134203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/28761017203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcle47-jual-k519-bra-bh-wanita-sorex-busa-tipis-tanpa-kawat-full-cup-size-36-42</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxrzs-jual-baju-oblong-trendy-cowok-atasan-kaos-pria-lengan-pendek-kasual</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3lmoeyn</t>
+          <t>4hqcn6g</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bra BH Wanita Perempuan Super Soft Sorex 17238 Tanpa Kawat Motif Polos Hiasan Kembang Aneka</t>
+          <t>KAOS BAJU TSHIRT HARLEY DAVIDSON CLASSIC PRIA COMBED 30S</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25700</v>
+        <v>81000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80945473242/large/2020-08-03T14%3A30%3A36%2B07%3A00.png</t>
+          <t>https://s0.bukalapak.com/img/58605410203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3lmoeyn-jual-bra-bh-wanita-perempuan-super-soft-sorex-17238-tanpa-kawat-motif-polos-hiasan-kembang-aneka</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqcn6g-jual-kaos-baju-tshirt-harley-davidson-classic-pria-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4gr79id</t>
+          <t>4hqo7d1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1238 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>baju smith original barcode</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>18800</v>
+        <v>105000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/13071504592/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/68094392203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gr79id-jual-cd-celana-dalam-wanita-perempuan-sorex-1238-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqo7d1-jual-baju-smith-original-barcode</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>375vi95</t>
+          <t>4hqvho7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>J186 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 17228</t>
+          <t>Baju Gamis Wanita Jumbo Ukuran L s/d 4XL Maxmara Lux Halus Adem</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>33320</v>
+        <v>231920</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46640538103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/87300071203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1797,209 +1789,209 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/375vi95-jual-j186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4hqvho7-jual-baju-gamis-wanita-jumbo-ukuran-l-s-d-4xl-maxmara-lux-halus-adem</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4gifijp</t>
+          <t>7uenst</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K381 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP B SIZE 36B - 42B  TIGA PENGAIT</t>
+          <t>Kaos - Tshirt - Baju - Hurley 01</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36720</v>
+        <v>105000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/35129105203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92834622892/large/Kaos___Tshirt___Baju___Hurley_01.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gifijp-jual-k381-bra-wanita-sorex-busa-tanpa-kawat-cup-b-size-36b-42b-tiga-pengait</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7uenst-jual-kaos-tshirt-baju-hurley-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4hg9l27</t>
+          <t>4gxxp5j</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K530 - SHAPEWEAR CELANA DALAM BUSA PANTAT PALSU SOREX SIZE S - XL</t>
+          <t>Kaos Oblong Biru Navy Pria Baju Laki-Laki Brown Agree T-Shirt Men F36</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>80240</v>
+        <v>30690</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71992768003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/05363552692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hg9l27-jual-k530-shapewear-celana-dalam-busa-pantat-palsu-sorex-size-s-xl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxxp5j-jual-kaos-oblong-biru-navy-pria-baju-laki-laki-brown-agree-t-shirt-men-f36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4gre53j</t>
+          <t>7ub909</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1171 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>Kaos - Baju - Tshirt Adidas 03</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>15900</v>
+        <v>105000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07845582103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/61899603892/large/Kaos___Baju___Tshirt_Adidas_03.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gre53j-jual-cd-celana-dalam-wanita-perempuan-sorex-1171-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7ub909-jual-kaos-baju-tshirt-adidas-03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2e5bchl</t>
+          <t>4fra8om</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K597 - CELANA PANTAT BUSA - CD BOXER SOREX - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
+          <t>Kaos Baju Distro Casual Pria Wanita Vespa Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Cewek Unisex Keren Murah Terlaris</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>73440</v>
+        <v>44000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/41317749892/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/83118664492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2e5bchl-jual-k597-celana-pantat-busa-cd-boxer-sorex-pembesar-bokong-pengencang-bokong</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fra8om-jual-kaos-baju-distro-casual-pria-wanita-vespa-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-cewek-unisex-keren-murah-terlaris</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2vovhvs</t>
+          <t>4hs7oiv</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>J588 - CD SOREX - CELANA DALAM WANITA SOREX IMPORT</t>
+          <t>Baju Kaos Avenged Sevenfold A7X Konser Concert T-Shirt With The Used The Only Stop In Asia Jakarta Indonesia 2024 OTDK001B</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>19380</v>
+        <v>95000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/57962660203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/62855306203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vovhvs-jual-j588-cd-sorex-celana-dalam-wanita-sorex-import</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs7oiv-jual-baju-kaos-avenged-sevenfold-a7x-konser-concert-t-shirt-with-the-used-the-only-stop-in-asia-jakarta-indonesia-2024-otdk001b</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4gw3nmm</t>
+          <t>4hr5ke7</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2009,15 +2001,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sorex 1132 3pcs per pack Celana Dalam Wanita - CD Maxi Ibu Hamil Maternity</t>
+          <t>Kaos Baju BUSMANIA JETBUS SHD TAKUMI KIDS PANDA BUS Bis mania Bismania</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>103500</v>
+        <v>60500</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45150410692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/53952452203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2025,19 +2017,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4gw3nmm-jual-sorex-1132-3pcs-per-pack-celana-dalam-wanita-cd-maxi-ibu-hamil-maternity</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr5ke7-jual-kaos-baju-busmania-jetbus-shd-takumi-kids-panda-bus-bis-mania-bismania</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3oelt61</t>
+          <t>dbs8dl</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sleepwear</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2047,91 +2039,91 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Korset Stagen 2x Perekat Sorex 8052 HBSP</t>
+          <t>Tambahan Biaya Untuk Baju Combed 30s Lengan Pendek Ke Lengan Panjang</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>123600</v>
+        <v>9900</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27894213642/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/8981077402/large/Tambahan_Biaya_Untuk_Baju_Combed_30s_Lengan_Pendek_Ke_Lengan.jpg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perlengkapan-bayi/pakaian-bayi/sleepwear/3oelt61-jual-korset-stagen-2x-perekat-sorex-8052-hbsp</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/dbs8dl-jual-tambahan-biaya-untuk-baju-combed-30s-lengan-pendek-ke-lengan-panjang</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4aghmpw</t>
+          <t>3t143qz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Alat Pelangsing</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HOT SHAPER</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>KORSET PELANGSING SOREX WANITA VESH SHAPE UP KORSET MELAHIRKAN PAKAIAN DALAM PENGECIL PERUT</t>
+          <t>Baju kaos pria dewasa cowok keren fashion pria APEW. M L XL premium Lengan panjang kombinasi motif</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>150000</v>
+        <v>79180</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12517327492/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/32950408492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perawatan-kecantikan/pelangsing/alat-pelangsing/4aghmpw-jual-korset-pelangsing-sorex-wanita-vesh-shape-up-korset-melahirkan-pakaian-dalam-pengecil-perut</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3t143qz-jual-baju-kaos-pria-dewasa-cowok-keren-fashion-pria-apew-m-l-xl-premium-lengan-panjang-kombinasi-motif</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4aghmpw</t>
+          <t>4h5id4m</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alat Pelangsing</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HOT SHAPER</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>KORSET PELANGSING SOREX WANITA VESH SHAPE UP KORSET MELAHIRKAN PAKAIAN DALAM PENGECIL PERUT</t>
+          <t>Kaos Baju Synyster Gates Logo Avenged Sevenfold Band Musik Rock - GILAN</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>150000</v>
+        <v>79999</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12517327492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/21316279003/large/data.png</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2139,75 +2131,71 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/perawatan-kecantikan/pelangsing/alat-pelangsing/4aghmpw-jual-korset-pelangsing-sorex-wanita-vesh-shape-up-korset-melahirkan-pakaian-dalam-pengecil-perut</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h5id4m-jual-kaos-baju-synyster-gates-logo-avenged-sevenfold-band-musik-rock-gilan</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4alwd54</t>
+          <t>4fpecdm</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sorex 1229 Celana Dalam Wanita - 6pcs per pack - CD Cutting Maxi Polos Katun Halus</t>
+          <t>COD Kaos Tshirt Baju Obral Murah Polyester 20S MOTIF Distro Grosir Pria Wanita unisex bandung anak dewasa oblong Polos custom indonesia keren olahraga</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>150500</v>
+        <v>17500</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39180410692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/55155114103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alwd54-jual-sorex-1229-celana-dalam-wanita-6pcs-per-pack-cd-cutting-maxi-polos-katun-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fpecdm-jual-cod-kaos-tshirt-baju-obral-murah-polyester-20s-motif-distro-grosir-pria-wanita-unisex-bandung-anak-dewasa-oblong-polos-custom-indonesia-keren-olahraga</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3hzy34h</t>
+          <t>4hqv7qs</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K161 BRA SOREX BUSA ADA KAWAT  BH-BRA SOREX 65002</t>
+          <t>Baju Gamis Wanita Ukuran Jumbo Ukuran L s/d 4XL</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40800</v>
+        <v>207920</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67142312203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39921761203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2215,37 +2203,33 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzy34h-jual-k161-bra-sorex-busa-ada-kawat-bh-bra-sorex-65002</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4hqv7qs-jual-baju-gamis-wanita-ukuran-jumbo-ukuran-l-s-d-4xl</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4hqfc7d</t>
+          <t>4gxo49j</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>J155 - Camisol Tanktop Tali Lebar Sorex Microfiber Size M/L - XL/XXL (Bb 50 - 80 Kg)</t>
+          <t>ASIA Baju Setelan Wanita Atasan Muslim Set Setelan Busana Muslimah Wanita Rayon Super Premium Jumbo Lebaran Ukuran XXL Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35360</v>
+        <v>127415</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26497850203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/73874626003/large/data.png</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2253,37 +2237,33 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hqfc7d-jual-j155-camisol-tanktop-tali-lebar-sorex-microfiber-size-m-l-xl-xxl-bb-50-80-kg</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxo49j-jual-asia-baju-setelan-wanita-atasan-muslim-set-setelan-busana-muslimah-wanita-rayon-super-premium-jumbo-lebaran-ukuran-xxl-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1usmwyo</t>
+          <t>4gxm2sp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Merek Lainnya</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CD Wanita Sorex 1239 Super Soft</t>
+          <t>ASIA Lena Long Tunik Blouse Tunik Muslim Baju Atasan Wanita Dress Panjang Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13900</v>
+        <v>71920</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11231918692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39695115103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2291,75 +2271,67 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1usmwyo-jual-cd-wanita-sorex-1239-super-soft</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm2sp-jual-asia-lena-long-tunik-blouse-tunik-muslim-baju-atasan-wanita-dress-panjang-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>37ywkgl</t>
+          <t>4gxm5lm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K141  Celana Dalam Wanita Sorex  Cd Wanita Sorex 1251</t>
+          <t>ASIA Blouse Wanita Lengan Panjang Baju Wanita Atasan Blouse NAGITA Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>18360</v>
+        <v>94900</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14264197003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/30994343692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37ywkgl-jual-k141-celana-dalam-wanita-sorex-cd-wanita-sorex-1251</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm5lm-jual-asia-blouse-wanita-lengan-panjang-baju-wanita-atasan-blouse-nagita-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3zymjr4</t>
+          <t>4gxm3kp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>K726 - BRA REMAJA BUSA TIPIS TANPA KAWAT CUP  32A - 36A DUA PENGAIT  BRA  SOREX Y3310</t>
+          <t>ASIA Baju Tunik Muslimah Tunik Jumbo Kekinian Baju Atasan Wanita Alma Tunik Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31620</v>
+        <v>119900</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84470057203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60979112692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2367,75 +2339,75 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3zymjr4-jual-k726-bra-remaja-busa-tipis-tanpa-kawat-cup-32a-36a-dua-pengait-bra-sorex-y3310</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm3kp-jual-asia-baju-tunik-muslimah-tunik-jumbo-kekinian-baju-atasan-wanita-alma-tunik-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>441rxy2</t>
+          <t>4gxoozg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Pria</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>K354 - BRAOREX PAKAI BUSA TANPA KAWAT  CUP BESAR 36C - 42C  TIGA PENGAIT  BRA  SOREX ART 17239</t>
+          <t>ASIA Kurta Pakistan bahan Kaos Lengan 3 4 Baju Koko Terlaris Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31280</v>
+        <v>103920</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80626458103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/64951591003/large/data.png</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/441rxy2-jual-k354-braorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait-bra-sorex-art-17239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxoozg-jual-asia-kurta-pakistan-bahan-kaos-lengan-3-4-baju-koko-terlaris-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3citej5</t>
+          <t>4gxpctj</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Pria</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>K193 - CD WANITA ORI SOREX 1254 - CELANA DALAM WANITA SOREX - CELANA DALAM SOREX</t>
+          <t>ASIA Baju koko Lengan Panjang Dewasa Kumpulan Baju Koko Dewasa Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16320</v>
+        <v>159920</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07058716003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/27365129992/large/data.png</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2443,113 +2415,105 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3citej5-jual-k193-cd-wanita-ori-sorex-1254-celana-dalam-wanita-sorex-celana-dalam-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxpctj-jual-asia-baju-koko-lengan-panjang-dewasa-kumpulan-baju-koko-dewasa-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4h1hj8d</t>
+          <t>4h66zed</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>J351 - BOXER WANITA SOREX HOT PANTS SOREX</t>
+          <t>Baju Wanita Pakaian Wanita Stelan Tunik Dan Celana Panjang - Ezra</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16660</v>
+        <v>114000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30696155203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/67600735792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h1hj8d-jual-j351-boxer-wanita-sorex-hot-pants-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4h66zed-jual-baju-wanita-pakaian-wanita-stelan-tunik-dan-celana-panjang-ezra</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8n0h7m</t>
+          <t>1op9i4y</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Wanita</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Hijabenka</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>K526 - Celana Dalam Wanita Murah - Celana Dalam Sorex - Hrg Per 1 Pcs</t>
+          <t>Tj 60417 Baju atasan terbaru wanita muslim murah terlaris</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>17680</v>
+        <v>158600</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/19034941003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/06762745792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/8n0h7m-jual-k526-celana-dalam-wanita-murah-celana-dalam-sorex-hrg-per-1-pcs</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/1op9i4y-jual-tj-60417-baju-atasan-terbaru-wanita-muslim-murah-terlaris</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4h3cgn7</t>
+          <t>37rfxj9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>K131 - BRA/BH WANITA SOREX TANPA KAWAT BUSA TIPIS TIGA PENGAT SIZE 34 - 40</t>
+          <t>Baju Gamis Baju Muslim Pakaian Syari REPETAN KID SYARI KAYLA KID 5 WARNA BEST SELLER</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45560</v>
+        <v>182300</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22734730003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/63024246412/large/Baju_Gamis_Baju_Muslim_Pakaian_Syari_REPETAN_KID_SYARI_KAYLA.png</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2557,75 +2521,71 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h3cgn7-jual-k131-bra-bh-wanita-sorex-tanpa-kawat-busa-tipis-tiga-pengat-size-34-40</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/37rfxj9-jual-baju-gamis-baju-muslim-pakaian-syari-repetan-kid-syari-kayla-kid-5-warna-best-seller</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37quo9o</t>
+          <t>4hs2xq1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>K153  MINISET ANAK ABG  BRA ANAK ABG  TANKTOP REMAJA SOREX 2049</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Spanyol Jerman Swedia Jepang Country Player 6 bulan-12 tahun</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23120</v>
+        <v>65000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33416168203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58708817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37quo9o-jual-k153-miniset-anak-abg-bra-anak-abg-tanktop-remaja-sorex-2049</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xq1-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-spanyol-jerman-swedia-jepang-country-player-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3h0tkia</t>
+          <t>4hs2z84</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>K170  CELANA DALAM WANITA SOREX 02503</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - bears</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>14280</v>
+        <v>15000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28196294203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/99872585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2633,37 +2593,33 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3h0tkia-jual-k170-celana-dalam-wanita-sorex-02503</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z84-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-bears</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1dsxc3b</t>
+          <t>4hs2xpp</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>J566 - Bra Wanita - BH Wanita Sorex Premium - Extra Comfort - Trendy dan Cantik</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Brazil Inggris Indonesia Country Player 6 bulan-12 tahun</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28221368992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46039817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2671,265 +2627,261 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dsxc3b-jual-j566-bra-wanita-bh-wanita-sorex-premium-extra-comfort-trendy-dan-cantik</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xpp-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-brazil-inggris-indonesia-country-player-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4heaka4</t>
+          <t>4hs2z87</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>K523 - CELANA DALAM GSTRING WANITA SOREX RAJUT FREESIZE</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - animals</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16320</v>
+        <v>15000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/16365985003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26273585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4heaka4-jual-k523-celana-dalam-gstring-wanita-sorex-rajut-freesize</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z87-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-animals</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4fvi7h1</t>
+          <t>4hs2tyg</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>J549T ISI 3 PCS Celana Dalam Wanita  Sorex 1238</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Polo Anak-Remaja Space Collection Galactic Journey UFO 6 Bulan-12 Tahun</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52700</v>
+        <v>55000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29332147003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/63752975203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4fvi7h1-jual-j549t-isi-3-pcs-celana-dalam-wanita-sorex-1238</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2tyg-jual-macbear-baju-anak-remaja-laki-laki-kaos-polo-anak-remaja-space-collection-galactic-journey-ufo-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>f8dee0</t>
+          <t>9h4bb5</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>K549 - Celana Dalam Wanita  - Sorex 1238 - Multi Color - Hrg per 1 Pcs</t>
+          <t>Polosan. Kaos Oblong. Baju Polos. Kaos Polos. Cotton Combed. Baju Grosir. Baju Polos Distro</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17680</v>
+        <v>30000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62876252992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/75665076892/large/Polosan_Kaos_Oblong_Baju_Polos_Kaos_Polos_Cotton_Combed_Baju.jpg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/f8dee0-jual-k549-celana-dalam-wanita-sorex-1238-multi-color-hrg-per-1-pcs</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/9h4bb5-jual-polosan-kaos-oblong-baju-polos-kaos-polos-cotton-combed-baju-grosir-baju-polos-distro</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3usd2n7</t>
+          <t>4hqxic1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SOREX BRA Soft &amp; Comfort 17228 Busa Tanpa KAWAT Setara Cup B-C</t>
+          <t>Kaos Baju BUSMANIA RATU MAHER anak dewasa BUS Bis mania Bismania SJM</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30900</v>
+        <v>60500</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/66031133552/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/03853781203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3usd2n7-jual-sorex-bra-soft-comfort-17228-busa-tanpa-kawat-setara-cup-b-c</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqxic1-jual-kaos-baju-busmania-ratu-maher-anak-dewasa-bus-bis-mania-bismania-sjm</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3ihlwy2</t>
+          <t>4fv3oo7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>K314 CELANA DALAM WANITA JUMBO ORI SOREX 1219 CD WANITA SOREX XXXL</t>
+          <t>Kaos Baju Distro PALESTiNA FROM iNDONESiA gaza polos custom palestine</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>20400</v>
+        <v>57900</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/81763741003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29357760292/large/data.jpeg</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3ihlwy2-jual-k314-celana-dalam-wanita-jumbo-ori-sorex-1219-cd-wanita-sorex-xxxl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fv3oo7-jual-kaos-baju-distro-palestina-from-indonesia-gaza-polos-custom-palestine</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1dk3ypp</t>
+          <t>3xh8dzf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>K568 - Bra Wanita - Bh Wanita Sorex Premium - Extra Comfort - Tanpa Kawat</t>
+          <t>KAOS BAJU LENGAN PENDEK REEBOK PRIA WANITA COMBED 30S</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42500</v>
+        <v>85500</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/59121916003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/75349063003/large/data.png</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dk3ypp-jual-k568-bra-wanita-bh-wanita-sorex-premium-extra-comfort-tanpa-kawat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3xh8dzf-jual-kaos-baju-lengan-pendek-reebok-pria-wanita-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>41v1081</t>
+          <t>qo7m6e</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>J354 BRAOREX PAKAI BUSA TANPA KAWAT CUP BESAR 36C - 42C TIGA PENGAIT BRA  SOREX ART 17239</t>
+          <t>KAOS BAJU MOBIL SUZUKI KARIMUN KAOS OTOMOTIF - GILAN CLOTH</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31280</v>
+        <v>79999</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27426379003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48815479003/large/data.png</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2937,57 +2889,57 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/41v1081-jual-j354-braorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait-bra-sorex-art-17239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/qo7m6e-jual-kaos-baju-mobil-suzuki-karimun-kaos-otomotif-gilan-cloth</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4gjgi8y</t>
+          <t>1z3g79w</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Wanita</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Thirdday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>K382 - CELANA DALAM WANITA SOREX ART 1200 SIZE M-L - XL-XXL HARGA PER 1 PCS</t>
+          <t>BAJU WANITA MUSLIM RENA CARDY CARDIGAN WOLFIS PREMIUM IMPORT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22440</v>
+        <v>85200</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76087927003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/19489281021/large/BAJU_WANITA_MUSLIM_RENA_CARDY_CARDIGAN_WOLFIS_PREMIUM_IMPORT.png</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gjgi8y-jual-k382-celana-dalam-wanita-sorex-art-1200-size-m-l-xl-xxl-harga-per-1-pcs</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/1z3g79w-jual-baju-wanita-muslim-rena-cardy-cardigan-wolfis-premium-import</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4hqwaup</t>
+          <t>4hjnqbm</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2997,15 +2949,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>K272D - (isi 2 pcs) Sorex Celana Dalam Pria Boxer Trunk Signature Size M/L - XL/XXL</t>
+          <t>KAOS POLOS JUMBO XXXL BAJU OBLONG PRIA 3XL BIG SIZE KAOS JUMBO POLOS XXXL-3XL OVER SIZE</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>51680</v>
+        <v>33300</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/98243771203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/98709223003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3013,33 +2965,37 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hqwaup-jual-k272d-isi-2-pcs-sorex-celana-dalam-pria-boxer-trunk-signature-size-m-l-xl-xxl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hjnqbm-jual-kaos-polos-jumbo-xxxl-baju-oblong-pria-3xl-big-size-kaos-jumbo-polos-xxxl-3xl-over-size</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4c14oi1</t>
+          <t>4hr4xm4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>GEND47 KORSET SOREX SLIMMING CORSET STAGEN 8056</t>
+          <t>baju kaos berkerah AMIN anies muhaimin 2024 lengan pendek</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>58900</v>
+        <v>97200</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62091336892/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/85758842203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3047,37 +3003,37 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4c14oi1-jual-gend47-korset-sorex-slimming-corset-stagen-8056</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4xm4-jual-baju-kaos-berkerah-amin-anies-muhaimin-2024-lengan-pendek</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>b7hvxn</t>
+          <t>3iq2ole</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Basic Midi Sorex 1230 Ukuran M - L</t>
+          <t>kaos distro pria original Dflow 47 baju pria original kaos salur pria</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14900</v>
+        <v>65000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/08551100151/large/2019_10_23T08_37_16_07_00.jpg</t>
+          <t>https://s3.bukalapak.com/img/33231805003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3085,37 +3041,37 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/b7hvxn-jual-celana-dalam-wanita-basic-midi-sorex-1230-ukuran-m-l</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3iq2ole-jual-kaos-distro-pria-original-dflow-47-baju-pria-original-kaos-salur-pria</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4f0dksj</t>
+          <t>4hr4ynj</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>K526T - ISI 3PCS CELANA SOREX  CELANA DALAM WANITA  CD WANITA IMPORT  CD WANITA SOREX</t>
+          <t>baju kaos berkerah Save Palestine lengan pendek</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53040</v>
+        <v>97200</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76860037003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/67970942203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3123,19 +3079,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4f0dksj-jual-k526t-isi-3pcs-celana-sorex-celana-dalam-wanita-cd-wanita-import-cd-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4ynj-jual-baju-kaos-berkerah-save-palestine-lengan-pendek</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4gw3nmm</t>
+          <t>4hr4bs4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Baju Hamil</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3145,15 +3101,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sorex 1132 3pcs per pack Celana Dalam Wanita - CD Maxi Ibu Hamil Maternity</t>
+          <t>Kaos Baju Distro GEMOY Prabowo Gibran Presiden Wakil indonesia partai</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>103500</v>
+        <v>55500</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45150410692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/89635442203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3161,75 +3117,75 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-hamil/4gw3nmm-jual-sorex-1132-3pcs-per-pack-celana-dalam-wanita-cd-maxi-ibu-hamil-maternity</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4bs4-jual-kaos-baju-distro-gemoy-prabowo-gibran-presiden-wakil-indonesia-partai</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4gw3pkd</t>
+          <t>4g97m2j</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sorex 1257 6pcs per pack Celana Dalam Wanita - CD Mini Polos Super Halus</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru MARIO</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>91400</v>
+        <v>44000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27933410692/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46459654492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw3pkd-jual-sorex-1257-6pcs-per-pack-celana-dalam-wanita-cd-mini-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g97m2j-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-mario</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4hn9hjy</t>
+          <t>4hqdnxm</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mobile Power</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>bra bh sorex busa tebal maximizer push up berkawat</t>
+          <t>Kaos Baju SAVE GAZA Semangka Watermelon Palestine Palestina indonesia</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>45000</v>
+        <v>50500</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/75090012103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65983220203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3237,37 +3193,37 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hn9hjy-jual-bra-bh-sorex-busa-tebal-maximizer-push-up-berkawat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqdnxm-jual-kaos-baju-save-gaza-semangka-watermelon-palestine-palestina-indonesia</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2u5c0a1</t>
+          <t>4hefwrd</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>J141 - Celana Dalam Wanita Sorex - Cd Wanita Sorex 1251 - Cd Wanita Import</t>
+          <t>Kaos Baju Tshirt Distro Brooklyn Nets City Edition polos Basket NBA</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>18360</v>
+        <v>56900</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30195429103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/87964571992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3275,151 +3231,151 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2u5c0a1-jual-j141-celana-dalam-wanita-sorex-cd-wanita-sorex-1251-cd-wanita-import</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hefwrd-jual-kaos-baju-tshirt-distro-brooklyn-nets-city-edition-polos-basket-nba</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4gccvcy</t>
+          <t>w6sceu</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Wanita</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Merek lainnya</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>K589T - CELANA DALAM WANITA SOREX ART 0839 HARGA PER 3 PCS SIZE M - XXL</t>
+          <t>Baju muslim wanita HANUM DRESS Baju gamis wanita</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48960</v>
+        <v>78000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91963390003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/64644834501/large/Baju_muslim_wanita_HANUM_DRESS_Baju_gamis_wanita.jpg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gccvcy-jual-k589t-celana-dalam-wanita-sorex-art-0839-harga-per-3-pcs-size-m-xxl</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/w6sceu-jual-baju-muslim-wanita-hanum-dress-baju-gamis-wanita</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2y6rvze</t>
+          <t>4gdsxmp</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>J168 - CD WANITA SOREX SAMLESS EA511- CELANA DALAM WANITA SEAMLESS SOREX - CELANA DALAM SOREX</t>
+          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23800</v>
+        <v>79800</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/03031378003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/82663132492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2y6rvze-jual-j168-cd-wanita-sorex-samless-ea511-celana-dalam-wanita-seamless-sorex-celana-dalam-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdsxmp-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality-keren</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>37atm1b</t>
+          <t>1rd1pop</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>K128  BRA SOREX  TANPA KAWAT  BH-BRA SOREX 02008</t>
+          <t>Kaos TOPi Baju Obral Combed 30S Distro MERCY MERCEDES BENZ AMG polos</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>62900</v>
+        <v>69300</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11600431003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/62346515501/large/2019_05_20T08_02_14_07_00.jpg</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37atm1b-jual-k128-bra-sorex-tanpa-kawat-bh-bra-sorex-02008</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1rd1pop-jual-kaos-topi-baju-obral-combed-30s-distro-mercy-mercedes-benz-amg-polos</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2tuvd4q</t>
+          <t>4hr0nos</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>J111 - CELANA DALAM  SEAMLESS SOREX  -  CD SOREX SEAMLESS</t>
+          <t>Kaos Baju BUSMANIA TUAN MUDA STYLE anak dewasa BUS Bis mania Bismania</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22440</v>
+        <v>60500</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49390732003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/13050512203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3427,75 +3383,75 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2tuvd4q-jual-j111-celana-dalam-seamless-sorex-cd-sorex-seamless</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr0nos-jual-kaos-baju-busmania-tuan-muda-style-anak-dewasa-bus-bis-mania-bismania</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>41q8q9m</t>
+          <t>4haa411</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>K351  BOXER WANITA SOREX UNDERWEAR SOREX BOXER WANITA ART 1262</t>
+          <t>Kaos Baju ISLAMI FREE PALESTINA PALESTINE save gaza polos custom islam</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16660</v>
+        <v>47900</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/69586927003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/10134633892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/41q8q9m-jual-k351-boxer-wanita-sorex-underwear-sorex-boxer-wanita-art-1262</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4haa411-jual-kaos-baju-islami-free-palestina-palestine-save-gaza-polos-custom-islam</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4hjax0p</t>
+          <t>4hmdzw4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>J117  CD WANITA SOREX RENDA BRUKAT TRANSPARAN FREE SIZE ( SETARA SIZE L-XL )</t>
+          <t>Kaos Baju PDIP pdi Teman Ganjar PRANOWO sahabat Presiden indonesia cod</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24480</v>
+        <v>55900</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/93909622003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/25800300103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3503,75 +3459,75 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hjax0p-jual-j117-cd-wanita-sorex-renda-brukat-transparan-free-size-setara-size-l-xl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmdzw4-jual-kaos-baju-pdip-pdi-teman-ganjar-pranowo-sahabat-presiden-indonesia-cod</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ffk3r4</t>
+          <t>4guiiwv</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MerekLainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Super Soft Sorex Kode 1239</t>
+          <t>Fashion Pria Baju Kaos Santai Bagus</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13500</v>
+        <v>100000</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/4037735483/large/Celana_Dalam_Wanita_Super_Soft_Sorex_Kode_1239.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91567238992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/ffk3r4-jual-celana-dalam-wanita-super-soft-sorex-kode-1239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4guiiwv-jual-fashion-pria-baju-kaos-santai-bagus</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4hejn4a</t>
+          <t>4hr4y6y</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>J523 CELANA DALAM GSTRING SOREX RAJUT FREESIZE SATUAN</t>
+          <t>baju kaos berkerah Prabowo mania presiden indonesia 2024 lengan pendek</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15912</v>
+        <v>97200</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65944138003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/75849842203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3579,185 +3535,189 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hejn4a-jual-j523-celana-dalam-gstring-sorex-rajut-freesize-satuan</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4y6y-jual-baju-kaos-berkerah-prabowo-mania-presiden-indonesia-2024-lengan-pendek</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2ce3lz9</t>
+          <t>4hr4xzj</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>K573 - CD SOREX - CELANA DALAM WANITA SOREX M - QL</t>
+          <t>baju kaos berkerah anies baswedan presiden for 2024 lengan pendek</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21080</v>
+        <v>97200</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/34836868003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02319842203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ce3lz9-jual-k573-cd-sorex-celana-dalam-wanita-sorex-m-ql</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4xzj-jual-baju-kaos-berkerah-anies-baswedan-presiden-for-2024-lengan-pendek</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4hcfgk1</t>
+          <t>4gdsxmp</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>K566 - BRA/BH WANITA SOREX ADA BUSA ADA KAWAT CUP B SIZE 36 - 42</t>
+          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42500</v>
+        <v>79800</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/01877168992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/82663132492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcfgk1-jual-k566-bra-bh-wanita-sorex-ada-busa-ada-kawat-cup-b-size-36-42</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdsxmp-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality-keren</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1gak5vt</t>
+          <t>3od3yp1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>K542 - Bra Sorex - Bh Sorex - Tanpa Kawat</t>
+          <t>Fashion Pria Baju Kaos</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42500</v>
+        <v>80000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/09456107992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/98697521203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1gak5vt-jual-k542-bra-sorex-bh-sorex-tanpa-kawat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3od3yp1-jual-fashion-pria-baju-kaos</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3qega7b</t>
+          <t>3q797w3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SM164 BRA SOREX BUSA TANPA KAWAT BHBRA SOREX 17227 BRA WANITA SOREX</t>
+          <t>COD-KAOS PRIA KRAH KOKO LENGAN PANJANG-BAJU KOKO PRIA-KOAS SIMPLE RADEN</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29240</v>
+        <v>52000</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85822518103/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/73337755003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3qega7b-jual-sm164-bra-sorex-busa-tanpa-kawat-bhbra-sorex-17227-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3q797w3-jual-cod-kaos-pria-krah-koko-lengan-panjang-baju-koko-pria-koas-simple-raden</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>37cqash</t>
+          <t>1psl54r</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1255 - 6pcs SuperSoft - Kolor perempuan</t>
+          <t>Baju distro cotton Combed 20s I DONT CARE warna Putih Kaos distro Pria i dont care cotton combed 20s white</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>109000</v>
+        <v>39990</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/36395894392/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/50029929892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3765,37 +3725,37 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37cqash-jual-celana-dalam-wanita-sorex-1255-6pcs-supersoft-kolor-perempuan</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1psl54r-jual-baju-distro-cotton-combed-20s-i-dont-care-warna-putih-kaos-distro-pria-i-dont-care-cotton-combed-20s-white</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>37qoe09</t>
+          <t>4hqjnr1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>K149  CELANA DALAM WANITA SOREX 02501  CD WANITA SOREX</t>
+          <t>Baju Barong Lukis khas Bali murah berkualitas</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14280</v>
+        <v>35000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/82230037003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/52502960203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3803,37 +3763,37 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/37qoe09-jual-k149-celana-dalam-wanita-sorex-02501-cd-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqjnr1-jual-baju-barong-lukis-khas-bali-murah-berkualitas</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1dpcixj</t>
+          <t>4h7cxay</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>J568 - Bra Wanita - Bh Wanita Sorex Premium - Extra Comfort - Tanpa Kawat</t>
+          <t>Baju Cowok Damor - Rmbas.cb072k</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42500</v>
+        <v>115900</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46447438003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/99312157792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3841,147 +3801,151 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1dpcixj-jual-j568-bra-wanita-bh-wanita-sorex-premium-extra-comfort-tanpa-kawat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h7cxay-jual-baju-cowok-damor-rmbas-cb072k</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2ut37e4</t>
+          <t>3ej122f</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>J583 - CD SOREX BIG SIZE - CELANA DALAM WANITA JUMBO EXTRA SIZE</t>
+          <t>PE GROSIR KAOS POLOS pendek pria baju kaos t shirt premium bandung</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/05115560203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/11699540922/large/2020-06-19T14%3A19%3A30%2B07%3A00.jpeg</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2ut37e4-jual-j583-cd-sorex-big-size-celana-dalam-wanita-jumbo-extra-size</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3ej122f-jual-pe-grosir-kaos-polos-pendek-pria-baju-kaos-t-shirt-premium-bandung</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2v3fr15</t>
+          <t>4dkcpng</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SOREX 1052 Stagen Korset Pelangsing Perut - Original Grosir Termurah</t>
+          <t>Baju Kaos Polos Lengan Pendek POCKET BLACK MISTY Hitam Misty Saku COTTON COMBED 30S</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>54000</v>
+        <v>45000</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/60275839581/large/SOREX_1052_Stagen_Korset_Pelangsing_Perut___Original_Grosir_.jpg</t>
+          <t>https://s4.bukalapak.com/img/49151046892/large/1910c9c51f4326270491f35152394db2.jpg</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2v3fr15-jual-sorex-1052-stagen-korset-pelangsing-perut-original-grosir-termurah</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcpng-jual-baju-kaos-polos-lengan-pendek-pocket-black-misty-hitam-misty-saku-cotton-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4ewh26m</t>
+          <t>ze92pt</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>J372 Celana Dalam Wanita Sorex  Cd Wanita Murah Celana Dalam Sorex  Sorex 1250</t>
+          <t>Kaos Baju Obral Combed 30S Distro NOTHiNG iS REAL JAPAN Jepang Murah</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>18360</v>
+        <v>49900</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/90893315203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/8356361974/large/Kaos_Baju_Obral_Combed_30S_Distro_NOTHiNG_iS_REAL_JAPAN_Jepa.jpg</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4ewh26m-jual-j372-celana-dalam-wanita-sorex-cd-wanita-murah-celana-dalam-sorex-sorex-1250</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/ze92pt-jual-kaos-baju-obral-combed-30s-distro-nothing-is-real-japan-jepang-murah</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>604j4</t>
+          <t>4hg8jqg</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Bra KAwat Sorex Cup FULL</t>
+          <t>Kaos Baju SERAGAM MASINIS polos KERETA API indonesia anak dewasa MURAH</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>39000</v>
+        <v>55500</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45515332/large/2015-03-24_07.32.13.jpg</t>
+          <t>https://s4.bukalapak.com/img/45982506103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3989,33 +3953,37 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/604j4-jual-bra-kawat-sorex-cup-full</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hg8jqg-jual-kaos-baju-seragam-masinis-polos-kereta-api-indonesia-anak-dewasa-murah</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4f376t4</t>
+          <t>4hrlclj</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>GEND55 CELANA DALAM SOREX BASIC SUPER SOFT CD 1239</t>
+          <t>Kaos Baju BiRU GEMOY Prabowo Gibran Presiden Wakil indonesia partai ri</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14900</v>
+        <v>50500</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/81606459982/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/00233204203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4023,215 +3991,227 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4f376t4-jual-gend55-celana-dalam-sorex-basic-super-soft-cd-1239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrlclj-jual-kaos-baju-biru-gemoy-prabowo-gibran-presiden-wakil-indonesia-partai-ri</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>3zd6wvj</t>
+          <t>1pz5guj</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bra BH Sorex Wanita Perempuan Tanpa Kawat Motif Polos Hiasan Kembang Super Soft Sorex 17239 - Aneka Koleksi Pakaian</t>
+          <t>Kaos Distro Lengan Panjang Threesecond 1996 Baju Casual Santai Kaos Tangan Panjang Distro Red Black Navy Grey Bahan Katun Lembut Combed 30s</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31000</v>
+        <v>49990</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24199766162/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91755458392/large/Kaos_Distro_Lengan_Panjang_Threesecond_1996_Baju_Casual_Sant.jpeg</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3zd6wvj-jual-bra-bh-sorex-wanita-perempuan-tanpa-kawat-motif-polos-hiasan-kembang-super-soft-sorex-17239-aneka-koleksi-pakaian</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1pz5guj-jual-kaos-distro-lengan-panjang-threesecond-1996-baju-casual-santai-kaos-tangan-panjang-distro-red-black-navy-grey-bahan-katun-lembut-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4es5he7</t>
+          <t>408n4ff</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sorex Bra Menyusui Motif Bunga Cantik Nursing Bra BH 8108 BH 8110 Tanpa Kawat Kait 3 Busa Sedang</t>
+          <t>kaos pria original kaos distro pria baju pria original baju salur pria kaos salur pria</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30973</v>
+        <v>65000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/98072481982/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/21700894003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4es5he7-jual-sorex-bra-menyusui-motif-bunga-cantik-nursing-bra-bh-8108-bh-8110-tanpa-kawat-kait-3-busa-sedang</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408n4ff-jual-kaos-pria-original-kaos-distro-pria-baju-pria-original-baju-salur-pria-kaos-salur-pria</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4hrbo2a</t>
+          <t>4ge0xsy</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita SOREX 1233 isi 1Pc</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO SWEATER</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22000</v>
+        <v>79800</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/77575013203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/95210903203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hrbo2a-jual-celana-dalam-wanita-sorex-1233-isi-1pc</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0xsy-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-sweater</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>34zdrmt</t>
+          <t>4ge0w21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>TERMURAH Korset Celana Dalam SOREX - Hitam</t>
+          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO LEMBUT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>58000</v>
+        <v>79800</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65268130902/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17673232492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34zdrmt-jual-termurah-korset-celana-dalam-sorex-hitam</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0w21-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-lembut</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4alydqg</t>
+          <t>4ge0zrj</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1239 - 6pcs per pack - CD Cutting Midi Polos Super Halus</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO RAPI RAPIH</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>98450</v>
+        <v>79800</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22341410692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51338332492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alydqg-jual-celana-dalam-wanita-sorex-1239-6pcs-per-pack-cd-cutting-midi-polos-super-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0zrj-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-rapi-rapih</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4grft8m</t>
+          <t>4honle1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sorex Bra Sport Polos SP 020 BH Olahraga Senam Stretch</t>
+          <t>KAOS TSHIRT PRIA BAJU LENGAN PANJANG</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>35000</v>
+        <v>115000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/44714436892/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/11365065103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4239,37 +4219,33 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grft8m-jual-sorex-bra-sport-polos-sp-020-bh-olahraga-senam-stretch</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4honle1-jual-kaos-tshirt-pria-baju-lengan-panjang</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3idy3z5</t>
+          <t>4gxm5lm</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Merek Lainnya</t>
-        </is>
-      </c>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>K305  BRA CUP D  BRA BUSA ADA KAWAT  CUP BESAR 38D - 44D  TIGA PENGAIT  BH ORI SOREX 11199D</t>
+          <t>ASIA Blouse Wanita Lengan Panjang Baju Wanita Atasan Blouse NAGITA Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>44880</v>
+        <v>94900</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72146431003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/30994343692/large/data.jpeg</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4277,37 +4253,37 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3idy3z5-jual-k305-bra-cup-d-bra-busa-ada-kawat-cup-besar-38d-44d-tiga-pengait-bh-ori-sorex-11199d</t>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm5lm-jual-asia-blouse-wanita-lengan-panjang-baju-wanita-atasan-blouse-nagita-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4hrbyx4</t>
+          <t>4gxoq1p</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Busana Muslim Pria</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SOREX Celana Wanita dalam JUMBO 1248 Isi-1</t>
+          <t>ASIA BAJU KOKO HARGA GROSIR BAHN DOLBY LENGAN PANJANG MOTIF HITAM PUTIH Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25000</v>
+        <v>103920</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84355313203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17200034203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4315,37 +4291,37 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hrbyx4-jual-sorex-celana-wanita-dalam-jumbo-1248-isi-1</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxoq1p-jual-asia-baju-koko-harga-grosir-bahn-dolby-lengan-panjang-motif-hitam-putih-berkualitas-murah</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2bwgpsv</t>
+          <t>4gipqma</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>K589 - CD SOREX - CELANA DALAM WANITA M.L.EL.QL</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO KEREN</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16320</v>
+        <v>79800</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/32326340203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/66309576592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4353,37 +4329,37 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2bwgpsv-jual-k589-cd-sorex-celana-dalam-wanita-m-l-el-ql</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gipqma-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-keren</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2vgi65v</t>
+          <t>4hp1q9y</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>J157 - PANTAT BUSA SOREX BA 017 - CELANA BUSA - PEMBESAR BOKONG - PENGENCANG BOKONG</t>
+          <t>Kaos Lengan Panjang Mizuno Kirka Text Silver Premium Baju Pria Wanita Premium Kaos</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>65280</v>
+        <v>135000</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/41261875003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92735766103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4391,375 +4367,371 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2vgi65v-jual-j157-pantat-busa-sorex-ba-017-celana-busa-pembesar-bokong-pengencang-bokong</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp1q9y-jual-kaos-lengan-panjang-mizuno-kirka-text-silver-premium-baju-pria-wanita-premium-kaos</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ckv227</t>
+          <t>239y3wa</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>K548 - Celana Dalam Wanita  - Sorex 1228 - Multi Color</t>
+          <t>T-SHIRT BAJU KAOS SUBLIME KAMEN RIDER ZERO-ONE ZERO ONE RISING HOPPER Hijau S</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18020</v>
+        <v>135000</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39444868003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60823232821/large/T_SHIRT_BAJU_KAOS_SUBLIME_KAMEN_RIDER_ZERO_ONE_ZERO_ONE_RISI.jpg</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/ckv227-jual-k548-celana-dalam-wanita-sorex-1228-multi-color</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/239y3wa-jual-t-shirt-baju-kaos-sublime-kamen-rider-zero-one-zero-one-rising-hopper-hijau-s</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2bwgpx1</t>
+          <t>4hs2z8p</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>K583 - CD SOREX BIG SIZE - CELANA DALAM WANITA JUMBO EXTRA SIZE</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - submarine</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20400</v>
+        <v>15000</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/57778458103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/30182585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2bwgpx1-jual-k583-cd-sorex-big-size-celana-dalam-wanita-jumbo-extra-size</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8p-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-submarine</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3ionvpn</t>
+          <t>4hs2z8g</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SOREX T- Shirt Bra Fashion 34135</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - stars</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36500</v>
+        <v>15000</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/89438081832/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39434585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3ionvpn-jual-sorex-t-shirt-bra-fashion-34135</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8g-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-stars</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>21gmwms</t>
+          <t>4hs2z8j</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SOREX cd basic Katun 1232 basic panty</t>
+          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - rainbow</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>20900</v>
+        <v>15000</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/66370152491/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60482585203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/21gmwms-jual-sorex-cd-basic-katun-1232-basic-panty</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8j-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-rainbow</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2a8l0ok</t>
+          <t>4hs2wr4</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>K579 - BRA SOREX - BH SOREX - BRA WANITA SOREX</t>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Muslim Anak-Remaja Collection Bordir 6 bulan-12 Tahun</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/89181380203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74719817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2a8l0ok-jual-k579-bra-sorex-bh-sorex-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wr4-jual-macbear-baju-anak-remaja-laki-laki-polo-muslim-anak-remaja-collection-bordir-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3blbj5h</t>
+          <t>4hs2z8v</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
+          <t>Dress</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>K190 - BRA SOREX BUSA TANPA KAWAT - BH-BRA SOREX 11107 - BRA WANITA SOREX</t>
+          <t>MacBee Baju Anak Perempuan Dress Anak Princess Collection Myria Bunny Cute 6 Bulan-12 Tahun</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48960</v>
+        <v>65000</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92838788992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/73768817203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3blbj5h-jual-k190-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-11107-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-perempuan/dress-1381/4hs2z8v-jual-macbee-baju-anak-perempuan-dress-anak-princess-collection-myria-bunny-cute-6-bulan-12-tahun</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>k88ki9</t>
+          <t>4g97tej</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Merek Sorex Asli Kode 1232 Harga Dijamin Termurah VC</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru ONE PIECE</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35500</v>
+        <v>44000</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/6153253682/large/Celana_Dalam_Wanita_Merek_Sorex_Asli_Kode_1232_Harga_Dijamin.jpg</t>
+          <t>https://s4.bukalapak.com/img/93040354492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/k88ki9-jual-celana-dalam-wanita-merek-sorex-asli-kode-1232-harga-dijamin-termurah-vc</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g97tej-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-one-piece</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3hzksn2</t>
+          <t>fcdvzn</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>K133  BRA SOREX  TANPA KAWAT  BH-BRA SOREX 65001</t>
+          <t>kaos playboy pensiun t-shirt playboy logo baju distro cewek cowok unik pakaian kata kata lucu pria dan wanita - showbiz</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>40800</v>
+        <v>75000</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/20145698992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/89119168792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3hzksn2-jual-k133-bra-sorex-tanpa-kawat-bh-bra-sorex-65001</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fcdvzn-jual-kaos-playboy-pensiun-t-shirt-playboy-logo-baju-distro-cewek-cowok-unik-pakaian-kata-kata-lucu-pria-dan-wanita-showbiz</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4grfsmj</t>
+          <t>4dkcnlm</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CD Sorex Basic Midi Katun Mix Strecth 1232 Celana Dalam Wanita Soft Comfort</t>
+          <t>Baju Kaos Polos Lengan Panjang GREEN FOREST Hijau Botol Cewek Cowok COTTON COMBED 30S</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18500</v>
+        <v>55000</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/55300134592/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92945766892/large/bc351dc7e5a81f7512aa89c32a5aeb93.jpg</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grfsmj-jual-cd-sorex-basic-midi-katun-mix-strecth-1232-celana-dalam-wanita-soft-comfort</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcnlm-jual-baju-kaos-polos-lengan-panjang-green-forest-hijau-botol-cewek-cowok-cotton-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4gif7z7</t>
+          <t>4hofwkp</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>K380 - BRA WANITA SOREX BUSA TANPA KAWAT  CUP A SIZE 34A - 40A  DUA PENGAIT</t>
+          <t>Kaos Baju BUSMANIA stj draka BUS Mania Bis Bismania SHD anak dewasa</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30260</v>
+        <v>50500</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/74608151203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81409305103/large/data.png</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4767,151 +4739,151 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gif7z7-jual-k380-bra-wanita-sorex-busa-tanpa-kawat-cup-a-size-34a-40a-dua-pengait</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hofwkp-jual-kaos-baju-busmania-stj-draka-bus-mania-bis-bismania-shd-anak-dewasa</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3i07r3n</t>
+          <t>105ob8k</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>K164 BRA SOREX BUSA TANPA KAWAT BH-BRA SOREX 17227</t>
+          <t>Polosan Kaos Polos Baju polos Cotton 30s</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29240</v>
+        <v>28000</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/66404510203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/3412857594/large/Kaos_Polos.jpg</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i07r3n-jual-k164-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17227</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/105ob8k-jual-polosan-kaos-polos-baju-polos-cotton-30s</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3gl05wa</t>
+          <t>4gti1im</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>J314  CELANA DALAM WANITA JUMBO ORI SOREX 1219</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER PREMIUM KEREN</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>20400</v>
+        <v>79800</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/94829324203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/94866576592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3gl05wa-jual-j314-celana-dalam-wanita-jumbo-ori-sorex-1219</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gti1im-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-premium-keren</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>4gvp2sj</t>
+          <t>4gdj07p</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CD Celana Dalam Wanita Perempuan SOREX 1258 Dewasa Remaja size M L EL XL QL XXL 3L</t>
+          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>15800</v>
+        <v>79800</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/20864169592/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/55430903203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gvp2sj-jual-cd-celana-dalam-wanita-perempuan-sorex-1258-dewasa-remaja-size-m-l-el-xl-ql-xxl-3l</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdj07p-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3i5nh3b</t>
+          <t>4gf5w14</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SOREX ACTIVE Sport Bra STRETCH SP 020 Busa Tipis Tanpa kawat Original</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN LEMBUT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>39900</v>
+        <v>79800</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/77753689632/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/27542653492/large/data.jpeg</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -4919,37 +4891,37 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i5nh3b-jual-sorex-active-sport-bra-stretch-sp-020-busa-tipis-tanpa-kawat-original</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gf5w14-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-good-quality-keren-lembut</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>4h2h1fs</t>
+          <t>408k5gb</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>J566 BRA WANITA SOREX  ADA BUSA ADA KAWAT CUP B SIZE 36 - 42</t>
+          <t>kaos pria original Dflow baju pria original baju salur pria</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61572368992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/79771894003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4957,257 +4929,265 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4h2h1fs-jual-j566-bra-wanita-sorex-ada-busa-ada-kawat-cup-b-size-36-42</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408k5gb-jual-kaos-pria-original-dflow-baju-pria-original-baju-salur-pria</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7i1nzn</t>
+          <t>4gj7q6j</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Celana Dalam wanita Sorex 1239</t>
+          <t>KAOS 3SECOND - KAOS THREESECOND - KAOS PENDEK PRIA 3SECOND - KAOS BAND 3 SECOND - BAJU DISTRO 3SECOND - KAOS COMBED 30S - KAOS DISTRO PRIA</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>13600</v>
+        <v>50000</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61788354732/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/15913926592/large/data.jpeg</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/7i1nzn-jual-celana-dalam-wanita-sorex-1239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gj7q6j-jual-kaos-3second-kaos-threesecond-kaos-pendek-pria-3second-kaos-band-3-second-baju-distro-3second-kaos-combed-30s-kaos-distro-pria</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2h82v9r</t>
+          <t>4h9kywa</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SOREX Cd Basic Mini Sepinggul 1257 Super Soft</t>
+          <t>Kaos Baju Distro SECURITY MERAH PUTiH KEAMANAN polos custom indonesia</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12900</v>
+        <v>55500</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76120355992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/24893715103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2h82v9r-jual-sorex-cd-basic-mini-sepinggul-1257-super-soft</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9kywa-jual-kaos-baju-distro-security-merah-putih-keamanan-polos-custom-indonesia</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>49qwbhr</t>
+          <t>4dkcp7g</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Bra BH Wanita Sorex Soft &amp; Comfort Tanpa Kawat Motif Polos Hiasan Kembang Sorex 17227 - Aneka Koleksi Pakaian</t>
+          <t>Baju Kaos Polos Oblong Lengan Pendek Bandung GREY MISTY Pria wanita Abu Misty Cotton Combed 30s</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30500</v>
+        <v>45000</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/72455880772/large/data.png</t>
+          <t>https://s2.bukalapak.com/img/22781046892/large/2cca6fe707e5c0f44b205cf30eb67c35.jpg</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/49qwbhr-jual-bra-bh-wanita-sorex-soft-comfort-tanpa-kawat-motif-polos-hiasan-kembang-sorex-17227-aneka-koleksi-pakaian</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcp7g-jual-baju-kaos-polos-oblong-lengan-pendek-bandung-grey-misty-pria-wanita-abu-misty-cotton-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>kbo30j</t>
+          <t>4gbwypa</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1227</t>
+          <t>Kaos PE Polos - kaos murah Pe WINSTAR - kaos polyester - kaos pria dan wanita - grosir baju polos - kaos polos murah - kaos polos</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>17700</v>
+        <v>12000</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/43862454732/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29512995892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/kbo30j-jual-celana-dalam-wanita-sorex-1227</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gbwypa-jual-kaos-pe-polos-kaos-murah-pe-winstar-kaos-polyester-kaos-pria-dan-wanita-grosir-baju-polos-kaos-polos-murah-kaos-polos</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5lu0m</t>
+          <t>4g4d3yg</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Celana Korset SOREX Segiempat</t>
+          <t>Baju Kaos PUTIH Polos Oblong Pria Wanita Grosir</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>60000</v>
+        <v>19900</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/38161612/large/2015-03-09_18.37.41.jpg</t>
+          <t>https://s3.bukalapak.com/img/36296718592/large/data.png</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/5lu0m-jual-celana-korset-sorex-segiempat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g4d3yg-jual-baju-kaos-putih-polos-oblong-pria-wanita-grosir</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>34yg76d</t>
+          <t>4hrfplg</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MURAH KORSET HAMIL SOREX 4427 - STAGEN PENYANGGA KEHAMILAN - MATERNITY BELT - Hitam Mantap</t>
+          <t>Kaos Baju Wakanda No More Indonesia Forever polos Amin Anies Muhaimin</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>48900</v>
+        <v>46000</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67245979802/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/15132743203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/34yg76d-jual-murah-korset-hamil-sorex-4427-stagen-penyangga-kehamilan-maternity-belt-hitam-mantap</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfplg-jual-kaos-baju-wakanda-no-more-indonesia-forever-polos-amin-anies-muhaimin</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4alzeid</t>
+          <t>4hilasv</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Celana Dalam Wanita Sorex 1255 - 6pcs per pack - CD Cutting Midi Super Soft Halus</t>
+          <t>KAUS LENGAN PANJANG MOTIF POLOS BAJU KAOS PRIA MODEL KEKINIAN NEW MEN STYLE KOREA BTS ALLSIZE BUSANA LAKI LAKI MODEL COWOK HITAM MAROON PUTIH ABU ABU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>112500</v>
+        <v>70000</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23781410692/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29358550003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -5215,37 +5195,37 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4alzeid-jual-celana-dalam-wanita-sorex-1255-6pcs-per-pack-cd-cutting-midi-super-soft-halus</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hilasv-jual-kaus-lengan-panjang-motif-polos-baju-kaos-pria-model-kekinian-new-men-style-korea-bts-allsize-busana-laki-laki-model-cowok-hitam-maroon-putih-abu-abu</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>490mdwb</t>
+          <t>4hrj46v</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>K362 - CELANA DALAM WANITA SOREX 15226  CD WANITA SOREX  CELANA DALAM SOREX</t>
+          <t>Kaos Baju 1 AMIN Anies Baswedan Muhaimin 2024 Presiden Wakil indonesia</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>12240</v>
+        <v>46000</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/74701849003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81366083203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5253,95 +5233,95 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/490mdwb-jual-k362-celana-dalam-wanita-sorex-15226-cd-wanita-sorex-celana-dalam-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrj46v-jual-kaos-baju-1-amin-anies-baswedan-muhaimin-2024-presiden-wakil-indonesia</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1j4bipi</t>
+          <t>4hjd0a7</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Celana dalam wanita Super Soft Sorex 1239</t>
+          <t>Kaos TSHIRT Baju Distro BENDERA MALAYSIA oleh FLAG SOUVENIR SUVENIR</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>14700</v>
+        <v>52900</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11664818692/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/94491442003/large/data.jpeg</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/1j4bipi-jual-celana-dalam-wanita-super-soft-sorex-1239</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hjd0a7-jual-kaos-tshirt-baju-distro-bendera-malaysia-oleh-flag-souvenir-suvenir</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4hcgxnp</t>
+          <t>4b30157</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>K354 - BRA/BH WANITA SOREX PAKAI BUSA TANPA KAWAT CUP BESAR 36C - 42C TIGA PENGAIT</t>
+          <t>HD Kaos raglan Vneck polos kaos raglan pria fashion pria baju distro pria</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31280</v>
+        <v>25000</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/52435458103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/63493698082/large/12dc82df50d2c07c28abe0d24b9bf3f3.jpg</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hcgxnp-jual-k354-bra-bh-wanita-sorex-pakai-busa-tanpa-kawat-cup-besar-36c-42c-tiga-pengait</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4b30157-jual-hd-kaos-raglan-vneck-polos-kaos-raglan-pria-fashion-pria-baju-distro-pria</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2xey8k3</t>
+          <t>sdrldw</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5351,53 +5331,53 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>J213 - CD BOXER PRIA SOREX - CELANA DALAM PRIA BOXER - BOXER PRIA IMPORT - BOXER 3802</t>
+          <t>Kaos Baju Obral Combed 30S Distro JUVENTUS EMAS GOLD BiANCONERi Juve</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25840</v>
+        <v>54900</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76460291203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/0462842273/large/Kaos_Baju_Obral_Combed_30S_Distro_JUVENTUS_EMAS_GOLD_BiANCON.jpg</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/2xey8k3-jual-j213-cd-boxer-pria-sorex-celana-dalam-pria-boxer-boxer-pria-import-boxer-3802</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/sdrldw-jual-kaos-baju-obral-combed-30s-distro-juventus-emas-gold-bianconeri-juve</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>4gw0j2s</t>
+          <t>4ho93ma</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sorex Bra BH Casual Wanita Beha Big Size Cewek Tanpa Kawat Busa Sedang Cup Besar Sorex 17233 - Barang Kece</t>
+          <t>Kaos Pria Lengan Pendek / Baju Atasan Fashion Kasual Kaos Lengan Pendek Pria</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>37700</v>
+        <v>98000</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24425300692/large/data.png</t>
+          <t>https://s1.bukalapak.com/img/61720254103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5405,19 +5385,19 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4gw0j2s-jual-sorex-bra-bh-casual-wanita-beha-big-size-cewek-tanpa-kawat-busa-sedang-cup-besar-sorex-17233-barang-kece</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ho93ma-jual-kaos-pria-lengan-pendek-baju-atasan-fashion-kasual-kaos-lengan-pendek-pria</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4hkxu3v</t>
+          <t>4hdux7p</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5427,15 +5407,15 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>K269D - (1box isi 2) CELANA DALAM BOXER PRIA SOREX TRENDY SIZE M L XL</t>
+          <t>TOMOINC Tshirt baju kaos band Nirvana Vol 02</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>69360</v>
+        <v>169000</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14155472203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58672460992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5443,19 +5423,19 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hkxu3v-jual-k269d-1box-isi-2-celana-dalam-boxer-pria-sorex-trendy-size-m-l-xl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdux7p-jual-tomoinc-tshirt-baju-kaos-band-nirvana-vol-02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3h0c5hn</t>
+          <t>3xh8dzf</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5465,35 +5445,35 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>K220  CD PRIA SOREX 3008  CELANA DALAM PRIA SOREX</t>
+          <t>KAOS BAJU LENGAN PENDEK REEBOK PRIA WANITA COMBED 30S</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21760</v>
+        <v>85500</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/64264927003/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/75349063003/large/data.png</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/3h0c5hn-jual-k220-cd-pria-sorex-3008-celana-dalam-pria-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3xh8dzf-jual-kaos-baju-lengan-pendek-reebok-pria-wanita-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4hksfi4</t>
+          <t>4hdvr64</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pakaian Dalam</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5503,15 +5483,15 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>J268D ( Isi 2 pcs ) Sorex Celana Dalam Pria Dewasa Boxer Size M L XL</t>
+          <t>TOMOINC Tshirt baju kaos Stranger Things Vol 04</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69360</v>
+        <v>169000</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30375314203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/93285860992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -5519,185 +5499,189 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/pakaian-dalam/4hksfi4-jual-j268d-isi-2-pcs-sorex-celana-dalam-pria-dewasa-boxer-size-m-l-xl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdvr64-jual-tomoinc-tshirt-baju-kaos-stranger-things-vol-04</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>4flg91g</t>
+          <t>408ngpi</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BRA SOREX TANPA KAWAT SUPER SOFT BUSA SETARA CUP B 17238 BH HARIAN</t>
+          <t>kaos original pria baju pria original kaos salur pria baju distro pria</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24900</v>
+        <v>65000</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/69977203192/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58096091782/large/data.jpeg</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4flg91g-jual-bra-sorex-tanpa-kawat-super-soft-busa-setara-cup-b-17238-bh-harian</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408ngpi-jual-kaos-original-pria-baju-pria-original-kaos-salur-pria-baju-distro-pria</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>3oxmekr</t>
+          <t>4hdo7uj</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SM133 BRA SOREX  TANPA KAWAT  BH BRA SOREX 65001 BRA WANITA SOREX</t>
+          <t>Kaos Tshirt Baju t shirt Distro pe hitam polyester polos custom murah</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>40800</v>
+        <v>19500</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/43576767103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/94063220992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3oxmekr-jual-sm133-bra-sorex-tanpa-kawat-bh-bra-sorex-65001-bra-wanita-sorex</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdo7uj-jual-kaos-tshirt-baju-t-shirt-distro-pe-hitam-polyester-polos-custom-murah</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2xs9z9x</t>
+          <t>4g32oma</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>K126 - BRA MENYUSUI SOREX  - BH-BRA MENYUSUI SOREX 8108 - BRA WANITA SOREX MENYUSUI</t>
+          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru WUTZE</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38760</v>
+        <v>44000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71290390003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/19598607292/large/data.jpeg</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2xs9z9x-jual-k126-bra-menyusui-sorex-bh-bra-menyusui-sorex-8108-bra-wanita-sorex-menyusui</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g32oma-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-wutze</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3qvqbqo</t>
+          <t>1gmieec</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SM161 BRA SOREX BUSA ADA KAW1AT BH BRA SOREX 65002  BRA WANITA SOREX CUP SEDANG</t>
+          <t>Kaos TURTLENECK LENGAN PENDEK turtle neck pria baju kerah tinggi korea style</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40800</v>
+        <v>75000</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/86438418103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/9082813448/large/data.png</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3qvqbqo-jual-sm161-bra-sorex-busa-ada-kaw1at-bh-bra-sorex-65002-bra-wanita-sorex-cup-sedang</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1gmieec-jual-kaos-turtleneck-lengan-pendek-turtle-neck-pria-baju-kerah-tinggi-korea-style</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3uq48m3</t>
+          <t>zvwssa</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>J342 BRA BRUKAT BH BUSA PAKAI KAWAT  CUP KECIL 32 - 36 DUA PENGAIT  BRA  SOREX  ART 99066</t>
+          <t>Kaos Baju Obral Combed 30 Distro ZiLDJiAN Murah Musik Music Tshirt</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43180</v>
+        <v>44900</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23179250203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/8194507984/large/Kaos_Baju_Obral_Combed_30_Distro_ZiLDJiAN_Murah_Musik_Music_.jpg</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5705,133 +5689,133 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3uq48m3-jual-j342-bra-brukat-bh-busa-pakai-kawat-cup-kecil-32-36-dua-pengait-bra-sorex-art-99066</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/zvwssa-jual-kaos-baju-obral-combed-30-distro-zildjian-murah-musik-music-tshirt</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2trby2p</t>
+          <t>4dkcndd</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>K112 - CD WANITA SOREX JUMBO  -  CELANA DALAM WANITA JUMBO - CD EXTRA XXXXL</t>
+          <t>Baju Kaos Polos Lengan Pendek BLACK SOLID Hitam Cewek Cowok COTTON COMBED 30S</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25840</v>
+        <v>45000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/03616816003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/33107766892/large/39b4bacd1f6a2b47d924b37a3e0ce31b.jpg</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2trby2p-jual-k112-cd-wanita-sorex-jumbo-celana-dalam-wanita-jumbo-cd-extra-xxxxl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcndd-jual-baju-kaos-polos-lengan-pendek-black-solid-hitam-cewek-cowok-cotton-combed-30s</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>13wtr2p</t>
+          <t>7fahi8</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Celana Dalam Boxer Wanita Seamles Tanpa Jahitan Sorex BA 101</t>
+          <t>Kaos Mercedes Benz /Tshirt baju</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17500</v>
+        <v>103500</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3564795275/large/CelanaDalamSOREXseamlessBA101Short_1_scaledjpg_scaled.jpg</t>
+          <t>https://s3.bukalapak.com/img/8951125601/large/Kaos_Mercedes_Benz__Tshirt_baju.jpg</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/13wtr2p-jual-celana-dalam-boxer-wanita-seamles-tanpa-jahitan-sorex-ba-101</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7fahi8-jual-kaos-mercedes-benz-tshirt-baju</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>3i7vqce</t>
+          <t>4hp1q9y</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>K186 BRA SOREX BUSA TANPA KAWAT  BH-BRA SOREX 17228</t>
+          <t>Kaos Lengan Panjang Mizuno Kirka Text Silver Premium Baju Pria Wanita Premium Kaos</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>32980</v>
+        <v>135000</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/42139180003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92735766103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/3i7vqce-jual-k186-bra-sorex-busa-tanpa-kawat-bh-bra-sorex-17228</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp1q9y-jual-kaos-lengan-panjang-mizuno-kirka-text-silver-premium-baju-pria-wanita-premium-kaos</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>4ec38us</t>
+          <t>d9absd</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5841,91 +5825,91 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>celana dalam wanita sorex kode 3056</t>
+          <t>Kaos Tshirt Baju Combed 30S Distro Save Gaza Palestina Palestine Murah</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22500</v>
+        <v>45500</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/63882340882/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07741511203/large/Kaos_Tshirt_Baju_Combed_30S_Distro_Save_Gaza_Palestina_Pales.jpg</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4ec38us-jual-celana-dalam-wanita-sorex-kode-3056</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/d9absd-jual-kaos-tshirt-baju-combed-30s-distro-save-gaza-palestina-palestine-murah</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>21uaik7</t>
+          <t>4h83cgg</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SOREX bra extra Comfort 9852 Cup besar busa tipis tanpa kawat</t>
+          <t>Kaos Baju FOTO GAMBAR LOGO SABLON FULL WARNA polos custom DTF SATUAN</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37900</v>
+        <v>59500</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28429894562/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/03717598792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/21uaik7-jual-sorex-bra-extra-comfort-9852-cup-besar-busa-tipis-tanpa-kawat</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h83cgg-jual-kaos-baju-foto-gambar-logo-sablon-full-warna-polos-custom-dtf-satuan</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>4cogwcv</t>
+          <t>4hohiqy</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Celana dalam wanita super soft sorex - Extra lembut - Grosir 1238</t>
+          <t>Kaos Tshirt Baju Murah Distro Bismania PO Haryanto ROSALIA INDAH Scania SHD Bus Mania bis BusMania polos custom indonesia pria wanita keren kata lucu</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16500</v>
+        <v>53500</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/13814037382/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71195415103/large/data.png</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -5933,37 +5917,37 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4cogwcv-jual-celana-dalam-wanita-super-soft-sorex-extra-lembut-grosir-1238</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hohiqy-jual-kaos-tshirt-baju-murah-distro-bismania-po-haryanto-rosalia-indah-scania-shd-bus-mania-bis-busmania-polos-custom-indonesia-pria-wanita-keren-kata-lucu</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2v4bobl</t>
+          <t>4ho94vj</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>sorella-official-official</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SOREX 1134 Maternity Underwear CD hamil celana dalam ibu hamil ORI</t>
+          <t>Kaos Pria Kaos Distro Baju Atasan Pria Lengan Pendek Always Casual Distro</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>16500</v>
+        <v>119000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84729105103/large/2020_07_22T10_20_49_07_00.jpeg</t>
+          <t>https://s2.bukalapak.com/img/27682254103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5971,37 +5955,37 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/2v4bobl-jual-sorex-1134-maternity-underwear-cd-hamil-celana-dalam-ibu-hamil-ori</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ho94vj-jual-kaos-pria-kaos-distro-baju-atasan-pria-lengan-pendek-always-casual-distro</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>364e8l2</t>
+          <t>4gucjny</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SOREX STAGEN Korset Pasca Melahirkan 8052 Stagen Pelangsing perut</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER REMAJA PREMIUM</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>65900</v>
+        <v>79800</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/14532213112/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48195186892/large/data.jpeg</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -6009,155 +5993,1933 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/364e8l2-jual-sorex-stagen-korset-pasca-melahirkan-8052-stagen-pelangsing-perut</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gucjny-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-remaja-premium</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>4hh4z9v</t>
+          <t>4gti1as</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>K541 - CELANA PENDEK BUSA  SOREX PINGGUL - BOKONG SIZE M - XXL</t>
+          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER PREMIUM</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>91120</v>
+        <v>79800</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48962005003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/89851896103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4hh4z9v-jual-k541-celana-pendek-busa-sorex-pinggul-bokong-size-m-xxl</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gti1as-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-premium</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>33dy05b</t>
+          <t>4gdj1ed</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Merek Lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Celana Dalam Sorex Seamless Tanpa Jahitam Sorex EA 509</t>
+          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO good Quality</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>19800</v>
+        <v>79800</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/64050619402/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51532896103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/33dy05b-jual-celana-dalam-sorex-seamless-tanpa-jahitam-sorex-ea-509</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdj1ed-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>7rtcoc</t>
+          <t>4gt1idv</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Kaos</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>celana dalam wanita murah sorex 1251</t>
+          <t>KAOS DISTRO VINTAGE TRUCK - BAJU TSHIRT Asli Cotton</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16800</v>
+        <v>54910</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/2048455291/large/celana_dalam_wanita_murah_sorex_1251.jpg</t>
+          <t>https://s4.bukalapak.com/img/45567525103/large/data.png</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/7rtcoc-jual-celana-dalam-wanita-murah-sorex-1251</t>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gt1idv-jual-kaos-distro-vintage-truck-baju-tshirt-asli-cotton</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>4grr7xm</t>
+          <t>4gvjhl4</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pakaian Dalam, Lingerie</t>
+          <t>Baju Muslim Anak</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>J568 BRA BH  SOREX BUSA TANPA KAWAT CUP B KAIT DUA SIZE 34 - 40</t>
+          <t>ASIA Setelan Anak dan Bayi Baju Koko Celana Panjang Kokoh Baby TK SD Kurta Berkualitas MURAH</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>42500</v>
+        <v>47920</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80827438003/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81831247792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/pakaian-dalam-lingerie/4grr7xm-jual-j568-bra-bh-sorex-busa-tanpa-kawat-cup-b-kait-dua-size-34-40</t>
+          <t>https://www.bukalapak.com/p/fashion-anak/busana-muslim/baju-muslim-anak/4gvjhl4-jual-asia-setelan-anak-dan-bayi-baju-koko-celana-panjang-kokoh-baby-tk-sd-kurta-berkualitas-murah</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>4gxos0a</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Busana Muslim Pria</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ASIA Kurta Pakistan bahan Kaos Lengan 3 4 Baju Koko Modern Berkualitas MURAH</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>103920</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/97109491003/large/data.png</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxos0a-jual-asia-kurta-pakistan-bahan-kaos-lengan-3-4-baju-koko-modern-berkualitas-murah</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>4gsir1j</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>KAOS DISTRO CAFE RACER - BAJU  RACING TSHIRT RACER TEES</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>55005</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/69408525103/large/data.png</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gsir1j-jual-kaos-distro-cafe-racer-baju-racing-tshirt-racer-tees</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>crdip4</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Kaos Distro Juragan Muda - Baju Tshirt Unik</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/12282375103/large/Kaos_Distro_Juragan_Muda___Baju_Tshirt_Unik.jpg</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/crdip4-jual-kaos-distro-juragan-muda-baju-tshirt-unik</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>4hmxaw4</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>BAJU KAOS TSHIRT DISTRO FASHION PRIA COWOK LAKI-LAKI DEWASA SKYMOIS BANDUNG PREMIUM BRANDED ORIGINAL TERBARU TERLARIS</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>77350</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/13217721103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>5</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmxaw4-jual-baju-kaos-tshirt-distro-fashion-pria-cowok-laki-laki-dewasa-skymois-bandung-premium-branded-original-terbaru-terlaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>4hs2wr4</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Muslim Anak-Remaja Collection Bordir 6 bulan-12 Tahun</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>65000</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/74719817203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wr4-jual-macbear-baju-anak-remaja-laki-laki-polo-muslim-anak-remaja-collection-bordir-6-bulan-12-tahun</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>4hs2wra</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Authentic Collection M Bear Stripe 6 bulan-12 Tahun</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/37352975203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wra-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-authentic-collection-m-bear-stripe-6-bulan-12-tahun</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>4hs2xpy</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Polo Anak-Remaja Animal Collection Puppy Cute 6 Bulan-12 Tahun</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>55000</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/04129817203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xpy-jual-macbear-baju-anak-remaja-laki-laki-kaos-polo-anak-remaja-animal-collection-puppy-cute-6-bulan-12-tahun</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>4hrfe94</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Kaos Baju BUSMANIA GENGGONG ARYA anak dewasa BUS Bis mania Bismania</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/24881543203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfe94-jual-kaos-baju-busmania-genggong-arya-anak-dewasa-bus-bis-mania-bismania</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>4hg01hj</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kaos distro kaos baju distro premium</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>29999</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/48841394992/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hg01hj-jual-kaos-distro-kaos-baju-distro-premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>4hkg8p7</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Kaos Baju Distro YAMAHA GRAND FILANO polos custom Motor otomotif murah</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>71900</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76541125003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>4</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hkg8p7-jual-kaos-baju-distro-yamaha-grand-filano-polos-custom-motor-otomotif-murah</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>7uarmf</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Kaos - Baju - Tshirt - DC 01</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/35470665892/large/Kaos___Baju___Tshirt___DC_01.jpg</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7uarmf-jual-kaos-baju-tshirt-dc-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>4gtj8r4</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Kaos Baju Distro Binance polos custom Crypto Cryptocurrency kripto cod</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>42900</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/14985876592/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gtj8r4-jual-kaos-baju-distro-binance-polos-custom-crypto-cryptocurrency-kripto-cod</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>4gxl3sd</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Kaos CALIFORNIA WEST COAST - Tshirt Baju Distro Asli Cotton</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>57510</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/88457325103/large/data.png</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>5</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxl3sd-jual-kaos-california-west-coast-tshirt-baju-distro-asli-cotton</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>l5qz0z</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Kaos Distro Seven Baju Tshirt</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/04821375103/large/4.png</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/l5qz0z-jual-kaos-distro-seven-baju-tshirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>mc9lad</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Baju Distro Kaos Satoe Indonesia Tshirt Terbaik</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>53486</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/59895221203/large/data.png</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>5</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/mc9lad-jual-baju-distro-kaos-satoe-indonesia-tshirt-terbaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>nk041b</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Baju Distro Kaos Tshirt Cat Silhouette</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>56990</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/40202025103/large/cat5.png</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>5</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/nk041b-jual-baju-distro-kaos-tshirt-cat-silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2z3y4vu</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>TERMURAH - Baju Kaos Polos Pendek Distro Katun Combed Premium Solid - Unisex Cocok Untuk Pria Dan Wanita</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/65850895842/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2z3y4vu-jual-termurah-baju-kaos-polos-pendek-distro-katun-combed-premium-solid-unisex-cocok-untuk-pria-dan-wanita</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>404qjix</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>kaos profesi baju pengacara have no fear the lawyer is here</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/82488157262/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>5</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/404qjix-jual-kaos-profesi-baju-pengacara-have-no-fear-the-lawyer-is-here</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>4g8pph1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Kaos Baju Distro Casual Pria Wanita Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Cewek Unisex Keren Murah Terlaris BOTOL</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>44000</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/33873664492/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8pph1-jual-kaos-baju-distro-casual-pria-wanita-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-cewek-unisex-keren-murah-terlaris-botol</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>17s5vq8</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Kaos Baju Obral Combed 30S Distro TO BE CONTiNUE Jepang Japan Anime</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>35500</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/11820687103/large/Kaos_Baju_Obral_Combed_30S_Distro_TO_BE_CONTiNUE_Jepang_Japa.jpg</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/17s5vq8-jual-kaos-baju-obral-combed-30s-distro-to-be-continue-jepang-japan-anime</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>32puiqa</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Jersey Baseball - Baju Pria New York Grey Black Premium</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>126650</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/62932442302/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/32puiqa-jual-jersey-baseball-baju-pria-new-york-grey-black-premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>4hlrp57</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Kaos Baju CiTY PARiS FRANCE Perancis Prancis souvenir oleh suvenir cod</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>53900</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/91328758003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>5</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hlrp57-jual-kaos-baju-city-paris-france-perancis-prancis-souvenir-oleh-suvenir-cod</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>4h52xms</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>KaosYES Kaos Polos V-Neck Cotton Combed 24s - TShirt Baju Kaos Distro Pria VNeck</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>28000</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/18918383203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>5</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h52xms-jual-kaosyes-kaos-polos-v-neck-cotton-combed-24s-tshirt-baju-kaos-distro-pria-vneck</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>4hqwn2v</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>BAJU PRIA TERBARU MOTIF DISTRO VANDERS KAOS COWOK MURAH BERKUALITAS</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>65000</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/47232971203/large/data.jpg</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>5</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqwn2v-jual-baju-pria-terbaru-motif-distro-vanders-kaos-cowok-murah-berkualitas</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>23pvwdw</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Kaos Baju Obral Combed 30S Distro LOGO KECiL NASA polos custom Murah</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>49400</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/70841180921/large/2019_08_08T12_38_17_07_00.jpg</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/23pvwdw-jual-kaos-baju-obral-combed-30s-distro-logo-kecil-nasa-polos-custom-murah</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>4hs2kq4</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Kaos Baju BUSMANIA Faqih Sudiro STJ anak dewasa BUS Bis mania Bismania</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>50500</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/88877555203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>5</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs2kq4-jual-kaos-baju-busmania-faqih-sudiro-stj-anak-dewasa-bus-bis-mania-bismania</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2ozgm8i</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Busana Muslim Wanita</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Merek lainnya</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Baju Gamis Syari Wanita Terbaru Nadine Maxy BEST SELLER</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>85000</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/63887134271/large/n.jpg</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/2ozgm8i-jual-baju-gamis-syari-wanita-terbaru-nadine-maxy-best-seller</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>askcdy</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Baju Distro Kaos Tshirt Republic Of Gamers ROG</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>60705</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/53702025103/large/Baju_Distro_Kaos_Tshirt_Republic_Of_Gamers_ROG.jpg</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/askcdy-jual-baju-distro-kaos-tshirt-republic-of-gamers-rog</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>4hmxat4</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>BAJU KAOS TSHIRT DISTRO FASHION PRIA COWOK LAKI-LAKI DEWASA SKYMOIS BANDUNG PREMIUM BRANDED ORIGINAL TERBARU TERLARIS</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>77350</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/27296721103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>5</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmxat4-jual-baju-kaos-tshirt-distro-fashion-pria-cowok-laki-laki-dewasa-skymois-bandung-premium-branded-original-terbaru-terlaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3ffx7cj</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Kaos Distro Indonesia One Tshirt Baju Terbaik</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>55005</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/77175075103/large/data.png</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3ffx7cj-jual-kaos-distro-indonesia-one-tshirt-baju-terbaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>4gcf2ap</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BAJU KAOS TSHIRT T SHIRT DISTRO FASHION PRIA COWOK LAKI LAKI DEWASA GREENLIGHT PREMIUM BRANDED BANDUNG ORIGINAL TERBARU TERLARIS MURAH 2021</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>69350</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/80237473003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gcf2ap-jual-baju-kaos-tshirt-t-shirt-distro-fashion-pria-cowok-laki-laki-dewasa-greenlight-premium-branded-bandung-original-terbaru-terlaris-murah-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ap6h0y</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Baju Kaos Distro Eat Sleep Game</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/82973415103/large/Baju_Kaos_Distro_Eat_Sleep_Game.jpg</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/ap6h0y-jual-baju-kaos-distro-eat-sleep-game</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>4hrfu5j</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Kaos Baju BUSMANIA SJM BATOSAI anak dewasa BUS Bis mania Bismania cod</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/05915843203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>5</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfu5j-jual-kaos-baju-busmania-sjm-batosai-anak-dewasa-bus-bis-mania-bismania-cod</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>4hldjts</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Kaos Baju Distro Doa Ibuku Yang Kuat polos Dakwah Islami Muslim Santri</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>55900</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/34221757003/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>5</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hldjts-jual-kaos-baju-distro-doa-ibuku-yang-kuat-polos-dakwah-islami-muslim-santri</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4hs4vbm</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Kaos TSHIRT Baju My Oshi Freya MEMBER JKT 48 polos Viral Streetwear</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>55500</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/00100775203/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>5</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs4vbm-jual-kaos-tshirt-baju-my-oshi-freya-member-jkt-48-polos-viral-streetwear</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>4dkcogp</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Baju Kaos Polos Oblong Bandung YELLOW BABY Kuning Muda Cewek Cowok Cotton Combed 30s</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>45000</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/52030566892/large/a55e646be0fdcbc4a7ba22c53cf55095.jpg</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcogp-jual-baju-kaos-polos-oblong-bandung-yellow-baby-kuning-muda-cewek-cowok-cotton-combed-30s</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>fpa4dn</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Kaos Tshirt Baju Combed 30S Distro Converse All Star Murah Jersey</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>44900</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/3609954532/large/Kaos_Tshirt_Baju_Combed_30S_Distro_Converse_All_Star_Murah_J.jpg</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fpa4dn-jual-kaos-tshirt-baju-combed-30s-distro-converse-all-star-murah-jersey</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2bkqqdw</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>kaos STRIPES PUTIH Baju distro polos pria shoulder stripe list casual</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/55302975441/large/KAOS_STRIPES_PUTIH.png</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2bkqqdw-jual-kaos-stripes-putih-baju-distro-polos-pria-shoulder-stripe-list-casual</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>d4089u</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>BAJU Kaos Tshirt YAMAHA Nmax Club Indonesia KAOS OTOMOTIF</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/05843074003/large/data.png</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>4</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/d4089u-jual-baju-kaos-tshirt-yamaha-nmax-club-indonesia-kaos-otomotif</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>4h74y4a</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Kaos Baju Distro Pertamina Mandalika Sponsor SAG bumn polos custom cod</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>77900</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://s1.bukalapak.com/img/17628217792/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>5</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h74y4a-jual-kaos-baju-distro-pertamina-mandalika-sponsor-sag-bumn-polos-custom-cod</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>4gpl191</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>BAJU SERAGAM KAOS SATPAM SECURITY PDL LENGAN PANJANG PENEMBAK BANTALAN</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://s0.bukalapak.com/img/52988691592/large/9517007_1c0cb07c_68e3_49bf_9c88_1b5f9f9c6a76_1920_1920.jpg</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>5</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gpl191-jual-baju-seragam-kaos-satpam-security-pdl-lengan-panjang-penembak-bantalan</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>4gt1idv</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>KAOS DISTRO VINTAGE TRUCK - BAJU TSHIRT Asli Cotton</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>54910</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://s4.bukalapak.com/img/45567525103/large/data.png</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gt1idv-jual-kaos-distro-vintage-truck-baju-tshirt-asli-cotton</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>40l1xmu</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Kaos Garis Merah Putih Indonesia Tshirt Baju Distro</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>53486</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/34563165103/large/data.png</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>5</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/40l1xmu-jual-kaos-garis-merah-putih-indonesia-tshirt-baju-distro</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>fqur6l</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>PROMO Kaos Distro Original SimpleStory Baju Tshirt Terbaik</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>66640</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/37828358203/large/data.png</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>5</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fqur6l-jual-promo-kaos-distro-original-simplestory-baju-tshirt-terbaik</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>lw9t9r</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Baju Distro Kaos Sepeda Bike Tshirt</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/73285808203/large/data.png</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>5</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/lw9t9r-jual-baju-distro-kaos-sepeda-bike-tshirt</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>4hp5u01</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Kaos Lengan Panjang  Text Silver Premium Baju Pria Wanita Premium Kaos (Custom)</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>135000</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://s3.bukalapak.com/img/36668967103/large/data.jpeg</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>5</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp5u01-jual-kaos-lengan-panjang-text-silver-premium-baju-pria-wanita-premium-kaos-custom</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>aufek8</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Kaos</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Baju Distro Kaos Tshirt Original Simple Story</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>68850</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://s2.bukalapak.com/img/76168667203/large/data.png</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/aufek8-jual-baju-distro-kaos-tshirt-original-simple-story</t>
         </is>
       </c>
     </row>

--- a/ui_data/bukalapak.xlsx
+++ b/ui_data/bukalapak.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="152" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="114" customWidth="1" min="6" max="6"/>
+    <col width="151" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="112" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="252" customWidth="1" min="8" max="8"/>
+    <col width="239" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,26 +486,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4gxo49j</t>
+          <t>4hqt1z1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ASIA Baju Setelan Wanita Atasan Muslim Set Setelan Busana Muslimah Wanita Rayon Super Premium Jumbo Lebaran Ukuran XXL Berkualitas MURAH</t>
+          <t>IPHONE 15 PRO MAX Magsafe stand Leather Back Case Cover Kulit RMBMAX</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>127415</v>
+        <v>195000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/73874626003/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/50800841203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -513,37 +517,37 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxo49j-jual-asia-baju-setelan-wanita-atasan-muslim-set-setelan-busana-muslimah-wanita-rayon-super-premium-jumbo-lebaran-ukuran-xxl-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqt1z1-jual-iphone-15-pro-max-magsafe-stand-leather-back-case-cover-kulit-rmbmax</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4gxotr4</t>
+          <t>4hqch1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASIA Kaos Lengan 3/4 Atasan Pria Kurta Pakistan bahan Baju Muslim Kekinian Kaos Distro Kaos Raglan Berkualitas MURAH</t>
+          <t>IPHONE 15 PRO MAX Flip Case Caseme 013 Cover Leather Wallet Sarung Dompet</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103920</v>
+        <v>90000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85196491003/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/36424310203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -551,37 +555,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxotr4-jual-asia-kaos-lengan-3-4-atasan-pria-kurta-pakistan-bahan-baju-muslim-kekinian-kaos-distro-kaos-raglan-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqch1p-jual-iphone-15-pro-max-flip-case-caseme-013-cover-leather-wallet-sarung-dompet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4h6axfd</t>
+          <t>4hqt1z1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BAJU KAOS KERAH PRIA LENGAN PANJANG ATASAN SHANGHAI COWOK FELIX PREMIUM</t>
+          <t>IPHONE 15 PRO MAX Magsafe stand Leather Back Case Cover Kulit RMBMAX</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106400</v>
+        <v>195000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30507132103/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/50800841203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -589,37 +593,37 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h6axfd-jual-baju-kaos-kerah-pria-lengan-panjang-atasan-shanghai-cowok-felix-premium</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqt1z1-jual-iphone-15-pro-max-magsafe-stand-leather-back-case-cover-kulit-rmbmax</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4gxotr4</t>
+          <t>4hqch1p</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ASIA Kaos Lengan 3/4 Atasan Pria Kurta Pakistan bahan Baju Muslim Kekinian Kaos Distro Kaos Raglan Berkualitas MURAH</t>
+          <t>IPHONE 15 PRO MAX Flip Case Caseme 013 Cover Leather Wallet Sarung Dompet</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103920</v>
+        <v>90000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85196491003/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/36424310203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,125 +631,133 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxotr4-jual-asia-kaos-lengan-3-4-atasan-pria-kurta-pakistan-bahan-baju-muslim-kekinian-kaos-distro-kaos-raglan-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqch1p-jual-iphone-15-pro-max-flip-case-caseme-013-cover-leather-wallet-sarung-dompet</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4h9uiiv</t>
+          <t>4hq573j</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atasan Kaos Cowok Figo Lengan Panjang Baju Pria Fashion Motif Premium</t>
+          <t>Magsafe Case IPHONE 15 15 Plus 15 Pro max Case Hybrid Dove Black</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>97000</v>
+        <v>45000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65412642892/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80505459103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9uiiv-jual-atasan-kaos-cowok-figo-lengan-panjang-baju-pria-fashion-motif-premium</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq573j-jual-magsafe-case-iphone-15-15-plus-15-pro-max-case-hybrid-dove-black</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4hs2xpv</t>
+          <t>4hqo0qs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Accesories</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MacBee Baju Anak Perempuan Kaos Anak Collection Drink Explorer 6 Bulan-12 Tahun</t>
+          <t>HYDRA iPhone 15 Plus - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50000</v>
+        <v>99000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24937817203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/10384058203/large/fcf16bce_8420_43f3_a739_7f117b48a4bc.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-perempuan/kaos-1378/4hs2xpv-jual-macbee-baju-anak-perempuan-kaos-anak-collection-drink-explorer-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qs-jual-hydra-iphone-15-plus-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4hs2tyd</t>
+          <t>4hqo0qv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Accesories</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Koko Muslim Collection Kurta Addison 2-12 tahun</t>
+          <t>HYDRA iPhone 15 - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65000</v>
+        <v>99000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02548817203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69184058203/large/67ff340c_5a59_4957_8fa8_88e3b2b12719.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2tyd-jual-macbear-baju-anak-remaja-laki-laki-kaos-koko-muslim-collection-kurta-addison-2-12-tahun</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qv-jual-hydra-iphone-15-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4hs2wr7</t>
+          <t>4hqo0r1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,35 +767,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Anak Bayi Kaos Lengan Pendek Pippy Collection Animal Series Newborn-12 bulan</t>
+          <t>HYDRA iPhone 15 Pro Max - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15000</v>
+        <v>189000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/64120955203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/21184058203/large/b983f52b_ef8a_4392_92fb_54a914ebc7ec.jpg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2wr7-jual-little-b-by-macbear-baju-anak-bayi-kaos-lengan-pendek-pippy-collection-animal-series-newborn-12-bulan</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0r1-jual-hydra-iphone-15-pro-max-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4hs2z8m</t>
+          <t>4hp8c71</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -793,15 +805,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - trees</t>
+          <t>Apple Iphone 15 Pro Max 256GB 512GB 1TB Black Blue Natural Titanium - Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15000</v>
+        <v>21854000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29072585203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81166058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -809,71 +821,75 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8m-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-trees</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8c71-jual-apple-iphone-15-pro-max-256gb-512gb-1tb-black-blue-natural-titanium-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4hs2xq1</t>
+          <t>4hp8fgj</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Smartphone</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Spanyol Jerman Swedia Jepang Country Player 6 bulan-12 tahun</t>
+          <t>Apple iPhone 15 Plus -128GB-256GB-512GB- Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>15599000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58708817203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/16456058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xq1-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-spanyol-jerman-swedia-jepang-country-player-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8fgj-jual-apple-iphone-15-plus-128gb-256gb-512gb-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1rd2rva</t>
+          <t>4hrexzy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['GROTIC']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kaos Tshirt Baju Combed 30S Distro Volcom Jersey Futsal Murah Grade</t>
+          <t>GROTIC Tempered Glass iPhone 15 14 13 12 11 X Pro Max Plus Easy App Premium Screen Protector</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38300</v>
+        <v>23500</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/18711715501/large/2019_05_20T08_08_36_07_00.jpg</t>
+          <t>https://s3.bukalapak.com/img/88968143203/large/data.png</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -881,37 +897,33 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1rd2rva-jual-kaos-tshirt-baju-combed-30s-distro-volcom-jersey-futsal-murah-grade</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hrexzy-jual-grotic-tempered-glass-iphone-15-14-13-12-11-x-pro-max-plus-easy-app-premium-screen-protector</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4dcqs4v</t>
+          <t>4hpx1kd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>KAOS T-SHIRT DISTRO PRIA WANITA BAJU ANIME ONE PEACE LUFFY JIKEN MURAH</t>
+          <t>Case Casing iPhone 15 Pro Max / 15 Pro / 15 / 15 Plus Transparan Clear</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44500</v>
+        <v>35000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28460083582/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/63842598103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -919,57 +931,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dcqs4v-jual-kaos-t-shirt-distro-pria-wanita-baju-anime-one-peace-luffy-jiken-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpx1kd-jual-case-casing-iphone-15-pro-max-15-pro-15-15-plus-transparan-clear</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3efg8r3</t>
+          <t>4hqvcia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Grosir Kaos Stripe Pria Wanita Baju Salur Kualitas Terbaik</t>
+          <t>MagSafe Soft Case iPhone 13 14 15 Pro Max Plus Cover Casing Protect</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30000</v>
+        <v>55000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/12382838822/large/2020-06-19T04%3A02%3A25%2B07%3A00.jpeg</t>
+          <t>https://s4.bukalapak.com/img/41150861203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3efg8r3-jual-grosir-kaos-stripe-pria-wanita-baju-salur-kualitas-terbaik</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqvcia-jual-magsafe-soft-case-iphone-13-14-15-pro-max-plus-cover-casing-protect</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4hgm544</t>
+          <t>4hpf87s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -979,167 +987,167 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kaos Tshirt Baju Distro PUTiH 20s pendek polos custom oblong murah cod</t>
+          <t>Iphone 15 Pro Max Plus Aluminium Ring Anti Gores Pelindung Kamera</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22500</v>
+        <v>69650</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84797516992/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17294367103/large/92184481_8c74_4199_bb0b_740f497b7fa9.jpg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hgm544-jual-kaos-tshirt-baju-distro-putih-20s-pendek-polos-custom-oblong-murah-cod</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hpf87s-jual-iphone-15-pro-max-plus-aluminium-ring-anti-gores-pelindung-kamera</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4gnujky</t>
+          <t>4hphipm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HARGA RESELLER Kaos Polos Cotton Katun Lengan Pendek TSHIRT Distro Baju Pria Wanita Cowok Cewek Perempuan Oblong Adem Katun Lengan Pendek Fit</t>
+          <t>Gennext Superfit Tempered Glass Dust iPhone 15 15PLUS 15PRO 15PROMAX PRO  MAX  PLUS  PROMAX FULL SCREEN</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14500</v>
+        <v>99900</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/84767981203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/68404287103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gnujky-jual-harga-reseller-kaos-polos-cotton-katun-lengan-pendek-tshirt-distro-baju-pria-wanita-cowok-cewek-perempuan-oblong-adem-katun-lengan-pendek-fit</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hphipm-jual-gennext-superfit-tempered-glass-dust-iphone-15-15plus-15pro-15promax-pro-max-plus-promax-full-screen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4h9usup</t>
+          <t>4hq4nnp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>msvii</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>KAOS BAJU LENGAN PANJANG FASHION REEBOK PRIA WANITA COMBED 30 S</t>
+          <t>MSVII iPhone 15 - Plus - Pro - Pro Max - Borderless Frosted Slim Case</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>107000</v>
+        <v>109200</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/41770842892/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92581059103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9usup-jual-kaos-baju-lengan-panjang-fashion-reebok-pria-wanita-combed-30-s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq4nnp-jual-msvii-iphone-15-plus-pro-pro-max-borderless-frosted-slim-case</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3i1wo6w</t>
+          <t>4hquyfs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merk Lain</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>KAOS SIRO-BODY-UAA BAJU RUNNING GYM OLAHRAGA FITNESS TRAINING PRIA VCNR</t>
+          <t>CASE CASING HANPHONE SOFTCASE ONE PIECE LUFY GEAR 5 FOR IPHONE 7 8 7plus 8plus X XS XR 11 12 13 14 15 PRO MAX</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100000</v>
+        <v>31410</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/80599267632/large/KAOS_SIRO_BODY_UAA_BAJU_RUNNING_GYM_OLAHRAGA_FITNESS_TRAININ.png</t>
+          <t>https://s3.bukalapak.com/img/32321561203/large/id_11134207_7r992_lp4iufsj9doua3.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3i1wo6w-jual-kaos-siro-body-uaa-baju-running-gym-olahraga-fitness-training-pria-vcnr</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hquyfs-jual-case-casing-hanphone-softcase-one-piece-lufy-gear-5-for-iphone-7-8-7plus-8plus-x-xs-xr-11-12-13-14-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4hcxrqj</t>
+          <t>4hp6evv</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Baju Kaos Stelan Pria Setelan Nasamoon Cowok Atasan Celpen Santa</t>
+          <t>Original Hybrid Hard Soft Case Clear Magsafe Tpu Back Acrylic Cover iPhone 15 Pro Casing Premium Ultra Thin Slim Transparan Ori</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>131000</v>
+        <v>217000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/32363688892/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80532996103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1147,19 +1155,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxrqj-jual-baju-kaos-stelan-pria-setelan-nasamoon-cowok-atasan-celpen-santa</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp6evv-jual-original-hybrid-hard-soft-case-clear-magsafe-tpu-back-acrylic-cover-iphone-15-pro-casing-premium-ultra-thin-slim-transparan-ori</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4hqcn9m</t>
+          <t>4hpcdu1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1169,35 +1177,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>KAOS BAJU LENGAN PANJANG HARLEY DAVIDSON CLASSIC PRIA COMBED 30</t>
+          <t>Original Sulada Leather Tide Cool Series Hard Soft Case iPhone 15 Pro Max 15 Pro Cover Casing Strap Standing Hand Grip Ultra Thin Slim Protection</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>85000</v>
+        <v>239000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/68925410203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71528937103/large/3fbfd393_2aa7_495d_926f_4ea5e09e6e2e.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqcn9m-jual-kaos-baju-lengan-panjang-harley-davidson-classic-pria-combed-30</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpcdu1-jual-original-sulada-leather-tide-cool-series-hard-soft-case-iphone-15-pro-max-15-pro-cover-casing-strap-standing-hand-grip-ultra-thin-slim-protection</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4hcxsoa</t>
+          <t>4hpemq4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1207,15 +1215,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Baju Atasan Kaos Pria Tshirt Cowok Lengan Pendek Motif Dark Premium</t>
+          <t>Original Soft Case Tpu Jelly Leather Genuine Cover Casing iPhone 15 15 Plus 15 Pro 15 Pro Max Softcase Snapgard Ultra Slim Protection Suport Wireless</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>86000</v>
+        <v>255000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/13290159103/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02775957103/large/20230923023007be0c45be74aa62b314bed2e908982a9a.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1223,37 +1231,37 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxsoa-jual-baju-atasan-kaos-pria-tshirt-cowok-lengan-pendek-motif-dark-premium</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpemq4-jual-original-soft-case-tpu-jelly-leather-genuine-cover-casing-iphone-15-15-plus-15-pro-15-pro-max-softcase-snapgard-ultra-slim-protection-suport-wireless</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4h7r14v</t>
+          <t>4hr2ocg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Kabel Data</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Baju kaos murah unik khas bali</t>
+          <t>Baseus Kabel Roll 100W Type C to C Support iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20500</v>
+        <v>99000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/76982428792/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51686132203/large/data.jpg</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1261,75 +1269,71 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h7r14v-jual-baju-kaos-murah-unik-khas-bali</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/kabel-data/4hr2ocg-jual-baseus-kabel-roll-100w-type-c-to-c-support-iphone-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2il9xxz</t>
+          <t>4hrr1qp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>KAOS PRIA XXXL BAJU BIG SIZE JUMBO OBLONG BESAR</t>
+          <t>Backdoor Back Case Cover Plus Ring Kamera Iphone 15 Pro</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>45000</v>
+        <v>170000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/23873726203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48059354203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2il9xxz-jual-kaos-pria-xxxl-baju-big-size-jumbo-oblong-besar</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrr1qp-jual-backdoor-back-case-cover-plus-ring-kamera-iphone-15-pro</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4gj7q6j</t>
+          <t>4hq573j</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>KAOS 3SECOND - KAOS THREESECOND - KAOS PENDEK PRIA 3SECOND - KAOS BAND 3 SECOND - BAJU DISTRO 3SECOND - KAOS COMBED 30S - KAOS DISTRO PRIA</t>
+          <t>Magsafe Case IPHONE 15 15 Plus 15 Pro max Case Hybrid Dove Black</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/15913926592/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80505459103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1337,113 +1341,113 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gj7q6j-jual-kaos-3second-kaos-threesecond-kaos-pendek-pria-3second-kaos-band-3-second-baju-distro-3second-kaos-combed-30s-kaos-distro-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq573j-jual-magsafe-case-iphone-15-15-plus-15-pro-max-case-hybrid-dove-black</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4fqpqom</t>
+          <t>4hpyhz7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Kabel Data</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki seperti Ori Original Keren Murah Terlaris Unisex</t>
+          <t>Baseus Cable iPhone 15 Pro Max 100W LED Digital Display</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>44000</v>
+        <v>99000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/82539664492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29195810203/large/data.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fqpqom-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-seperti-ori-original-keren-murah-terlaris-unisex</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/kabel-data/4hpyhz7-jual-baseus-cable-iphone-15-pro-max-100w-led-digital-display</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4b301k7</t>
+          <t>4hqhyfp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Charger</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HD O-neck kaos polos pria kaos polos PE O-neck baju distro pria kaos pria</t>
+          <t>Ugreen Charger iPhone 15 Pro Max 30W Gan Nexode Fast Charging</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>17500</v>
+        <v>169000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/35325723082/large/21d3885ff7582943d706270e778491ac.jpg</t>
+          <t>https://s2.bukalapak.com/img/23145650203/large/data.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4b301k7-jual-hd-o-neck-kaos-polos-pria-kaos-polos-pe-o-neck-baju-distro-pria-kaos-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/charger-177/4hqhyfp-jual-ugreen-charger-iphone-15-pro-max-30w-gan-nexode-fast-charging</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4hj4ay7</t>
+          <t>4hrzpl7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Charger</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merek Lainnya</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru AMPM</t>
+          <t>Ugreen 35W Nexode Charger PD Fast Charging iPhone 15 Pro Max USB+C</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44000</v>
+        <v>190000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02540281003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/11731925203/large/data.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1451,19 +1455,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hj4ay7-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-ampm</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/charger-177/4hrzpl7-jual-ugreen-35w-nexode-charger-pd-fast-charging-iphone-15-pro-max-usb-c</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4g8rpq1</t>
+          <t>4hppzqy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1473,73 +1477,73 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru JAPAN</t>
+          <t>PELINDUNG HP IPHONE 15 PRO MAX HYDROGEL PRIVACY ANTI SPY SCREEN GUARD NO PEEP GLASS</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>44000</v>
+        <v>75000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/99010954492/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69925248103/large/data.png</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8rpq1-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-japan</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hppzqy-jual-pelindung-hp-iphone-15-pro-max-hydrogel-privacy-anti-spy-screen-guard-no-peep-glass</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4frbn3y</t>
+          <t>4hqtvqa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['GENNEXT']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Casual Pria Wanita Polos Hitam Putih Cotton Combed Lengan Pendek untuk Unisex Cowok Cewek Keren Murah Terlaris</t>
+          <t>Tempered Glass Iphone 15 15PLUS 15PRO 15PROMAX PROMAX PRO MAX PLUS FULL CLEAR GUARD PROTECTOR</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/42096664492/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46535651203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4frbn3y-jual-kaos-baju-distro-casual-pria-wanita-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-unisex-cowok-cewek-keren-murah-terlaris</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hqtvqa-jual-tempered-glass-iphone-15-15plus-15pro-15promax-promax-pro-max-plus-full-clear-guard-protector</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4g8qoxj</t>
+          <t>gc251w</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Aksesoris Lainnya</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1549,15 +1553,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru ONE PIECE</t>
+          <t>KABEL USB C 3.1 TO LIGHTNING 1 meter CABLE ORGINAL APPLE BNIB IPHONE X IPAD NEW PRO NEW MACBOOK PRO 12 13 15 TOUCH BAR OR NON 1m 1 m</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44000</v>
+        <v>310000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/78727954492/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/8527589342/large/2MLIGHTNINGTOUSBCAPPLEBNIBKABELDATACHARGERIPHONE7766S_2_scal.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1565,57 +1569,53 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8qoxj-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-one-piece</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/aksesoris-lainnya-2645/gc251w-jual-kabel-usb-c-3-1-to-lightning-1-meter-cable-orginal-apple-bnib-iphone-x-ipad-new-pro-new-macbook-pro-12-13-15-touch-bar-or-non-1m-1-m</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4hqu0j4</t>
+          <t>4hmmk4s</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kaos Baju BUSMANIA WINSPECTOR anak dewasa BUS Bis mania Bismania cod</t>
+          <t>SPIGEN NEO CRYSTAL Case iphone 11 12 PRO 13 PRO MAX 14 PLUS 14 PRO MAX 15 PLUS 15 PRO MAX</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>60500</v>
+        <v>29000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/74317751203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/94523744203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqu0j4-jual-kaos-baju-busmania-winspector-anak-dewasa-bus-bis-mania-bismania-cod</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hmmk4s-jual-spigen-neo-crystal-case-iphone-11-12-pro-13-pro-max-14-plus-14-pro-max-15-plus-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4hhmvkp</t>
+          <t>4hpxxm7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1625,15 +1625,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>KAOS BAJU AIR JORDAN 23 PRIA WANITA COMBED 30S KAOS BASKETBALL</t>
+          <t>Original CaseMe Flipcase Leather Cover Wallet Slot Card Dompet Flip Case iPhone 15 Pro - 15 Pro Max Casing Kulit Asli Premium full Protection Hp</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>99000</v>
+        <v>329000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26719238992/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91760109103/large/dd4bff6c_9cbe_4f83_bb77_26c79844157d.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1641,19 +1641,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hhmvkp-jual-kaos-baju-air-jordan-23-pria-wanita-combed-30s-kaos-basketball</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpxxm7-jual-original-caseme-flipcase-leather-cover-wallet-slot-card-dompet-flip-case-iphone-15-pro-15-pro-max-casing-kulit-asli-premium-full-protection-hp</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4hcxrzs</t>
+          <t>4hqw1rp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1663,15 +1663,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Baju Oblong Trendy Cowok Atasan Kaos Pria Lengan Pendek Kasual</t>
+          <t>Original Getgard Magnetic Leather Case Cover Casing MagSafe iPhone 15 Pro Max Plus Slim Fit Protection Anti Slip Full Protection Premium Ori Asli</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>90000</v>
+        <v>320000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/28761017203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/00458471203/large/202312140114209c8943b5733d56f6c91f18fcd5da65d7.jpg</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1679,19 +1679,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hcxrzs-jual-baju-oblong-trendy-cowok-atasan-kaos-pria-lengan-pendek-kasual</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqw1rp-jual-original-getgard-magnetic-leather-case-cover-casing-magsafe-iphone-15-pro-max-plus-slim-fit-protection-anti-slip-full-protection-premium-ori-asli</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4hqcn6g</t>
+          <t>4hrgxsv</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1701,15 +1701,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>KAOS BAJU TSHIRT HARLEY DAVIDSON CLASSIC PRIA COMBED 30S</t>
+          <t>Original Magsafe Soft Case iPhone 15 Pro Max Plus Standing Casing Cover Ultra Thin Slim Premium</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>81000</v>
+        <v>195000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58605410203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58002953203/large/37609ad0_7610_45f3_87b3_c24e55b1cc74.png</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1717,19 +1717,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqcn6g-jual-kaos-baju-tshirt-harley-davidson-classic-pria-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrgxsv-jual-original-magsafe-soft-case-iphone-15-pro-max-plus-standing-casing-cover-ultra-thin-slim-premium</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4hqo7d1</t>
+          <t>4hq21xd</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1739,15 +1739,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>baju smith original barcode</t>
+          <t>Hydrogel Anti Spy iPhone 15 Pro Max Plus Anti Gores Full Layar Cover Original</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/68094392203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80876139103/large/f39a029f_2c1c_4e18_aacd_a864ea0b046e.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1755,33 +1755,37 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqo7d1-jual-baju-smith-original-barcode</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq21xd-jual-hydrogel-anti-spy-iphone-15-pro-max-plus-anti-gores-full-layar-cover-original</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4hqvho7</t>
+          <t>4hqo2pd</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Baju Gamis Wanita Jumbo Ukuran L s/d 4XL Maxmara Lux Halus Adem</t>
+          <t>Original Soft Case iPhone 11 12 13 14 15 Pro Max Hologram Plain Cover casing</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>231920</v>
+        <v>80000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/87300071203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29472401203/large/4a5f8de3_ed06_4b10_9691_1c14dc632854.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1789,19 +1793,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4hqvho7-jual-baju-gamis-wanita-jumbo-ukuran-l-s-d-4xl-maxmara-lux-halus-adem</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqo2pd-jual-original-soft-case-iphone-11-12-13-14-15-pro-max-hologram-plain-cover-casing</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7uenst</t>
+          <t>4hpay27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1811,73 +1815,73 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kaos - Tshirt - Baju - Hurley 01</t>
+          <t>Casing Iphone 15 Pro Max 15 Pro 15 Plus 15 Case Aimo Magsafe Ducis</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>105000</v>
+        <v>199000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92834622892/large/Kaos___Tshirt___Baju___Hurley_01.jpg</t>
+          <t>https://s3.bukalapak.com/img/31944927103/large/fdd50060_0018_45a1_b075_ccbbaa939a4d.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7uenst-jual-kaos-tshirt-baju-hurley-01</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpay27-jual-casing-iphone-15-pro-max-15-pro-15-plus-15-case-aimo-magsafe-ducis</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4gxxp5j</t>
+          <t>4hq0itm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kaos Oblong Biru Navy Pria Baju Laki-Laki Brown Agree T-Shirt Men F36</t>
+          <t>Hard Case iPhone 15 Pro 15Pro Original CaseMe Casing Book Cover Flip Leather Sarung Card Slot Wallet Tas Dompet Hp Ori Flipcase Premium</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30690</v>
+        <v>239000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/05363552692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/03717819103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxxp5j-jual-kaos-oblong-biru-navy-pria-baju-laki-laki-brown-agree-t-shirt-men-f36</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq0itm-jual-hard-case-iphone-15-pro-15pro-original-caseme-casing-book-cover-flip-leather-sarung-card-slot-wallet-tas-dompet-hp-ori-flipcase-premium</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7ub909</t>
+          <t>4grugta</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Spare Part &amp; Tools Handphone</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1887,73 +1891,73 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kaos - Baju - Tshirt Adidas 03</t>
+          <t>Rsim 15 unlock iPhone SU iOS 13.X gevey pro V13</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61899603892/large/Kaos___Baju___Tshirt_Adidas_03.jpg</t>
+          <t>https://s3.bukalapak.com/img/32428674592/large/86080_563b27e7_8650_4eaa_b2e4_dfda867f0693_1080_1080.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7ub909-jual-kaos-baju-tshirt-adidas-03</t>
+          <t>https://www.bukalapak.com/p/handphone/spare-part-tools-handphone/4grugta-jual-rsim-15-unlock-iphone-su-ios-13-x-gevey-pro-v13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4fra8om</t>
+          <t>t7vtkl</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Aksesoris Lainnya</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tidak ada</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Casual Pria Wanita Vespa Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Cewek Unisex Keren Murah Terlaris</t>
+          <t>RSIM Sup Supreme IPhone XS XR MAX 5 5S 5SE 5C 6 6 6S 6S SE 7 IOS 8 9 10 11 12 13 14 15 X Pro Plus Heicard XSIM Unlock Lock Carrier SIM Plus</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44000</v>
+        <v>199000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/83118664492/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/46488911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fra8om-jual-kaos-baju-distro-casual-pria-wanita-vespa-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-cewek-unisex-keren-murah-terlaris</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/aksesoris-lainnya-2645/t7vtkl-jual-rsim-sup-supreme-iphone-xs-xr-max-5-5s-5se-5c-6-6-6s-6s-se-7-ios-8-9-10-11-12-13-14-15-x-pro-plus-heicard-xsim-unlock-lock-carrier-sim-plus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4hs7oiv</t>
+          <t>4hrhbbs</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Charger</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1963,15 +1967,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Baju Kaos Avenged Sevenfold A7X Konser Concert T-Shirt With The Used The Only Stop In Asia Jakarta Indonesia 2024 OTDK001B</t>
+          <t>Power Adapter Charger Apple Iphone 11/12/13/14/15 Pro Max 20W Original</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>95000</v>
+        <v>379000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62855306203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60183263203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1979,189 +1983,181 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs7oiv-jual-baju-kaos-avenged-sevenfold-a7x-konser-concert-t-shirt-with-the-used-the-only-stop-in-asia-jakarta-indonesia-2024-otdk001b</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/charger-177/4hrhbbs-jual-power-adapter-charger-apple-iphone-11-12-13-14-15-pro-max-20w-original</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4hr5ke7</t>
+          <t>9g2ztv</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Aksesoris Lainnya</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kaos Baju BUSMANIA JETBUS SHD TAKUMI KIDS PANDA BUS Bis mania Bismania</t>
+          <t>Goguo V20 IPhone 4S 5 5S 5SE 5C 6 6 6S 6S SE 7 IOS 7 8 9 10 11 12 13 14 15 X Pro Plus RSIM R-SIM R SIM Heicard XSIM Unlock Lock Carrier</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>60500</v>
+        <v>199000</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/53952452203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/18288911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr5ke7-jual-kaos-baju-busmania-jetbus-shd-takumi-kids-panda-bus-bis-mania-bismania</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/aksesoris-lainnya-2645/9g2ztv-jual-goguo-v20-iphone-4s-5-5s-5se-5c-6-6-6s-6s-se-7-ios-7-8-9-10-11-12-13-14-15-x-pro-plus-rsim-r-sim-r-sim-heicard-xsim-unlock-lock-carrier</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dbs8dl</t>
+          <t>4hmndzg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tambahan Biaya Untuk Baju Combed 30s Lengan Pendek Ke Lengan Panjang</t>
+          <t>SPIGEN NEO CRYSTAL Case iphone 11 12 13 PRO MAX 14 PLUS 14 PRO MAX 15 PLUS 15 PRO MAX</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9900</v>
+        <v>29000</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/8981077402/large/Tambahan_Biaya_Untuk_Baju_Combed_30s_Lengan_Pendek_Ke_Lengan.jpg</t>
+          <t>https://s3.bukalapak.com/img/89542488103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/dbs8dl-jual-tambahan-biaya-untuk-baju-combed-30s-lengan-pendek-ke-lengan-panjang</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hmndzg-jual-spigen-neo-crystal-case-iphone-11-12-13-pro-max-14-plus-14-pro-max-15-plus-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3t143qz</t>
+          <t>4hqt1z1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Baju kaos pria dewasa cowok keren fashion pria APEW. M L XL premium Lengan panjang kombinasi motif</t>
+          <t>IPHONE 15 PRO MAX Magsafe stand Leather Back Case Cover Kulit RMBMAX</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>79180</v>
+        <v>195000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/32950408492/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/50800841203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3t143qz-jual-baju-kaos-pria-dewasa-cowok-keren-fashion-pria-apew-m-l-xl-premium-lengan-panjang-kombinasi-motif</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqt1z1-jual-iphone-15-pro-max-magsafe-stand-leather-back-case-cover-kulit-rmbmax</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4h5id4m</t>
+          <t>8cs7hy</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Aksesoris Lainnya</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>rsim</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kaos Baju Synyster Gates Logo Avenged Sevenfold Band Musik Rock - GILAN</t>
+          <t>RSIM 11 Plus iPhone 4S 5 5S 5SE 5C 6 6 6S 6S SE 7 iOS 7 8 9 10 11 12 13 14 15 X Pro Plus Heicard XSIM Unlock Lock Carrier SIM Softbank AU Docomo</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>79999</v>
+        <v>199000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/21316279003/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/57678911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h5id4m-jual-kaos-baju-synyster-gates-logo-avenged-sevenfold-band-musik-rock-gilan</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/aksesoris-lainnya-2645/8cs7hy-jual-rsim-11-plus-iphone-4s-5-5s-5se-5c-6-6-6s-6s-se-7-ios-7-8-9-10-11-12-13-14-15-x-pro-plus-heicard-xsim-unlock-lock-carrier-sim-softbank-au-docomo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4fpecdm</t>
+          <t>cohqdr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Aksesoris Lainnya</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>rsim</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>COD Kaos Tshirt Baju Obral Murah Polyester 20S MOTIF Distro Grosir Pria Wanita unisex bandung anak dewasa oblong Polos custom indonesia keren olahraga</t>
+          <t>RSIM 12 IPhone 4S 5 5S 5SE 5C 6 6 6S 6S SE 7 IOS 7 8 9 10 11 12 13 14 15 X Pro Plus Heicard XSIM Unlock Lock Carrier SIM Softbank AU Docomo Plus</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17500</v>
+        <v>199000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/55155114103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/32388911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2169,33 +2165,37 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fpecdm-jual-cod-kaos-tshirt-baju-obral-murah-polyester-20s-motif-distro-grosir-pria-wanita-unisex-bandung-anak-dewasa-oblong-polos-custom-indonesia-keren-olahraga</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/aksesoris-lainnya-2645/cohqdr-jual-rsim-12-iphone-4s-5-5s-5se-5c-6-6-6s-6s-se-7-ios-7-8-9-10-11-12-13-14-15-x-pro-plus-heicard-xsim-unlock-lock-carrier-sim-softbank-au-docomo-plus</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4hqv7qs</t>
+          <t>4hq226y</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Screen Guard</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Baju Gamis Wanita Ukuran Jumbo Ukuran L s/d 4XL</t>
+          <t>Ring Camera iPhone 15 Pro Max Plus Metal Lens Protector Anti Gores Original</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>207920</v>
+        <v>85000</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39921761203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58517139103/large/312bc935_b016_4105_bd74_72b177b67cd9.jpg</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2203,33 +2203,37 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4hqv7qs-jual-baju-gamis-wanita-ukuran-jumbo-ukuran-l-s-d-4xl</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq226y-jual-ring-camera-iphone-15-pro-max-plus-metal-lens-protector-anti-gores-original</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4gxo49j</t>
+          <t>4hqv00m</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ASIA Baju Setelan Wanita Atasan Muslim Set Setelan Busana Muslimah Wanita Rayon Super Premium Jumbo Lebaran Ukuran XXL Berkualitas MURAH</t>
+          <t>Case iPhone 15 Pro Max 15 Pro CaseMe 023 Wallet Leather Flip Cover Original</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>127415</v>
+        <v>329000</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/73874626003/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/54395561203/large/8166962d_557f_4704_8a42_4592993f041d.jpg</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2237,33 +2241,37 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxo49j-jual-asia-baju-setelan-wanita-atasan-muslim-set-setelan-busana-muslimah-wanita-rayon-super-premium-jumbo-lebaran-ukuran-xxl-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqv00m-jual-case-iphone-15-pro-max-15-pro-caseme-023-wallet-leather-flip-cover-original</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4gxm2sp</t>
+          <t>4hrgxsv</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ASIA Lena Long Tunik Blouse Tunik Muslim Baju Atasan Wanita Dress Panjang Berkualitas MURAH</t>
+          <t>Original Magsafe Soft Case iPhone 15 Pro Max Plus Standing Casing Cover Ultra Thin Slim Premium</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>71920</v>
+        <v>195000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39695115103/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58002953203/large/37609ad0_7610_45f3_87b3_c24e55b1cc74.png</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2271,33 +2279,37 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm2sp-jual-asia-lena-long-tunik-blouse-tunik-muslim-baju-atasan-wanita-dress-panjang-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrgxsv-jual-original-magsafe-soft-case-iphone-15-pro-max-plus-standing-casing-cover-ultra-thin-slim-premium</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4gxm5lm</t>
+          <t>4hq21xd</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Screen Guard</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ASIA Blouse Wanita Lengan Panjang Baju Wanita Atasan Blouse NAGITA Berkualitas MURAH</t>
+          <t>Hydrogel Anti Spy iPhone 15 Pro Max Plus Anti Gores Full Layar Cover Original</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>94900</v>
+        <v>110000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30994343692/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80876139103/large/f39a029f_2c1c_4e18_aacd_a864ea0b046e.jpg</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2305,33 +2317,37 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm5lm-jual-asia-blouse-wanita-lengan-panjang-baju-wanita-atasan-blouse-nagita-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq21xd-jual-hydrogel-anti-spy-iphone-15-pro-max-plus-anti-gores-full-layar-cover-original</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4gxm3kp</t>
+          <t>4hp8e0v</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Smartphone</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ASIA Baju Tunik Muslimah Tunik Jumbo Kekinian Baju Atasan Wanita Alma Tunik Berkualitas MURAH</t>
+          <t>Apple Iphone 15 Pro 128GB 256GB 512GB 1TB Black Blue Natural Titanium - Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>119900</v>
+        <v>17999000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/60979112692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58666058203/large/data.png</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2339,19 +2355,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm3kp-jual-asia-baju-tunik-muslimah-tunik-jumbo-kekinian-baju-atasan-wanita-alma-tunik-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8e0v-jual-apple-iphone-15-pro-128gb-256gb-512gb-1tb-black-blue-natural-titanium-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4gxoozg</t>
+          <t>4hqo0qy</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Busana Muslim Pria</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2361,35 +2377,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ASIA Kurta Pakistan bahan Kaos Lengan 3 4 Baju Koko Terlaris Berkualitas MURAH</t>
+          <t>HYDRA iPhone 15 Pro - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103920</v>
+        <v>99000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/64951591003/large/data.png</t>
+          <t>https://s4.bukalapak.com/img/91384058203/large/e36114c2_f156_4ffc_bfcc_b1c0264f2fa7.jpg</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxoozg-jual-asia-kurta-pakistan-bahan-kaos-lengan-3-4-baju-koko-terlaris-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qy-jual-hydra-iphone-15-pro-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4gxpctj</t>
+          <t>4hp8drv</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Busana Muslim Pria</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2399,15 +2415,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ASIA Baju koko Lengan Panjang Dewasa Kumpulan Baju Koko Dewasa Berkualitas MURAH</t>
+          <t>Apple iPhone 15-128GB-256GB-512GB- Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>159920</v>
+        <v>13619000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27365129992/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/03856058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2415,33 +2431,37 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxpctj-jual-asia-baju-koko-lengan-panjang-dewasa-kumpulan-baju-koko-dewasa-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8drv-jual-apple-iphone-15-128gb-256gb-512gb-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4h66zed</t>
+          <t>4hqch1p</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Baju Wanita Pakaian Wanita Stelan Tunik Dan Celana Panjang - Ezra</t>
+          <t>IPHONE 15 PRO MAX Flip Case Caseme 013 Cover Leather Wallet Sarung Dompet</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>114000</v>
+        <v>90000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67600735792/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/36424310203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2449,71 +2469,75 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4h66zed-jual-baju-wanita-pakaian-wanita-stelan-tunik-dan-celana-panjang-ezra</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqch1p-jual-iphone-15-pro-max-flip-case-caseme-013-cover-leather-wallet-sarung-dompet</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1op9i4y</t>
+          <t>4hri3ha</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Hijabenka</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tj 60417 Baju atasan terbaru wanita muslim murah terlaris</t>
+          <t>C142 Iphone 15 / 15 Plus / 15 Pro Max Matte Case UltraThin + Lens</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>158600</v>
+        <v>10000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/06762745792/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/44733173203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/1op9i4y-jual-tj-60417-baju-atasan-terbaru-wanita-muslim-murah-terlaris</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hri3ha-jual-c142-iphone-15-15-plus-15-pro-max-matte-case-ultrathin-lens</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>37rfxj9</t>
+          <t>4hni6cs</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Baju Gamis Baju Muslim Pakaian Syari REPETAN KID SYARI KAYLA KID 5 WARNA BEST SELLER</t>
+          <t>Case IPHONE 14 - 15 Pro Max Plus Sling Lanyard 3 in 1 Clear Colorfull List</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>182300</v>
+        <v>39500</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/63024246412/large/Baju_Gamis_Baju_Muslim_Pakaian_Syari_REPETAN_KID_SYARI_KAYLA.png</t>
+          <t>https://s4.bukalapak.com/img/41046875203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2521,53 +2545,57 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/37rfxj9-jual-baju-gamis-baju-muslim-pakaian-syari-repetan-kid-syari-kayla-kid-5-warna-best-seller</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hni6cs-jual-case-iphone-14-15-pro-max-plus-sling-lanyard-3-in-1-clear-colorfull-list</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4hs2xq1</t>
+          <t>4hrhls1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Lainnya</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Spanyol Jerman Swedia Jepang Country Player 6 bulan-12 tahun</t>
+          <t>New! Case Suitable For IPHONE 14 - 15 PRO MAX PLUS Power Puff Girls</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65000</v>
+        <v>38900</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58708817203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91956563203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xq1-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-spanyol-jerman-swedia-jepang-country-player-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrhls1-jual-new-case-suitable-for-iphone-14-15-pro-max-plus-power-puff-girls</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4hs2z84</t>
+          <t>2fz01fd</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Spare Part &amp; Tools Handphone</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2577,15 +2605,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - bears</t>
+          <t>RSIM 16 Plus R SIM IPHONE 13 Pro Max 12 11 XS XR X 8 6S IOS 15 16 17 18 Gevey XSIM Heicard</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>15000</v>
+        <v>199000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/99872585203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58398911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2593,125 +2621,133 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z84-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-bears</t>
+          <t>https://www.bukalapak.com/p/handphone/spare-part-tools-handphone/2fz01fd-jual-rsim-16-plus-r-sim-iphone-13-pro-max-12-11-xs-xr-x-8-6s-ios-15-16-17-18-gevey-xsim-heicard</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4hs2xpp</t>
+          <t>48v52si</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Spare Part &amp; Tools Handphone</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Sport Collection Jersey Anak-Remaja Brazil Inggris Indonesia Country Player 6 bulan-12 tahun</t>
+          <t>RSIM 15 Plus R SIM R-SIM iPhone 12 Pro Max 6S 7 8 X XR XS iOS 14 15 16 17 18 19 20 Heicard XSIM Unlock Lock Carrier SIM SU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>65000</v>
+        <v>199000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46039817203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/23598911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xpp-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-sport-collection-jersey-anak-remaja-brazil-inggris-indonesia-country-player-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/handphone/spare-part-tools-handphone/48v52si-jual-rsim-15-plus-r-sim-r-sim-iphone-12-pro-max-6s-7-8-x-xr-xs-ios-14-15-16-17-18-19-20-heicard-xsim-unlock-lock-carrier-sim-su</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4hs2z87</t>
+          <t>4hqc2rj</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - animals</t>
+          <t>Iphone 15 Plus Pro Max Matte Antiglare Shock Ceramic FlexGlass</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>15000</v>
+        <v>19900</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/26273585203/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/48455900203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z87-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-animals</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hqc2rj-jual-iphone-15-plus-pro-max-matte-antiglare-shock-ceramic-flexglass</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4hs2tyg</t>
+          <t>4hqc2m1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Screen Guard</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['Lainnya']</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Polo Anak-Remaja Space Collection Galactic Journey UFO 6 Bulan-12 Tahun</t>
+          <t>Iphone 15 Plus Pro Max Privacy ANTI SPY Clear Super Fit Tempered Glass</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/63752975203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/88805900203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2tyg-jual-macbear-baju-anak-remaja-laki-laki-kaos-polo-anak-remaja-space-collection-galactic-journey-ufo-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hqc2m1-jual-iphone-15-plus-pro-max-privacy-anti-spy-clear-super-fit-tempered-glass</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9h4bb5</t>
+          <t>2pvzr5z</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Spare Part &amp; Tools Handphone</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2721,53 +2757,53 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Polosan. Kaos Oblong. Baju Polos. Kaos Polos. Cotton Combed. Baju Grosir. Baju Polos Distro</t>
+          <t>One sim v3.2 Rsim 15 unlock iPhone sim not support ios 13.x SU kemasan ekonomis</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/75665076892/large/Polosan_Kaos_Oblong_Baju_Polos_Kaos_Polos_Cotton_Combed_Baju.jpg</t>
+          <t>https://s1.bukalapak.com/img/14875774471/large/data.jpeg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/9h4bb5-jual-polosan-kaos-oblong-baju-polos-kaos-polos-cotton-combed-baju-grosir-baju-polos-distro</t>
+          <t>https://www.bukalapak.com/p/handphone/spare-part-tools-handphone/2pvzr5z-jual-one-sim-v3-2-rsim-15-unlock-iphone-sim-not-support-ios-13-x-su-kemasan-ekonomis</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4hqxic1</t>
+          <t>4hp4i0a</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merk Lain</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kaos Baju BUSMANIA RATU MAHER anak dewasa BUS Bis mania Bismania SJM</t>
+          <t>Iphone 15 Soft Case Silicon Tpu Clear Casing</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>60500</v>
+        <v>20000</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/03853781203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/65307786103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2775,37 +2811,37 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqxic1-jual-kaos-baju-busmania-ratu-maher-anak-dewasa-bus-bis-mania-bismania-sjm</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp4i0a-jual-iphone-15-soft-case-silicon-tpu-clear-casing</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4fv3oo7</t>
+          <t>4hqcaf7</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro PALESTiNA FROM iNDONESiA gaza polos custom palestine</t>
+          <t>Iphone 15 / 15 Plus / 15 Pro / 15 Pro Max Tempered Glass kamera Iphone</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>57900</v>
+        <v>12000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29357760292/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/87345110203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2813,57 +2849,57 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4fv3oo7-jual-kaos-baju-distro-palestina-from-indonesia-gaza-polos-custom-palestine</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hqcaf7-jual-iphone-15-15-plus-15-pro-15-pro-max-tempered-glass-kamera-iphone</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3xh8dzf</t>
+          <t>4hqs4gs</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tidak Ada Merk</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>KAOS BAJU LENGAN PENDEK REEBOK PRIA WANITA COMBED 30S</t>
+          <t>C153 Iphone 14 15 Plus Pro Max Matte Neo Hybrid Premium Silicone Case</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>85500</v>
+        <v>24900</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/75349063003/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/02378831203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3xh8dzf-jual-kaos-baju-lengan-pendek-reebok-pria-wanita-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqs4gs-jual-c153-iphone-14-15-plus-pro-max-matte-neo-hybrid-premium-silicone-case</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>qo7m6e</t>
+          <t>1ueb8r0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Spare Part &amp; Tools Handphone</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2873,91 +2909,91 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>KAOS BAJU MOBIL SUZUKI KARIMUN KAOS OTOMOTIF - GILAN CLOTH</t>
+          <t>RSIM 14 R SIM R-SIM iPhone 6S 7 8 X XR XS XI Plus Max iOS 12 13 15 16 17 18 19 20 Heicard XSIM Unlock Lock Carrier SIM SU XII</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>79999</v>
+        <v>199000</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48815479003/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/39198911203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/qo7m6e-jual-kaos-baju-mobil-suzuki-karimun-kaos-otomotif-gilan-cloth</t>
+          <t>https://www.bukalapak.com/p/handphone/spare-part-tools-handphone/1ueb8r0-jual-rsim-14-r-sim-r-sim-iphone-6s-7-8-x-xr-xs-xi-plus-max-ios-12-13-15-16-17-18-19-20-heicard-xsim-unlock-lock-carrier-sim-su-xii</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1z3g79w</t>
+          <t>4hq0abj</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Thirdday</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BAJU WANITA MUSLIM RENA CARDY CARDIGAN WOLFIS PREMIUM IMPORT</t>
+          <t>Super Fit Anti Gagal Temper glass Clear HD Suitable For IPHONE 15 15+ 15 PRO MAX</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>85200</v>
+        <v>22900</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/19489281021/large/BAJU_WANITA_MUSLIM_RENA_CARDY_CARDIGAN_WOLFIS_PREMIUM_IMPORT.png</t>
+          <t>https://s1.bukalapak.com/img/60013719103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/1z3g79w-jual-baju-wanita-muslim-rena-cardy-cardigan-wolfis-premium-import</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq0abj-jual-super-fit-anti-gagal-temper-glass-clear-hd-suitable-for-iphone-15-15-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4hjnqbm</t>
+          <t>4hq18pv</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>KAOS POLOS JUMBO XXXL BAJU OBLONG PRIA 3XL BIG SIZE KAOS JUMBO POLOS XXXL-3XL OVER SIZE</t>
+          <t>Hard Case iPhone 15 Pro Biasa Max 15Pro Promax Hardcase Original Caseme Card Slot Casing Cover Flip Leather Sarung Ori Dompet Tas Hp Wallet</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33300</v>
+        <v>595000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/98709223003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/98201529103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2965,19 +3001,19 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hjnqbm-jual-kaos-polos-jumbo-xxxl-baju-oblong-pria-3xl-big-size-kaos-jumbo-polos-xxxl-3xl-over-size</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq18pv-jual-hard-case-iphone-15-pro-biasa-max-15pro-promax-hardcase-original-caseme-card-slot-casing-cover-flip-leather-sarung-ori-dompet-tas-hp-wallet</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4hr4xm4</t>
+          <t>4hpl9pj</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Case Tablet</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2987,15 +3023,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>baju kaos berkerah AMIN anies muhaimin 2024 lengan pendek</t>
+          <t>IPHONE 15 PLUS 15 PRO MAX SOFTCASE SILIKON ULTRATHIN ANTISHOCK COVER</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>97200</v>
+        <v>39000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/85758842203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/72770808103/large/data.png</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3003,75 +3039,75 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4xm4-jual-baju-kaos-berkerah-amin-anies-muhaimin-2024-lengan-pendek</t>
+          <t>https://www.bukalapak.com/p/handphone/tablet/case-tablet/4hpl9pj-jual-iphone-15-plus-15-pro-max-softcase-silikon-ultrathin-antishock-cover</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3iq2ole</t>
+          <t>4hq0baj</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>kaos distro pria original Dflow 47 baju pria original kaos salur pria</t>
+          <t>Ceramic Matte Anti Blue &amp; Spy Suitable For IPHONE 15 15 PLUS 15 Pro Max Plus</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>65000</v>
+        <v>15900</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33231805003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51334719103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3iq2ole-jual-kaos-distro-pria-original-dflow-47-baju-pria-original-kaos-salur-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq0baj-jual-ceramic-matte-anti-blue-spy-suitable-for-iphone-15-15-plus-15-pro-max-plus</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4hr4ynj</t>
+          <t>4hpxe8m</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Power Bank</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Baseus']</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>baju kaos berkerah Save Palestine lengan pendek</t>
+          <t>Baseus Powerbank Magnetic Bracket 20W Wireless MagSafe Iphone 12 13 14 15 Pro Max Magnet Power Bank Original Ori Fast Charging PD Power Delivery PB</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>97200</v>
+        <v>499000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/67970942203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/19640898103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3079,19 +3115,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4ynj-jual-baju-kaos-berkerah-save-palestine-lengan-pendek</t>
+          <t>https://www.bukalapak.com/p/handphone/power-bank/4hpxe8m-jual-baseus-powerbank-magnetic-bracket-20w-wireless-magsafe-iphone-12-13-14-15-pro-max-magnet-power-bank-original-ori-fast-charging-pd-power-delivery-pb</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4hr4bs4</t>
+          <t>4hq0h4p</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>G Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3101,15 +3137,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro GEMOY Prabowo Gibran Presiden Wakil indonesia partai</t>
+          <t>Case Iphone 15/Plus/Pro/Pro Max NILLKIN Nature Pro Magnetic MagSafe Casing</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>55500</v>
+        <v>159000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/89635442203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/51285819103/large/data.png</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3117,57 +3153,57 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4bs4-jual-kaos-baju-distro-gemoy-prabowo-gibran-presiden-wakil-indonesia-partai</t>
+          <t>https://www.bukalapak.com/p/g-handphone/g-aksesoris-handphone/g-casing-cover/4hq0h4p-jual-case-iphone-15-plus-pro-pro-max-nillkin-nature-pro-magnetic-magsafe-casing</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4g97m2j</t>
+          <t>4hqqzjg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Power Bank</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Lainnya']</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru MARIO</t>
+          <t>Ugreen Power Bank 20W 10000mAh Magsafe Magnetic Wireless iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>44000</v>
+        <v>499000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/46459654492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/26472821203/large/data.jpg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g97m2j-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-mario</t>
+          <t>https://www.bukalapak.com/p/handphone/power-bank/4hqqzjg-jual-ugreen-power-bank-20w-10000mah-magsafe-magnetic-wireless-iphone-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4hqdnxm</t>
+          <t>4hqbsim</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>G Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3177,15 +3213,15 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Kaos Baju SAVE GAZA Semangka Watermelon Palestine Palestina indonesia</t>
+          <t>Case Iphone 15/Plus/Pro/Pro Max NILLKIN CamShield Pro Magnetic MagSafe Casing</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>50500</v>
+        <v>189000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/65983220203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81361700203/large/data.png</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3193,19 +3229,19 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqdnxm-jual-kaos-baju-save-gaza-semangka-watermelon-palestine-palestina-indonesia</t>
+          <t>https://www.bukalapak.com/p/g-handphone/g-aksesoris-handphone/g-casing-cover/4hqbsim-jual-case-iphone-15-plus-pro-pro-max-nillkin-camshield-pro-magnetic-magsafe-casing</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4hefwrd</t>
+          <t>4hq0jcj</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>G Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3215,15 +3251,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kaos Baju Tshirt Distro Brooklyn Nets City Edition polos Basket NBA</t>
+          <t>Case Iphone 15/Plus/Pro/Pro Max NILLKIN Qin Pro Leather Slide Camera Casing</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>56900</v>
+        <v>199000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/87964571992/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/19998819103/large/data.png</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3231,57 +3267,57 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hefwrd-jual-kaos-baju-tshirt-distro-brooklyn-nets-city-edition-polos-basket-nba</t>
+          <t>https://www.bukalapak.com/p/g-handphone/g-aksesoris-handphone/g-casing-cover/4hq0jcj-jual-case-iphone-15-plus-pro-pro-max-nillkin-qin-pro-leather-slide-camera-casing</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>w6sceu</t>
+          <t>4hqo0qs</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Merek lainnya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Baju muslim wanita HANUM DRESS Baju gamis wanita</t>
+          <t>HYDRA iPhone 15 Plus - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>78000</v>
+        <v>99000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/64644834501/large/Baju_muslim_wanita_HANUM_DRESS_Baju_gamis_wanita.jpg</t>
+          <t>https://s1.bukalapak.com/img/10384058203/large/fcf16bce_8420_43f3_a739_7f117b48a4bc.jpg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/w6sceu-jual-baju-muslim-wanita-hanum-dress-baju-gamis-wanita</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qs-jual-hydra-iphone-15-plus-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4gdsxmp</t>
+          <t>4hqo0r1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3291,35 +3327,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN</t>
+          <t>HYDRA iPhone 15 Pro Max - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>79800</v>
+        <v>189000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/82663132492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/21184058203/large/b983f52b_ef8a_4392_92fb_54a914ebc7ec.jpg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdsxmp-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality-keren</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0r1-jual-hydra-iphone-15-pro-max-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1rd1pop</t>
+          <t>4hqo0qy</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3329,35 +3365,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Kaos TOPi Baju Obral Combed 30S Distro MERCY MERCEDES BENZ AMG polos</t>
+          <t>HYDRA iPhone 15 Pro - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>69300</v>
+        <v>99000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/62346515501/large/2019_05_20T08_02_14_07_00.jpg</t>
+          <t>https://s4.bukalapak.com/img/91384058203/large/e36114c2_f156_4ffc_bfcc_b1c0264f2fa7.jpg</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1rd1pop-jual-kaos-topi-baju-obral-combed-30s-distro-mercy-mercedes-benz-amg-polos</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qy-jual-hydra-iphone-15-pro-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4hr0nos</t>
+          <t>4hqo2pd</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3367,15 +3403,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kaos Baju BUSMANIA TUAN MUDA STYLE anak dewasa BUS Bis mania Bismania</t>
+          <t>Original Soft Case iPhone 11 12 13 14 15 Pro Max Hologram Plain Cover casing</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>60500</v>
+        <v>80000</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/13050512203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29472401203/large/4a5f8de3_ed06_4b10_9691_1c14dc632854.jpg</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3383,19 +3419,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr0nos-jual-kaos-baju-busmania-tuan-muda-style-anak-dewasa-bus-bis-mania-bismania</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqo2pd-jual-original-soft-case-iphone-11-12-13-14-15-pro-max-hologram-plain-cover-casing</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4haa411</t>
+          <t>4hq226y</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3405,35 +3441,35 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Kaos Baju ISLAMI FREE PALESTINA PALESTINE save gaza polos custom islam</t>
+          <t>Ring Camera iPhone 15 Pro Max Plus Metal Lens Protector Anti Gores Original</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47900</v>
+        <v>85000</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/10134633892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58517139103/large/312bc935_b016_4105_bd74_72b177b67cd9.jpg</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4haa411-jual-kaos-baju-islami-free-palestina-palestine-save-gaza-polos-custom-islam</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq226y-jual-ring-camera-iphone-15-pro-max-plus-metal-lens-protector-anti-gores-original</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4hmdzw4</t>
+          <t>4hqo0qv</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Accesories</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3443,15 +3479,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kaos Baju PDIP pdi Teman Ganjar PRANOWO sahabat Presiden indonesia cod</t>
+          <t>HYDRA iPhone 15 - Anti Gores Hydrogel - NOT Tempered - Full - DEPAN</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>55900</v>
+        <v>99000</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/25800300103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69184058203/large/67ff340c_5a59_4957_8fa8_88e3b2b12719.jpg</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3459,37 +3495,37 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmdzw4-jual-kaos-baju-pdip-pdi-teman-ganjar-pranowo-sahabat-presiden-indonesia-cod</t>
+          <t>https://www.bukalapak.com/p/gorillatech/gadget-acc/accesories/4hqo0qv-jual-hydra-iphone-15-anti-gores-hydrogel-not-tempered-full-depan</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4guiiwv</t>
+          <t>4hrzg2g</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>coteetci</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fashion Pria Baju Kaos Santai Bagus</t>
+          <t>COTEetCI Aluminum Metal Frame Bumper Hard Case iPhone 15 PLUS PRO MAX</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100000</v>
+        <v>115000</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91567238992/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/82962725203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3497,37 +3533,37 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4guiiwv-jual-fashion-pria-baju-kaos-santai-bagus</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrzg2g-jual-coteetci-aluminum-metal-frame-bumper-hard-case-iphone-15-plus-pro-max</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4hr4y6y</t>
+          <t>4hqy4by</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merk Lain</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>baju kaos berkerah Prabowo mania presiden indonesia 2024 lengan pendek</t>
+          <t>Case Magsafe iPhone 12 13 14 15 Pro Max - 15Pro 14Pro 13Pro - Plus Casing Magnetic Camera Stand Folding Promax Transparan Cover Kamera</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>97200</v>
+        <v>180000</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/75849842203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/12446291203/large/7c5e5010_e6f7_41e9_bde9_f419c6fdcc97.jpg</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3535,37 +3571,37 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4y6y-jual-baju-kaos-berkerah-prabowo-mania-presiden-indonesia-2024-lengan-pendek</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqy4by-jual-case-magsafe-iphone-12-13-14-15-pro-max-15pro-14pro-13pro-plus-casing-magnetic-camera-stand-folding-promax-transparan-cover-kamera</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4hr4xzj</t>
+          <t>4hqx6lp</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>baju kaos berkerah anies baswedan presiden for 2024 lengan pendek</t>
+          <t>IPHONE 15 PRO</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>97200</v>
+        <v>24000000</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/02319842203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/24272381203/large/data.jpg</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3573,95 +3609,95 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hr4xzj-jual-baju-kaos-berkerah-anies-baswedan-presiden-for-2024-lengan-pendek</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hqx6lp-jual-iphone-15-pro</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4gdsxmp</t>
+          <t>4hrq1wa</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN</t>
+          <t>iphone 15 pro max 1t</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79800</v>
+        <v>10500000</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/82663132492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/75072644203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdsxmp-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality-keren</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hrq1wa-jual-iphone-15-pro-max-1t</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3od3yp1</t>
+          <t>4hry2ip</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fashion Pria Baju Kaos</t>
+          <t>Iphone 15 128gb</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>80000</v>
+        <v>14000000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/98697521203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/57691415203/large/data.jpg</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3od3yp1-jual-fashion-pria-baju-kaos</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hry2ip-jual-iphone-15-128gb</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>3q797w3</t>
+          <t>4hq231a</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3671,91 +3707,87 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>COD-KAOS PRIA KRAH KOKO LENGAN PANJANG-BAJU KOKO PRIA-KOAS SIMPLE RADEN</t>
+          <t>Case iPhone 15 14 13 12 Pro Max Plus Casing Lens Glass Folding Magsafe</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52000</v>
+        <v>140000</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/73337755003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92639139103/large/8a244404_cd7b_4f60_96f6_21c69f98bc4e.jpg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3q797w3-jual-cod-kaos-pria-krah-koko-lengan-panjang-baju-koko-pria-koas-simple-raden</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq231a-jual-case-iphone-15-14-13-12-pro-max-plus-casing-lens-glass-folding-magsafe</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1psl54r</t>
+          <t>4g7tcxd</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Baju distro cotton Combed 20s I DONT CARE warna Putih Kaos distro Pria i dont care cotton combed 20s white</t>
+          <t>Soft Case Slim Transparan iPhone 6 6s 7 8 Plus X XS XR Max 11 12 13 14 15 Mini Pro Bening Thin Clear Softcase Casing</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>39990</v>
+        <v>29900</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/50029929892/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71022116992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1psl54r-jual-baju-distro-cotton-combed-20s-i-dont-care-warna-putih-kaos-distro-pria-i-dont-care-cotton-combed-20s-white</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4g7tcxd-jual-soft-case-slim-transparan-iphone-6-6s-7-8-plus-x-xs-xr-max-11-12-13-14-15-mini-pro-bening-thin-clear-softcase-casing</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4hqjnr1</t>
+          <t>4hq4l0y</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merk Lain</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Baju Barong Lukis khas Bali murah berkualitas</t>
+          <t>Original Case iPhone 15 - 15Pro - Plus - Pro Max Casing Ringke Fusion X Hybrid Promax Cover Hardcase</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35000</v>
+        <v>355000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/52502960203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74576949103/large/00ee53a6_1b1e_4df9_aa94_39689ae0f442.jpg</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3763,19 +3795,19 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqjnr1-jual-baju-barong-lukis-khas-bali-murah-berkualitas</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq4l0y-jual-original-case-iphone-15-15pro-plus-pro-max-casing-ringke-fusion-x-hybrid-promax-cover-hardcase</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4h7cxay</t>
+          <t>4hqp1am</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Grosir Handphone</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3785,15 +3817,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Baju Cowok Damor - Rmbas.cb072k</t>
+          <t>Iphone 15 128gb</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>115900</v>
+        <v>15500000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/99312157792/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/20524211203/large/data.jpg</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3801,151 +3833,139 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h7cxay-jual-baju-cowok-damor-rmbas-cb072k</t>
+          <t>https://www.bukalapak.com/p/handphone/grosir-handphone/4hqp1am-jual-iphone-15-128gb</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3ej122f</t>
+          <t>4g7quka</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PE GROSIR KAOS POLOS pendek pria baju kaos t shirt premium bandung</t>
+          <t>Anti Crack Soft Case iPhone 7 8 Plus X XS XR Max 11 12 13 14 15 Mini Pro Bening Clear Shock Casing</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19500</v>
+        <v>21800</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11699540922/large/2020-06-19T14%3A19%3A30%2B07%3A00.jpeg</t>
+          <t>https://s3.bukalapak.com/img/33237190792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3ej122f-jual-pe-grosir-kaos-polos-pendek-pria-baju-kaos-t-shirt-premium-bandung</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4g7quka-jual-anti-crack-soft-case-iphone-7-8-plus-x-xs-xr-max-11-12-13-14-15-mini-pro-bening-clear-shock-casing</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4dkcpng</t>
+          <t>4g7te1a</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Baju Kaos Polos Lengan Pendek POCKET BLACK MISTY Hitam Misty Saku COTTON COMBED 30S</t>
+          <t>Ultra Thin Case iPhone 6 6s 7 8 Plus X XS XR Max 11 12 13 14 15 Mini Pro Slim Semi Hard Doff Matte TPU Casing</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>45000</v>
+        <v>29900</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/49151046892/large/1910c9c51f4326270491f35152394db2.jpg</t>
+          <t>https://s1.bukalapak.com/img/17523095992/large/data.jpeg</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcpng-jual-baju-kaos-polos-lengan-pendek-pocket-black-misty-hitam-misty-saku-cotton-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4g7te1a-jual-ultra-thin-case-iphone-6-6s-7-8-plus-x-xs-xr-max-11-12-13-14-15-mini-pro-slim-semi-hard-doff-matte-tpu-casing</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ze92pt</t>
+          <t>4g7tfn7</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Kaos Baju Obral Combed 30S Distro NOTHiNG iS REAL JAPAN Jepang Murah</t>
+          <t>Square Case iPhone 6 6s 7 8 Plus X XS XR Max 11 12 13 14 15 Mini Pro Silicon Soft Softcase Kotak Doff Matte Black Casing</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>49900</v>
+        <v>29800</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/8356361974/large/Kaos_Baju_Obral_Combed_30S_Distro_NOTHiNG_iS_REAL_JAPAN_Jepa.jpg</t>
+          <t>https://s3.bukalapak.com/img/38208190792/large/data.jpeg</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/ze92pt-jual-kaos-baju-obral-combed-30s-distro-nothing-is-real-japan-jepang-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4g7tfn7-jual-square-case-iphone-6-6s-7-8-plus-x-xs-xr-max-11-12-13-14-15-mini-pro-silicon-soft-softcase-kotak-doff-matte-black-casing</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4hg8jqg</t>
+          <t>4hr5gvj</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Kaos Baju SERAGAM MASINIS polos KERETA API indonesia anak dewasa MURAH</t>
+          <t>Apple iPhone 15 Pro Max 128GB iBox - Titanium</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>55500</v>
+        <v>21650000</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/45982506103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/60244352203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3953,37 +3973,37 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hg8jqg-jual-kaos-baju-seragam-masinis-polos-kereta-api-indonesia-anak-dewasa-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hr5gvj-jual-apple-iphone-15-pro-max-128gb-ibox-titanium</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4hrlclj</t>
+          <t>4hqa59a</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Kaos Baju BiRU GEMOY Prabowo Gibran Presiden Wakil indonesia partai ri</t>
+          <t>iphone 15 promax 256gb resmi</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50500</v>
+        <v>26000000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/00233204203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/18471399103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3991,19 +4011,19 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrlclj-jual-kaos-baju-biru-gemoy-prabowo-gibran-presiden-wakil-indonesia-partai-ri</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hqa59a-jual-iphone-15-promax-256gb-resmi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1pz5guj</t>
+          <t>4hsbeqg</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Grosir Handphone</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4013,149 +4033,149 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Kaos Distro Lengan Panjang Threesecond 1996 Baju Casual Santai Kaos Tangan Panjang Distro Red Black Navy Grey Bahan Katun Lembut Combed 30s</t>
+          <t>Iphone 15 second 218gb</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49990</v>
+        <v>4500000</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/91755458392/large/Kaos_Distro_Lengan_Panjang_Threesecond_1996_Baju_Casual_Sant.jpeg</t>
+          <t>https://s4.bukalapak.com/img/99797636203/large/data.jpg</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1pz5guj-jual-kaos-distro-lengan-panjang-threesecond-1996-baju-casual-santai-kaos-tangan-panjang-distro-red-black-navy-grey-bahan-katun-lembut-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/grosir-handphone/4hsbeqg-jual-iphone-15-second-218gb</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>408n4ff</t>
+          <t>4hsg6a7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Headphone</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kaos pria original kaos distro pria baju pria original baju salur pria kaos salur pria</t>
+          <t>iphone 15 128 pink</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>65000</v>
+        <v>9835000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/21700894003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/07516196203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408n4ff-jual-kaos-pria-original-kaos-distro-pria-baju-pria-original-baju-salur-pria-kaos-salur-pria</t>
+          <t>https://www.bukalapak.com/p/elektronik/elektronik-audio/headphone/4hsg6a7-jual-iphone-15-128-pink</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4ge0xsy</t>
+          <t>4hsktjj</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Headphone</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO SWEATER</t>
+          <t>iphone 15 Promax</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>79800</v>
+        <v>24000000</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/95210903203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/69663737203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0xsy-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-sweater</t>
+          <t>https://www.bukalapak.com/p/elektronik/elektronik-audio/headphone/4hsktjj-jual-iphone-15-promax</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4ge0w21</t>
+          <t>4hsi9x4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Charger</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO LEMBUT</t>
+          <t>Charger original iphone 15</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>79800</v>
+        <v>900000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17673232492/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/28687517203/large/data.jpg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0w21-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-lembut</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/charger-177/4hsi9x4-jual-charger-original-iphone-15</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4ge0zrj</t>
+          <t>4hq194v</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Grosir Handphone</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4165,53 +4185,53 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO RAPI RAPIH</t>
+          <t>iphone 15 promax</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>79800</v>
+        <v>25050000</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/51338332492/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/39191529103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ge0zrj-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-rapi-rapih</t>
+          <t>https://www.bukalapak.com/p/handphone/grosir-handphone/4hq194v-jual-iphone-15-promax</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4honle1</t>
+          <t>4hsgdl1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>KAOS TSHIRT PRIA BAJU LENGAN PANJANG</t>
+          <t>Iphone 15 pro max</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>115000</v>
+        <v>25000000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/11365065103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/18970496203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -4219,33 +4239,37 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4honle1-jual-kaos-tshirt-pria-baju-lengan-panjang</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hsgdl1-jual-iphone-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4gxm5lm</t>
+          <t>4hse86y</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>iPhone</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ASIA Blouse Wanita Lengan Panjang Baju Wanita Atasan Blouse NAGITA Berkualitas MURAH</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>94900</v>
+        <v>13500000</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30994343692/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/06475766203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4253,37 +4277,37 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/4gxm5lm-jual-asia-blouse-wanita-lengan-panjang-baju-wanita-atasan-blouse-nagita-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hse86y-jual-iphone-15</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4gxoq1p</t>
+          <t>4hs67fp</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Busana Muslim Pria</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ASIA BAJU KOKO HARGA GROSIR BAHN DOLBY LENGAN PANJANG MOTIF HITAM PUTIH Berkualitas MURAH</t>
+          <t>Iphone 15 256 gb new ibox</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>103920</v>
+        <v>13000000</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/17200034203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74580095203/large/data.jpg</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4291,75 +4315,71 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxoq1p-jual-asia-baju-koko-harga-grosir-bahn-dolby-lengan-panjang-motif-hitam-putih-berkualitas-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hs67fp-jual-iphone-15-256-gb-new-ibox</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4gipqma</t>
+          <t>4hprhv7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO KEREN</t>
+          <t>LP Camera Ring Tempered Glass iPhone 15 Pro - 15 Pro Max - Cover Protector Lensa Lens Kaca Clear Bening Kamera 15p</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>79800</v>
+        <v>64350</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/66309576592/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/33143358103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gipqma-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-keren</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hprhv7-jual-lp-camera-ring-tempered-glass-iphone-15-pro-15-pro-max-cover-protector-lensa-lens-kaca-clear-bening-kamera-15p</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4hp1q9y</t>
+          <t>4hr79iv</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Kaos Lengan Panjang Mizuno Kirka Text Silver Premium Baju Pria Wanita Premium Kaos</t>
+          <t>Nillkin CarboProp Aramid Case iPhone 15 Pro - Camshield Stand Carbon Casing 15p Shock Proof Original Protector Guard</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>135000</v>
+        <v>351450</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92735766103/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17040272203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4367,19 +4387,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp1q9y-jual-kaos-lengan-panjang-mizuno-kirka-text-silver-premium-baju-pria-wanita-premium-kaos</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hr79iv-jual-nillkin-carboprop-aramid-case-iphone-15-pro-camshield-stand-carbon-casing-15p-shock-proof-original-protector-guard</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>239y3wa</t>
+          <t>4hqv00m</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4389,15 +4409,15 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>T-SHIRT BAJU KAOS SUBLIME KAMEN RIDER ZERO-ONE ZERO ONE RISING HOPPER Hijau S</t>
+          <t>Case iPhone 15 Pro Max 15 Pro CaseMe 023 Wallet Leather Flip Cover Original</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>135000</v>
+        <v>329000</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/60823232821/large/T_SHIRT_BAJU_KAOS_SUBLIME_KAMEN_RIDER_ZERO_ONE_ZERO_ONE_RISI.jpg</t>
+          <t>https://s0.bukalapak.com/img/54395561203/large/8166962d_557f_4704_8a42_4592993f041d.jpg</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4405,201 +4425,205 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/239y3wa-jual-t-shirt-baju-kaos-sublime-kamen-rider-zero-one-zero-one-rising-hopper-hijau-s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqv00m-jual-case-iphone-15-pro-max-15-pro-caseme-023-wallet-leather-flip-cover-original</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4hs2z8p</t>
+          <t>4hp6evv</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - submarine</t>
+          <t>Original Hybrid Hard Soft Case Clear Magsafe Tpu Back Acrylic Cover iPhone 15 Pro Casing Premium Ultra Thin Slim Transparan Ori</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15000</v>
+        <v>217000</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/30182585203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80532996103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8p-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-submarine</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp6evv-jual-original-hybrid-hard-soft-case-clear-magsafe-tpu-back-acrylic-cover-iphone-15-pro-casing-premium-ultra-thin-slim-transparan-ori</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4hs2z8g</t>
+          <t>4hp8oia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - stars</t>
+          <t>Nillkin Nature Pro Case iPhone 15 Pro Max - Acrylic Clear Casing PC TPU Cover Soft Hard Rugged Hybrid</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15000</v>
+        <v>100039</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/39434585203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/59485317103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8g-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-stars</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp8oia-jual-nillkin-nature-pro-case-iphone-15-pro-max-acrylic-clear-casing-pc-tpu-cover-soft-hard-rugged-hybrid</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4hs2z8j</t>
+          <t>4hprhv7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Little B By MacBear Baju Bayi Pippy Collection Newborn-12 bulan - rainbow</t>
+          <t>LP Camera Ring Tempered Glass iPhone 15 Pro - 15 Pro Max - Cover Protector Lensa Lens Kaca Clear Bening Kamera 15p</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>15000</v>
+        <v>64350</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/60482585203/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/33143358103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-unisex/kaos-1468/4hs2z8j-jual-little-b-by-macbear-baju-bayi-pippy-collection-newborn-12-bulan-rainbow</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hprhv7-jual-lp-camera-ring-tempered-glass-iphone-15-pro-15-pro-max-cover-protector-lensa-lens-kaca-clear-bening-kamera-15p</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4hs2wr4</t>
+          <t>4hr79iv</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Muslim Anak-Remaja Collection Bordir 6 bulan-12 Tahun</t>
+          <t>Nillkin CarboProp Aramid Case iPhone 15 Pro - Camshield Stand Carbon Casing 15p Shock Proof Original Protector Guard</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>65000</v>
+        <v>351450</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/74719817203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/17040272203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wr4-jual-macbear-baju-anak-remaja-laki-laki-polo-muslim-anak-remaja-collection-bordir-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hr79iv-jual-nillkin-carboprop-aramid-case-iphone-15-pro-camshield-stand-carbon-casing-15p-shock-proof-original-protector-guard</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4hs2z8v</t>
+          <t>4hpduqd</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dress</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MacBee Baju Anak Perempuan Dress Anak Princess Collection Myria Bunny Cute 6 Bulan-12 Tahun</t>
+          <t>Casing Case iPhone 15 Pro Max 15 Pro Softcase Premium UAG ORIGINAL MONARCH Rugged Slim ShockProof Armor Full Cover Protector</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>65000</v>
+        <v>1500000</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/73768817203/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74843157103/large/3954080b_a8f8_4619_9810_a54a3320eaa3.jpg</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-perempuan/dress-1381/4hs2z8v-jual-macbee-baju-anak-perempuan-dress-anak-princess-collection-myria-bunny-cute-6-bulan-12-tahun</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpduqd-jual-casing-case-iphone-15-pro-max-15-pro-softcase-premium-uag-original-monarch-rugged-slim-shockproof-armor-full-cover-protector</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4g97tej</t>
+          <t>4hp8c71</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4609,73 +4633,73 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru ONE PIECE</t>
+          <t>Apple Iphone 15 Pro Max 256GB 512GB 1TB Black Blue Natural Titanium - Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44000</v>
+        <v>21854000</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/93040354492/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/81166058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g97tej-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-one-piece</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8c71-jual-apple-iphone-15-pro-max-256gb-512gb-1tb-black-blue-natural-titanium-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fcdvzn</t>
+          <t>4hquyfs</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Merk Lain</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>kaos playboy pensiun t-shirt playboy logo baju distro cewek cowok unik pakaian kata kata lucu pria dan wanita - showbiz</t>
+          <t>CASE CASING HANPHONE SOFTCASE ONE PIECE LUFY GEAR 5 FOR IPHONE 7 8 7plus 8plus X XS XR 11 12 13 14 15 PRO MAX</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>75000</v>
+        <v>31410</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/89119168792/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/32321561203/large/id_11134207_7r992_lp4iufsj9doua3.jpg</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fcdvzn-jual-kaos-playboy-pensiun-t-shirt-playboy-logo-baju-distro-cewek-cowok-unik-pakaian-kata-kata-lucu-pria-dan-wanita-showbiz</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hquyfs-jual-case-casing-hanphone-softcase-one-piece-lufy-gear-5-for-iphone-7-8-7plus-8plus-x-xs-xr-11-12-13-14-15-pro-max</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4dkcnlm</t>
+          <t>4hs1kg4</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4685,35 +4709,35 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Baju Kaos Polos Lengan Panjang GREEN FOREST Hijau Botol Cewek Cowok COTTON COMBED 30S</t>
+          <t>Softcase Premium SNAPGARD Original Hybrid With Stand Casing Case iPhone 15 Pro Max iPhone 15</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>55000</v>
+        <v>265000</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92945766892/large/bc351dc7e5a81f7512aa89c32a5aeb93.jpg</t>
+          <t>https://s1.bukalapak.com/img/14695745203/large/f6f0a6df_07d7_4442_9d5f_c223f3c2d56c.jpg</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcnlm-jual-baju-kaos-polos-lengan-panjang-green-forest-hijau-botol-cewek-cowok-cotton-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hs1kg4-jual-softcase-premium-snapgard-original-hybrid-with-stand-casing-case-iphone-15-pro-max-iphone-15</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4hofwkp</t>
+          <t>4hpu1gg</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4723,15 +4747,15 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Kaos Baju BUSMANIA stj draka BUS Mania Bis Bismania SHD anak dewasa</t>
+          <t>Softcase Premium Magsafe Retrackable Original Full Cover Ultra Slim Ring Case Casing iPhone 15 14 13 12 11 Pro Max Plus</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50500</v>
+        <v>160000</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/81409305103/large/data.png</t>
+          <t>https://s3.bukalapak.com/img/37964178103/large/b8ce264f_1823_477f_b75b_8ac988f32fb9.jpg</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4739,95 +4763,91 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hofwkp-jual-kaos-baju-busmania-stj-draka-bus-mania-bis-bismania-shd-anak-dewasa</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpu1gg-jual-softcase-premium-magsafe-retrackable-original-full-cover-ultra-slim-ring-case-casing-iphone-15-14-13-12-11-pro-max-plus</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>105ob8k</t>
+          <t>4hpa3tp</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Polosan Kaos Polos Baju polos Cotton 30s</t>
+          <t>Spigen Optik Armor Mag Case iPhone 15 Pro Max - Camshield Camera Protector Magnet Magnetic Magsafe Cover Casing Original Shock Proof</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28000</v>
+        <v>445500</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/3412857594/large/Kaos_Polos.jpg</t>
+          <t>https://s0.bukalapak.com/img/05036427103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/105ob8k-jual-polosan-kaos-polos-baju-polos-cotton-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpa3tp-jual-spigen-optik-armor-mag-case-iphone-15-pro-max-camshield-camera-protector-magnet-magnetic-magsafe-cover-casing-original-shock-proof</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4gti1im</t>
+          <t>4hr9pss</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER PREMIUM KEREN</t>
+          <t>Caseme C22 Leather Case iPhone 15 Pro - Card Slot Stand Holder Cover Casing TPU PU Shock Proof Money 15p</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>79800</v>
+        <v>148500</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/94866576592/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/85252292203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gti1im-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-premium-keren</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hr9pss-jual-caseme-c22-leather-case-iphone-15-pro-card-slot-stand-holder-cover-casing-tpu-pu-shock-proof-money-15p</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>4gdj07p</t>
+          <t>4hpu3uy</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4837,35 +4857,35 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO</t>
+          <t>CASING CASE IPHONE 15 PRO MAX SOFTCASE PREMIUM LEATHER CASE WITH MAGSAFE ORIGINAL ULTRA SLIM FULL COVER</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>79800</v>
+        <v>260000</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/55430903203/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/57467178103/large/a59cd52c_224f_4377_8400_3cb7b851471d.jpg</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdj07p-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpu3uy-jual-casing-case-iphone-15-pro-max-softcase-premium-leather-case-with-magsafe-original-ultra-slim-full-cover</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>4gf5w14</t>
+          <t>4hpvuij</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4875,35 +4895,35 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG DISTRO GOOD QUALITY KEREN LEMBUT</t>
+          <t>Casing Case iPhone 15 14 13 12 Pro Max Plus Softcase Premium Magsafe Lens Glass Original Folding Holder Ultra Slim</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>79800</v>
+        <v>150000</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27542653492/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/94921788103/large/fff0875d_f12f_4224_9119_65c837b261a4.jpg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gf5w14-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-distro-good-quality-keren-lembut</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpvuij-jual-casing-case-iphone-15-14-13-12-pro-max-plus-softcase-premium-magsafe-lens-glass-original-folding-holder-ultra-slim</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>408k5gb</t>
+          <t>4hp8fgj</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4913,15 +4933,15 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>kaos pria original Dflow baju pria original baju salur pria</t>
+          <t>Apple iPhone 15 Plus -128GB-256GB-512GB- Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>65000</v>
+        <v>15599000</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/79771894003/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/16456058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4929,19 +4949,19 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408k5gb-jual-kaos-pria-original-dflow-baju-pria-original-baju-salur-pria</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8fgj-jual-apple-iphone-15-plus-128gb-256gb-512gb-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4gj7q6j</t>
+          <t>4hp8e0v</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4951,15 +4971,15 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>KAOS 3SECOND - KAOS THREESECOND - KAOS PENDEK PRIA 3SECOND - KAOS BAND 3 SECOND - BAJU DISTRO 3SECOND - KAOS COMBED 30S - KAOS DISTRO PRIA</t>
+          <t>Apple Iphone 15 Pro 128GB 256GB 512GB 1TB Black Blue Natural Titanium - Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50000</v>
+        <v>17999000</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/15913926592/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58666058203/large/data.png</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4967,57 +4987,57 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gj7q6j-jual-kaos-3second-kaos-threesecond-kaos-pendek-pria-3second-kaos-band-3-second-baju-distro-3second-kaos-combed-30s-kaos-distro-pria</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8e0v-jual-apple-iphone-15-pro-128gb-256gb-512gb-1tb-black-blue-natural-titanium-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>4h9kywa</t>
+          <t>4hp6evv</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro SECURITY MERAH PUTiH KEAMANAN polos custom indonesia</t>
+          <t>Original Hybrid Hard Soft Case Clear Magsafe Tpu Back Acrylic Cover iPhone 15 Pro Casing Premium Ultra Thin Slim Transparan Ori</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>55500</v>
+        <v>217000</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/24893715103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/80532996103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h9kywa-jual-kaos-baju-distro-security-merah-putih-keamanan-polos-custom-indonesia</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp6evv-jual-original-hybrid-hard-soft-case-clear-magsafe-tpu-back-acrylic-cover-iphone-15-pro-casing-premium-ultra-thin-slim-transparan-ori</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4dkcp7g</t>
+          <t>4hpcdu1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5027,35 +5047,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Baju Kaos Polos Oblong Lengan Pendek Bandung GREY MISTY Pria wanita Abu Misty Cotton Combed 30s</t>
+          <t>Original Sulada Leather Tide Cool Series Hard Soft Case iPhone 15 Pro Max 15 Pro Cover Casing Strap Standing Hand Grip Ultra Thin Slim Protection</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45000</v>
+        <v>239000</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/22781046892/large/2cca6fe707e5c0f44b205cf30eb67c35.jpg</t>
+          <t>https://s2.bukalapak.com/img/71528937103/large/3fbfd393_2aa7_495d_926f_4ea5e09e6e2e.jpg</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcp7g-jual-baju-kaos-polos-oblong-lengan-pendek-bandung-grey-misty-pria-wanita-abu-misty-cotton-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpcdu1-jual-original-sulada-leather-tide-cool-series-hard-soft-case-iphone-15-pro-max-15-pro-cover-casing-strap-standing-hand-grip-ultra-thin-slim-protection</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4gbwypa</t>
+          <t>4hrgxsv</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5065,53 +5085,49 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Kaos PE Polos - kaos murah Pe WINSTAR - kaos polyester - kaos pria dan wanita - grosir baju polos - kaos polos murah - kaos polos</t>
+          <t>Original Magsafe Soft Case iPhone 15 Pro Max Plus Standing Casing Cover Ultra Thin Slim Premium</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>12000</v>
+        <v>195000</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29512995892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58002953203/large/37609ad0_7610_45f3_87b3_c24e55b1cc74.png</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gbwypa-jual-kaos-pe-polos-kaos-murah-pe-winstar-kaos-polyester-kaos-pria-dan-wanita-grosir-baju-polos-kaos-polos-murah-kaos-polos</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hrgxsv-jual-original-magsafe-soft-case-iphone-15-pro-max-plus-standing-casing-cover-ultra-thin-slim-premium</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4g4d3yg</t>
+          <t>4hpnnyv</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Baju Kaos PUTIH Polos Oblong Pria Wanita Grosir</t>
+          <t>Ringke Onyx Case iPhone 15 Pro - Armor Casing Cover Original PC TPU Shock Proof 15p</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19900</v>
+        <v>257400</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/36296718592/large/data.png</t>
+          <t>https://s4.bukalapak.com/img/40702428103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -5119,75 +5135,75 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g4d3yg-jual-baju-kaos-putih-polos-oblong-pria-wanita-grosir</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpnnyv-jual-ringke-onyx-case-iphone-15-pro-armor-casing-cover-original-pc-tpu-shock-proof-15p</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>4hrfplg</t>
+          <t>4hp8oq7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Spigen</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kaos Baju Wakanda No More Indonesia Forever polos Amin Anies Muhaimin</t>
+          <t>Spigen Rugged Armor Mag Case iPhone 15 Pro - Magsafe Soft Cover Magnet Magnetic Shock Proof 15p</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>46000</v>
+        <v>346500</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/15132743203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/10006317103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfplg-jual-kaos-baju-wakanda-no-more-indonesia-forever-polos-amin-anies-muhaimin</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hp8oq7-jual-spigen-rugged-armor-mag-case-iphone-15-pro-magsafe-soft-cover-magnet-magnetic-shock-proof-15p</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>4hilasv</t>
+          <t>4hpb5pg</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Lainnya</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>KAUS LENGAN PANJANG MOTIF POLOS BAJU KAOS PRIA MODEL KEKINIAN NEW MEN STYLE KOREA BTS ALLSIZE BUSANA LAKI LAKI MODEL COWOK HITAM MAROON PUTIH ABU ABU</t>
+          <t>Softcase Premium Ring Iring Kickstand Armor Original Protective Slide Camera Cover Casing Case iPhone IPhone 15 Pro</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>70000</v>
+        <v>165000</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/29358550003/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58702137103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -5195,19 +5211,19 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hilasv-jual-kaus-lengan-panjang-motif-polos-baju-kaos-pria-model-kekinian-new-men-style-korea-bts-allsize-busana-laki-laki-model-cowok-hitam-maroon-putih-abu-abu</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpb5pg-jual-softcase-premium-ring-iring-kickstand-armor-original-protective-slide-camera-cover-casing-case-iphone-iphone-15-pro</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4hrj46v</t>
+          <t>4hqmydv</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5217,15 +5233,15 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Kaos Baju 1 AMIN Anies Baswedan Muhaimin 2024 Presiden Wakil indonesia</t>
+          <t>Original Flip Case Cover Casing iPhone 15 Pro - 15 Pro Max - 15 Plus Flip Magsafe Case Leather Wallet Dompet Flipcase Lipat Back Transparan Slim</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>46000</v>
+        <v>240000</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/81366083203/large/data.jpeg</t>
+          <t>https://s1.bukalapak.com/img/15856490203/large/202311280150383dc478fbcc32cdb08e052551a3d90fb0.jpg</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5233,19 +5249,19 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrj46v-jual-kaos-baju-1-amin-anies-baswedan-muhaimin-2024-presiden-wakil-indonesia</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqmydv-jual-original-flip-case-cover-casing-iphone-15-pro-15-pro-max-15-plus-flip-magsafe-case-leather-wallet-dompet-flipcase-lipat-back-transparan-slim</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4hjd0a7</t>
+          <t>4hpxxm7</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5255,15 +5271,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Kaos TSHIRT Baju Distro BENDERA MALAYSIA oleh FLAG SOUVENIR SUVENIR</t>
+          <t>Original CaseMe Flipcase Leather Cover Wallet Slot Card Dompet Flip Case iPhone 15 Pro - 15 Pro Max Casing Kulit Asli Premium full Protection Hp</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>52900</v>
+        <v>329000</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/94491442003/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/91760109103/large/dd4bff6c_9cbe_4f83_bb77_26c79844157d.jpg</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -5271,113 +5287,105 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hjd0a7-jual-kaos-tshirt-baju-distro-bendera-malaysia-oleh-flag-souvenir-suvenir</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpxxm7-jual-original-caseme-flipcase-leather-cover-wallet-slot-card-dompet-flip-case-iphone-15-pro-15-pro-max-casing-kulit-asli-premium-full-protection-hp</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4b30157</t>
+          <t>4hpsu6s</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nillkin</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>HD Kaos raglan Vneck polos kaos raglan pria fashion pria baju distro pria</t>
+          <t>Nillkin Hard Pro Case iPhone 15 Pro Max - Frosted Shield Thin Slim Casing Black Original Cover Super</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25000</v>
+        <v>110880</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/63493698082/large/12dc82df50d2c07c28abe0d24b9bf3f3.jpg</t>
+          <t>https://s4.bukalapak.com/img/49508268103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4b30157-jual-hd-kaos-raglan-vneck-polos-kaos-raglan-pria-fashion-pria-baju-distro-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpsu6s-jual-nillkin-hard-pro-case-iphone-15-pro-max-frosted-shield-thin-slim-casing-black-original-cover-super</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>sdrldw</t>
+          <t>4hpri17</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Kaos Baju Obral Combed 30S Distro JUVENTUS EMAS GOLD BiANCONERi Juve</t>
+          <t>Solid TPU Case iPhone 15 - Camera Black Soft Cover Casing Protector Hitam i15</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54900</v>
+        <v>59400</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/0462842273/large/Kaos_Baju_Obral_Combed_30S_Distro_JUVENTUS_EMAS_GOLD_BiANCON.jpg</t>
+          <t>https://s1.bukalapak.com/img/15953358103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/sdrldw-jual-kaos-baju-obral-combed-30s-distro-juventus-emas-gold-bianconeri-juve</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpri17-jual-solid-tpu-case-iphone-15-camera-black-soft-cover-casing-protector-hitam-i15</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>4ho93ma</t>
+          <t>4hpsu11</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>iPhone</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Kaos Pria Lengan Pendek / Baju Atasan Fashion Kasual Kaos Lengan Pendek Pria</t>
+          <t>APPLE IPHONE 15 PRO 128 256 512 GB 1 TB GARANSI RESMI IBOX TERMURAH</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>98000</v>
+        <v>21745800</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/61720254103/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/49466799103/large/data.png</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5385,19 +5393,19 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ho93ma-jual-kaos-pria-lengan-pendek-baju-atasan-fashion-kasual-kaos-lengan-pendek-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hpsu11-jual-apple-iphone-15-pro-128-256-512-gb-1-tb-garansi-resmi-ibox-termurah</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4hdux7p</t>
+          <t>4hpcdu1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5407,15 +5415,15 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>TOMOINC Tshirt baju kaos band Nirvana Vol 02</t>
+          <t>Original Sulada Leather Tide Cool Series Hard Soft Case iPhone 15 Pro Max 15 Pro Cover Casing Strap Standing Hand Grip Ultra Thin Slim Protection</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>169000</v>
+        <v>239000</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58672460992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/71528937103/large/3fbfd393_2aa7_495d_926f_4ea5e09e6e2e.jpg</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5423,19 +5431,19 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdux7p-jual-tomoinc-tshirt-baju-kaos-band-nirvana-vol-02</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpcdu1-jual-original-sulada-leather-tide-cool-series-hard-soft-case-iphone-15-pro-max-15-pro-cover-casing-strap-standing-hand-grip-ultra-thin-slim-protection</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3xh8dzf</t>
+          <t>4hpemq4</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5445,53 +5453,49 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>KAOS BAJU LENGAN PENDEK REEBOK PRIA WANITA COMBED 30S</t>
+          <t>Original Soft Case Tpu Jelly Leather Genuine Cover Casing iPhone 15 15 Plus 15 Pro 15 Pro Max Softcase Snapgard Ultra Slim Protection Suport Wireless</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85500</v>
+        <v>255000</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/75349063003/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/02775957103/large/20230923023007be0c45be74aa62b314bed2e908982a9a.jpeg</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3xh8dzf-jual-kaos-baju-lengan-pendek-reebok-pria-wanita-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpemq4-jual-original-soft-case-tpu-jelly-leather-genuine-cover-casing-iphone-15-15-plus-15-pro-15-pro-max-softcase-snapgard-ultra-slim-protection-suport-wireless</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4hdvr64</t>
+          <t>4hpstpp</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>HP Android</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TOMOINC Tshirt baju kaos Stranger Things Vol 04</t>
+          <t>APPLE IPHONE 15 128 256 512 GB GARANSI RESMI IBOX TERMURAH</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>169000</v>
+        <v>13891800</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/93285860992/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/76776950203/large/data.png</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -5499,57 +5503,57 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdvr64-jual-tomoinc-tshirt-baju-kaos-stranger-things-vol-04</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/hp-android/4hpstpp-jual-apple-iphone-15-128-256-512-gb-garansi-resmi-ibox-termurah</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>408ngpi</t>
+          <t>4hqh4pa</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Ferrari</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>kaos original pria baju pria original kaos salur pria baju distro pria</t>
+          <t>Official Original Casing Ferrari MagSafe Ringstand Case IPhone 15 - Plus - Pro - Pro Max Soft Case Leather Genuine Luxury Premium Protection Cover</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>65000</v>
+        <v>890000</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/58096091782/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/74976050203/large/ee90d8dd_a2b2_4fe2_ad47_bee6536955ec.jpg</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/408ngpi-jual-kaos-original-pria-baju-pria-original-kaos-salur-pria-baju-distro-pria</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqh4pa-jual-official-original-casing-ferrari-magsafe-ringstand-case-iphone-15-plus-pro-pro-max-soft-case-leather-genuine-luxury-premium-protection-cover</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>4hdo7uj</t>
+          <t>4hpemq4</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5559,35 +5563,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Kaos Tshirt Baju t shirt Distro pe hitam polyester polos custom murah</t>
+          <t>Original Soft Case Tpu Jelly Leather Genuine Cover Casing iPhone 15 15 Plus 15 Pro 15 Pro Max Softcase Snapgard Ultra Slim Protection Suport Wireless</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19500</v>
+        <v>255000</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/94063220992/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/02775957103/large/20230923023007be0c45be74aa62b314bed2e908982a9a.jpeg</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hdo7uj-jual-kaos-tshirt-baju-t-shirt-distro-pe-hitam-polyester-polos-custom-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpemq4-jual-original-soft-case-tpu-jelly-leather-genuine-cover-casing-iphone-15-15-plus-15-pro-15-pro-max-softcase-snapgard-ultra-slim-protection-suport-wireless</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>4g32oma</t>
+          <t>4hqw1rp</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5597,35 +5601,35 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Kaos Baju Distro Pria Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Anak Laki Murah Keren Terlaris Terbaru WUTZE</t>
+          <t>Original Getgard Magnetic Leather Case Cover Casing MagSafe iPhone 15 Pro Max Plus Slim Fit Protection Anti Slip Full Protection Premium Ori Asli</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>44000</v>
+        <v>320000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://s1.bukalapak.com/img/19598607292/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/00458471203/large/202312140114209c8943b5733d56f6c91f18fcd5da65d7.jpg</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g32oma-jual-kaos-baju-distro-pria-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-anak-laki-murah-keren-terlaris-terbaru-wutze</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqw1rp-jual-original-getgard-magnetic-leather-case-cover-casing-magsafe-iphone-15-pro-max-plus-slim-fit-protection-anti-slip-full-protection-premium-ori-asli</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1gmieec</t>
+          <t>4hqo2pd</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5635,35 +5639,35 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Kaos TURTLENECK LENGAN PENDEK turtle neck pria baju kerah tinggi korea style</t>
+          <t>Original Soft Case iPhone 11 12 13 14 15 Pro Max Hologram Plain Cover casing</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/9082813448/large/data.png</t>
+          <t>https://s2.bukalapak.com/img/29472401203/large/4a5f8de3_ed06_4b10_9691_1c14dc632854.jpg</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/1gmieec-jual-kaos-turtleneck-lengan-pendek-turtle-neck-pria-baju-kerah-tinggi-korea-style</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqo2pd-jual-original-soft-case-iphone-11-12-13-14-15-pro-max-hologram-plain-cover-casing</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>zvwssa</t>
+          <t>4hq21xd</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5673,15 +5677,15 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Kaos Baju Obral Combed 30 Distro ZiLDJiAN Murah Musik Music Tshirt</t>
+          <t>Hydrogel Anti Spy iPhone 15 Pro Max Plus Anti Gores Full Layar Cover Original</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44900</v>
+        <v>110000</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/8194507984/large/Kaos_Baju_Obral_Combed_30_Distro_ZiLDJiAN_Murah_Musik_Music_.jpg</t>
+          <t>https://s3.bukalapak.com/img/80876139103/large/f39a029f_2c1c_4e18_aacd_a864ea0b046e.jpg</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5689,75 +5693,71 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/zvwssa-jual-kaos-baju-obral-combed-30-distro-zildjian-murah-musik-music-tshirt</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq21xd-jual-hydrogel-anti-spy-iphone-15-pro-max-plus-anti-gores-full-layar-cover-original</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4dkcndd</t>
+          <t>4hsuxf4</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>iPhone</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Baju Kaos Polos Lengan Pendek BLACK SOLID Hitam Cewek Cowok COTTON COMBED 30S</t>
+          <t>iphone 15 Plus</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>45000</v>
+        <v>14950000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/33107766892/large/39b4bacd1f6a2b47d924b37a3e0ce31b.jpg</t>
+          <t>https://s2.bukalapak.com/img/22198238203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcndd-jual-baju-kaos-polos-lengan-pendek-black-solid-hitam-cewek-cowok-cotton-combed-30s</t>
+          <t>https://www.bukalapak.com/p/handphone/hp-smartphone/iphone/4hsuxf4-jual-iphone-15-plus</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7fahi8</t>
+          <t>4hpnntd</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Kaos Mercedes Benz /Tshirt baju</t>
+          <t>Ringke Fusion Bold Case iPhone 15 - Acrylic Clear Casing PC TPU Cover Soft Hard Rugged Hybrid i15</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>103500</v>
+        <v>257400</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/8951125601/large/Kaos_Mercedes_Benz__Tshirt_baju.jpg</t>
+          <t>https://s2.bukalapak.com/img/77881428103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5765,37 +5765,37 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7fahi8-jual-kaos-mercedes-benz-tshirt-baju</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpnntd-jual-ringke-fusion-bold-case-iphone-15-acrylic-clear-casing-pc-tpu-cover-soft-hard-rugged-hybrid-i15</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>4hp1q9y</t>
+          <t>4hqaau7</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['Spigen']</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Kaos Lengan Panjang Mizuno Kirka Text Silver Premium Baju Pria Wanita Premium Kaos</t>
+          <t>Ugreen 2559 HD Tempered Glass iPhone 15 Pro Max - 2pcs Screen Cover Protector Guard Original</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>135000</v>
+        <v>84150</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/92735766103/large/data.jpeg</t>
+          <t>https://s3.bukalapak.com/img/38414499103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -5803,75 +5803,71 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp1q9y-jual-kaos-lengan-panjang-mizuno-kirka-text-silver-premium-baju-pria-wanita-premium-kaos</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hqaau7-jual-ugreen-2559-hd-tempered-glass-iphone-15-pro-max-2pcs-screen-cover-protector-guard-original</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>d9absd</t>
+          <t>4hpnnwp</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>Casing &amp; Cover</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Kaos Tshirt Baju Combed 30S Distro Save Gaza Palestina Palestine Murah</t>
+          <t>Ringke Fusion-X Case iPhone 15 Pro Max - Acrylic Clear Casing PC TPU Cover Soft Hard Rugged Hybrid</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45500</v>
+        <v>247500</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/07741511203/large/Kaos_Tshirt_Baju_Combed_30S_Distro_Save_Gaza_Palestina_Pales.jpg</t>
+          <t>https://s3.bukalapak.com/img/86302428103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/d9absd-jual-kaos-tshirt-baju-combed-30s-distro-save-gaza-palestina-palestine-murah</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpnnwp-jual-ringke-fusion-x-case-iphone-15-pro-max-acrylic-clear-casing-pc-tpu-cover-soft-hard-rugged-hybrid</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>4h83cgg</t>
+          <t>4hq4nnp</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>msvii</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Kaos Baju FOTO GAMBAR LOGO SABLON FULL WARNA polos custom DTF SATUAN</t>
+          <t>MSVII iPhone 15 - Plus - Pro - Pro Max - Borderless Frosted Slim Case</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>59500</v>
+        <v>109200</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://s0.bukalapak.com/img/03717598792/large/data.jpeg</t>
+          <t>https://s4.bukalapak.com/img/92581059103/large/data.jpeg</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5879,19 +5875,19 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h83cgg-jual-kaos-baju-foto-gambar-logo-sablon-full-warna-polos-custom-dtf-satuan</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hq4nnp-jual-msvii-iphone-15-plus-pro-pro-max-borderless-frosted-slim-case</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>4hohiqy</t>
+          <t>4hp8drv</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Smartphone</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5901,15 +5897,15 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Kaos Tshirt Baju Murah Distro Bismania PO Haryanto ROSALIA INDAH Scania SHD Bus Mania bis BusMania polos custom indonesia pria wanita keren kata lucu</t>
+          <t>Apple iPhone 15-128GB-256GB-512GB- Garansi Resmi IBOX</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>53500</v>
+        <v>13619000</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/71195415103/large/data.png</t>
+          <t>https://s0.bukalapak.com/img/03856058203/large/data.jpeg</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -5917,19 +5913,19 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hohiqy-jual-kaos-tshirt-baju-murah-distro-bismania-po-haryanto-rosalia-indah-scania-shd-bus-mania-bis-busmania-polos-custom-indonesia-pria-wanita-keren-kata-lucu</t>
+          <t>https://www.bukalapak.com/p/gorillatech/smartphone-laptop/smartphone/4hp8drv-jual-apple-iphone-15-128gb-256gb-512gb-garansi-resmi-ibox</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>4ho94vj</t>
+          <t>4hpsfba</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5939,15 +5935,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kaos Pria Kaos Distro Baju Atasan Pria Lengan Pendek Always Casual Distro</t>
+          <t>Original Nillkin Qin Pro Leather Flip Case Cover Casing iPhone 15 Pro Max Case iPhone 15 Plus Flipcase Slot card Wallet Standing Camera Protect Ori</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>119000</v>
+        <v>340000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://s2.bukalapak.com/img/27682254103/large/data.jpeg</t>
+          <t>https://s2.bukalapak.com/img/29864958103/large/3864a762_442d_4c92_82f2_f09d74357313.jpg</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5955,19 +5951,19 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4ho94vj-jual-kaos-pria-kaos-distro-baju-atasan-pria-lengan-pendek-always-casual-distro</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hpsfba-jual-original-nillkin-qin-pro-leather-flip-case-cover-casing-iphone-15-pro-max-case-iphone-15-plus-flipcase-slot-card-wallet-standing-camera-protect-ori</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>4gucjny</t>
+          <t>4hqv00m</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Casing &amp; Cover</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5977,15 +5973,15 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER REMAJA PREMIUM</t>
+          <t>Case iPhone 15 Pro Max 15 Pro CaseMe 023 Wallet Leather Flip Cover Original</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>79800</v>
+        <v>329000</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://s4.bukalapak.com/img/48195186892/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/54395561203/large/8166962d_557f_4704_8a42_4592993f041d.jpg</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -5993,19 +5989,19 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gucjny-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-remaja-premium</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/casing-cover/4hqv00m-jual-case-iphone-15-pro-max-15-pro-caseme-023-wallet-leather-flip-cover-original</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>4gti1as</t>
+          <t>4hq226y</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kaos</t>
+          <t>Screen Guard</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6015,1911 +6011,23 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>BAJU KAOS COWOK PRIA DEWASA LENGAN PANJANG SWEATER PREMIUM</t>
+          <t>Ring Camera iPhone 15 Pro Max Plus Metal Lens Protector Anti Gores Original</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>79800</v>
+        <v>85000</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://s3.bukalapak.com/img/89851896103/large/data.jpeg</t>
+          <t>https://s0.bukalapak.com/img/58517139103/large/312bc935_b016_4105_bd74_72b177b67cd9.jpg</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gti1as-jual-baju-kaos-cowok-pria-dewasa-lengan-panjang-sweater-premium</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>4gdj1ed</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>BAJU KAOS PRIA COWOK DEWASA LENGAN PANJANG DISTRO good Quality</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>79800</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/51532896103/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gdj1ed-jual-baju-kaos-pria-cowok-dewasa-lengan-panjang-distro-good-quality</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>4gt1idv</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>KAOS DISTRO VINTAGE TRUCK - BAJU TSHIRT Asli Cotton</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>54910</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/45567525103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>5</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gt1idv-jual-kaos-distro-vintage-truck-baju-tshirt-asli-cotton</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>4gvjhl4</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Baju Muslim Anak</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>ASIA Setelan Anak dan Bayi Baju Koko Celana Panjang Kokoh Baby TK SD Kurta Berkualitas MURAH</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>47920</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/81831247792/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/busana-muslim/baju-muslim-anak/4gvjhl4-jual-asia-setelan-anak-dan-bayi-baju-koko-celana-panjang-kokoh-baby-tk-sd-kurta-berkualitas-murah</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>4gxos0a</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Busana Muslim Pria</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>ASIA Kurta Pakistan bahan Kaos Lengan 3 4 Baju Koko Modern Berkualitas MURAH</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>103920</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/97109491003/large/data.png</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/baju-muslim-perlengkapan-sholat/busana-muslim-pria/4gxos0a-jual-asia-kurta-pakistan-bahan-kaos-lengan-3-4-baju-koko-modern-berkualitas-murah</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>4gsir1j</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>KAOS DISTRO CAFE RACER - BAJU  RACING TSHIRT RACER TEES</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>55005</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/69408525103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>5</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gsir1j-jual-kaos-distro-cafe-racer-baju-racing-tshirt-racer-tees</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>crdip4</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Kaos Distro Juragan Muda - Baju Tshirt Unik</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>57900</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/12282375103/large/Kaos_Distro_Juragan_Muda___Baju_Tshirt_Unik.jpg</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/crdip4-jual-kaos-distro-juragan-muda-baju-tshirt-unik</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>4hmxaw4</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>BAJU KAOS TSHIRT DISTRO FASHION PRIA COWOK LAKI-LAKI DEWASA SKYMOIS BANDUNG PREMIUM BRANDED ORIGINAL TERBARU TERLARIS</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>77350</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/13217721103/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>5</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmxaw4-jual-baju-kaos-tshirt-distro-fashion-pria-cowok-laki-laki-dewasa-skymois-bandung-premium-branded-original-terbaru-terlaris</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>4hs2wr4</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Muslim Anak-Remaja Collection Bordir 6 bulan-12 Tahun</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>65000</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/74719817203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wr4-jual-macbear-baju-anak-remaja-laki-laki-polo-muslim-anak-remaja-collection-bordir-6-bulan-12-tahun</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>4hs2wra</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Polo Anak-Remaja Authentic Collection M Bear Stripe 6 bulan-12 Tahun</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/37352975203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2wra-jual-macbear-baju-anak-remaja-laki-laki-polo-anak-remaja-authentic-collection-m-bear-stripe-6-bulan-12-tahun</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>4hs2xpy</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>MacBear Baju Anak-Remaja Laki-laki Kaos Polo Anak-Remaja Animal Collection Puppy Cute 6 Bulan-12 Tahun</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/04129817203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-anak/anak-laki-laki/kaos-1423/4hs2xpy-jual-macbear-baju-anak-remaja-laki-laki-kaos-polo-anak-remaja-animal-collection-puppy-cute-6-bulan-12-tahun</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>4hrfe94</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Kaos Baju BUSMANIA GENGGONG ARYA anak dewasa BUS Bis mania Bismania</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>60500</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/24881543203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>5</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfe94-jual-kaos-baju-busmania-genggong-arya-anak-dewasa-bus-bis-mania-bismania</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>4hg01hj</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Kaos distro kaos baju distro premium</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>29999</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/48841394992/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>5</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hg01hj-jual-kaos-distro-kaos-baju-distro-premium</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>4hkg8p7</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Kaos Baju Distro YAMAHA GRAND FILANO polos custom Motor otomotif murah</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>71900</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/76541125003/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>4</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hkg8p7-jual-kaos-baju-distro-yamaha-grand-filano-polos-custom-motor-otomotif-murah</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>7uarmf</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Kaos - Baju - Tshirt - DC 01</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>105000</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/35470665892/large/Kaos___Baju___Tshirt___DC_01.jpg</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/7uarmf-jual-kaos-baju-tshirt-dc-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>4gtj8r4</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Kaos Baju Distro Binance polos custom Crypto Cryptocurrency kripto cod</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>42900</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/14985876592/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>5</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gtj8r4-jual-kaos-baju-distro-binance-polos-custom-crypto-cryptocurrency-kripto-cod</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>4gxl3sd</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Kaos CALIFORNIA WEST COAST - Tshirt Baju Distro Asli Cotton</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>57510</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/88457325103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>5</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gxl3sd-jual-kaos-california-west-coast-tshirt-baju-distro-asli-cotton</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>l5qz0z</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Kaos Distro Seven Baju Tshirt</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/04821375103/large/4.png</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/l5qz0z-jual-kaos-distro-seven-baju-tshirt</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>mc9lad</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Baju Distro Kaos Satoe Indonesia Tshirt Terbaik</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>53486</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/59895221203/large/data.png</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>5</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/mc9lad-jual-baju-distro-kaos-satoe-indonesia-tshirt-terbaik</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>nk041b</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Baju Distro Kaos Tshirt Cat Silhouette</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>56990</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/40202025103/large/cat5.png</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>5</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/nk041b-jual-baju-distro-kaos-tshirt-cat-silhouette</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2z3y4vu</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>TERMURAH - Baju Kaos Polos Pendek Distro Katun Combed Premium Solid - Unisex Cocok Untuk Pria Dan Wanita</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>39000</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/65850895842/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2z3y4vu-jual-termurah-baju-kaos-polos-pendek-distro-katun-combed-premium-solid-unisex-cocok-untuk-pria-dan-wanita</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>404qjix</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>kaos profesi baju pengacara have no fear the lawyer is here</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>90000</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/82488157262/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>5</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/404qjix-jual-kaos-profesi-baju-pengacara-have-no-fear-the-lawyer-is-here</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>4g8pph1</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Kaos Baju Distro Casual Pria Wanita Polos Hitam Putih Cotton Combed Lengan Pendek untuk Cowok Cewek Unisex Keren Murah Terlaris BOTOL</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>44000</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/33873664492/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4g8pph1-jual-kaos-baju-distro-casual-pria-wanita-polos-hitam-putih-cotton-combed-lengan-pendek-untuk-cowok-cewek-unisex-keren-murah-terlaris-botol</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>17s5vq8</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Kaos Baju Obral Combed 30S Distro TO BE CONTiNUE Jepang Japan Anime</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>35500</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/11820687103/large/Kaos_Baju_Obral_Combed_30S_Distro_TO_BE_CONTiNUE_Jepang_Japa.jpg</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/17s5vq8-jual-kaos-baju-obral-combed-30s-distro-to-be-continue-jepang-japan-anime</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>32puiqa</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Jersey Baseball - Baju Pria New York Grey Black Premium</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>126650</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/62932442302/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/32puiqa-jual-jersey-baseball-baju-pria-new-york-grey-black-premium</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>4hlrp57</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Kaos Baju CiTY PARiS FRANCE Perancis Prancis souvenir oleh suvenir cod</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>53900</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/91328758003/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>5</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hlrp57-jual-kaos-baju-city-paris-france-perancis-prancis-souvenir-oleh-suvenir-cod</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>4h52xms</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>KaosYES Kaos Polos V-Neck Cotton Combed 24s - TShirt Baju Kaos Distro Pria VNeck</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>28000</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/18918383203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>5</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h52xms-jual-kaosyes-kaos-polos-v-neck-cotton-combed-24s-tshirt-baju-kaos-distro-pria-vneck</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>4hqwn2v</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>BAJU PRIA TERBARU MOTIF DISTRO VANDERS KAOS COWOK MURAH BERKUALITAS</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>65000</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/47232971203/large/data.jpg</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>5</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hqwn2v-jual-baju-pria-terbaru-motif-distro-vanders-kaos-cowok-murah-berkualitas</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>23pvwdw</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Kaos Baju Obral Combed 30S Distro LOGO KECiL NASA polos custom Murah</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>49400</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/70841180921/large/2019_08_08T12_38_17_07_00.jpg</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/23pvwdw-jual-kaos-baju-obral-combed-30s-distro-logo-kecil-nasa-polos-custom-murah</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>4hs2kq4</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Kaos Baju BUSMANIA Faqih Sudiro STJ anak dewasa BUS Bis mania Bismania</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>50500</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/88877555203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>5</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs2kq4-jual-kaos-baju-busmania-faqih-sudiro-stj-anak-dewasa-bus-bis-mania-bismania</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>2ozgm8i</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Busana Muslim Wanita</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Merek lainnya</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Baju Gamis Syari Wanita Terbaru Nadine Maxy BEST SELLER</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>85000</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/63887134271/large/n.jpg</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-wanita/baju-muslim-perlengkapan-sholat-2555/busana-muslim-wanita/2ozgm8i-jual-baju-gamis-syari-wanita-terbaru-nadine-maxy-best-seller</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>askcdy</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Baju Distro Kaos Tshirt Republic Of Gamers ROG</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>60705</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/53702025103/large/Baju_Distro_Kaos_Tshirt_Republic_Of_Gamers_ROG.jpg</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/askcdy-jual-baju-distro-kaos-tshirt-republic-of-gamers-rog</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>4hmxat4</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>BAJU KAOS TSHIRT DISTRO FASHION PRIA COWOK LAKI-LAKI DEWASA SKYMOIS BANDUNG PREMIUM BRANDED ORIGINAL TERBARU TERLARIS</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>77350</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/27296721103/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>5</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hmxat4-jual-baju-kaos-tshirt-distro-fashion-pria-cowok-laki-laki-dewasa-skymois-bandung-premium-branded-original-terbaru-terlaris</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>3ffx7cj</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Kaos Distro Indonesia One Tshirt Baju Terbaik</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>55005</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/77175075103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/3ffx7cj-jual-kaos-distro-indonesia-one-tshirt-baju-terbaik</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>4gcf2ap</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>BAJU KAOS TSHIRT T SHIRT DISTRO FASHION PRIA COWOK LAKI LAKI DEWASA GREENLIGHT PREMIUM BRANDED BANDUNG ORIGINAL TERBARU TERLARIS MURAH 2021</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>69350</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/80237473003/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gcf2ap-jual-baju-kaos-tshirt-t-shirt-distro-fashion-pria-cowok-laki-laki-dewasa-greenlight-premium-branded-bandung-original-terbaru-terlaris-murah-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>ap6h0y</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Baju Kaos Distro Eat Sleep Game</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>57900</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/82973415103/large/Baju_Kaos_Distro_Eat_Sleep_Game.jpg</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/ap6h0y-jual-baju-kaos-distro-eat-sleep-game</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>4hrfu5j</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Kaos Baju BUSMANIA SJM BATOSAI anak dewasa BUS Bis mania Bismania cod</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>60500</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/05915843203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>5</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hrfu5j-jual-kaos-baju-busmania-sjm-batosai-anak-dewasa-bus-bis-mania-bismania-cod</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>4hldjts</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Kaos Baju Distro Doa Ibuku Yang Kuat polos Dakwah Islami Muslim Santri</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>55900</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/34221757003/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>5</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hldjts-jual-kaos-baju-distro-doa-ibuku-yang-kuat-polos-dakwah-islami-muslim-santri</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>4hs4vbm</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Kaos TSHIRT Baju My Oshi Freya MEMBER JKT 48 polos Viral Streetwear</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>55500</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/00100775203/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>5</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hs4vbm-jual-kaos-tshirt-baju-my-oshi-freya-member-jkt-48-polos-viral-streetwear</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>4dkcogp</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Baju Kaos Polos Oblong Bandung YELLOW BABY Kuning Muda Cewek Cowok Cotton Combed 30s</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/52030566892/large/a55e646be0fdcbc4a7ba22c53cf55095.jpg</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4dkcogp-jual-baju-kaos-polos-oblong-bandung-yellow-baby-kuning-muda-cewek-cowok-cotton-combed-30s</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>fpa4dn</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Kaos Tshirt Baju Combed 30S Distro Converse All Star Murah Jersey</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>44900</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/3609954532/large/Kaos_Tshirt_Baju_Combed_30S_Distro_Converse_All_Star_Murah_J.jpg</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fpa4dn-jual-kaos-tshirt-baju-combed-30s-distro-converse-all-star-murah-jersey</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>2bkqqdw</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>kaos STRIPES PUTIH Baju distro polos pria shoulder stripe list casual</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>9999</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/55302975441/large/KAOS_STRIPES_PUTIH.png</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/2bkqqdw-jual-kaos-stripes-putih-baju-distro-polos-pria-shoulder-stripe-list-casual</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>d4089u</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>BAJU Kaos Tshirt YAMAHA Nmax Club Indonesia KAOS OTOMOTIF</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>70000</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/05843074003/large/data.png</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>4</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/d4089u-jual-baju-kaos-tshirt-yamaha-nmax-club-indonesia-kaos-otomotif</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>4h74y4a</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Kaos Baju Distro Pertamina Mandalika Sponsor SAG bumn polos custom cod</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>77900</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>https://s1.bukalapak.com/img/17628217792/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>5</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4h74y4a-jual-kaos-baju-distro-pertamina-mandalika-sponsor-sag-bumn-polos-custom-cod</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>4gpl191</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>BAJU SERAGAM KAOS SATPAM SECURITY PDL LENGAN PANJANG PENEMBAK BANTALAN</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>https://s0.bukalapak.com/img/52988691592/large/9517007_1c0cb07c_68e3_49bf_9c88_1b5f9f9c6a76_1920_1920.jpg</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>5</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gpl191-jual-baju-seragam-kaos-satpam-security-pdl-lengan-panjang-penembak-bantalan</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>4gt1idv</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>KAOS DISTRO VINTAGE TRUCK - BAJU TSHIRT Asli Cotton</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>54910</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>https://s4.bukalapak.com/img/45567525103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>5</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4gt1idv-jual-kaos-distro-vintage-truck-baju-tshirt-asli-cotton</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>40l1xmu</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Kaos Garis Merah Putih Indonesia Tshirt Baju Distro</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>53486</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/34563165103/large/data.png</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>5</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/40l1xmu-jual-kaos-garis-merah-putih-indonesia-tshirt-baju-distro</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>fqur6l</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>PROMO Kaos Distro Original SimpleStory Baju Tshirt Terbaik</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>66640</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/37828358203/large/data.png</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>5</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/fqur6l-jual-promo-kaos-distro-original-simplestory-baju-tshirt-terbaik</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>lw9t9r</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Baju Distro Kaos Sepeda Bike Tshirt</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/73285808203/large/data.png</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>5</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/lw9t9r-jual-baju-distro-kaos-sepeda-bike-tshirt</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>4hp5u01</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Kaos Lengan Panjang  Text Silver Premium Baju Pria Wanita Premium Kaos (Custom)</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>135000</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>https://s3.bukalapak.com/img/36668967103/large/data.jpeg</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>5</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/4hp5u01-jual-kaos-lengan-panjang-text-silver-premium-baju-pria-wanita-premium-kaos-custom</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>aufek8</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Kaos</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Baju Distro Kaos Tshirt Original Simple Story</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>68850</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>https://s2.bukalapak.com/img/76168667203/large/data.png</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://www.bukalapak.com/p/fashion-pria/kaos-165/aufek8-jual-baju-distro-kaos-tshirt-original-simple-story</t>
+          <t>https://www.bukalapak.com/p/handphone/aksesoris-handphone/screen-guard/4hq226y-jual-ring-camera-iphone-15-pro-max-plus-metal-lens-protector-anti-gores-original</t>
         </is>
       </c>
     </row>
